--- a/wiki/report/Tasksheet.xlsx
+++ b/wiki/report/Tasksheet.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
   <si>
     <t>No.</t>
   </si>
@@ -605,11 +605,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -626,18 +633,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -944,7 +944,7 @@
   <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -970,36 +970,36 @@
       <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="26" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" hidden="1">
-      <c r="A2" s="22">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="32" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -1017,8 +1017,8 @@
       <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" hidden="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="4" t="s">
         <v>48</v>
       </c>
@@ -1034,8 +1034,8 @@
       <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" hidden="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="4" t="s">
         <v>49</v>
       </c>
@@ -1051,8 +1051,8 @@
       <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" hidden="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="4" t="s">
         <v>50</v>
       </c>
@@ -1068,8 +1068,8 @@
       <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" hidden="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1083,8 +1083,8 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" hidden="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1098,10 +1098,10 @@
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" hidden="1">
-      <c r="A8" s="23">
+      <c r="A8" s="33">
         <v>2</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1117,8 +1117,8 @@
       <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" hidden="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1132,8 +1132,8 @@
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" hidden="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
@@ -1147,8 +1147,8 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" hidden="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1162,8 +1162,8 @@
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" hidden="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1177,13 +1177,13 @@
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="15.75">
-      <c r="A13" s="23">
+      <c r="A13" s="33">
         <v>3</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="2"/>
@@ -1196,9 +1196,9 @@
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" ht="15.75">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="29" t="s">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="22" t="s">
         <v>73</v>
       </c>
       <c r="D14" s="2"/>
@@ -1215,9 +1215,9 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="29" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="22" t="s">
         <v>74</v>
       </c>
       <c r="D15" s="2"/>
@@ -1234,9 +1234,9 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="29" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="22" t="s">
         <v>75</v>
       </c>
       <c r="D16" s="2"/>
@@ -1253,9 +1253,9 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="30" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="23" t="s">
         <v>76</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1272,8 +1272,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
@@ -1287,8 +1287,8 @@
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="6" t="s">
         <v>18</v>
       </c>
@@ -1304,21 +1304,17 @@
       <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -1327,8 +1323,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="7" t="s">
         <v>19</v>
       </c>
@@ -1342,8 +1338,8 @@
       <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" ht="15.75">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1357,8 +1353,8 @@
       <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" ht="15.75">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="8" t="s">
         <v>22</v>
       </c>
@@ -1372,8 +1368,8 @@
       <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:11" ht="15.75">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="8" t="s">
         <v>23</v>
       </c>
@@ -1387,8 +1383,8 @@
       <c r="K24" s="14"/>
     </row>
     <row r="25" spans="1:11" ht="15.75">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="7" t="s">
         <v>24</v>
       </c>
@@ -1402,8 +1398,8 @@
       <c r="K25" s="14"/>
     </row>
     <row r="26" spans="1:11" ht="15.75">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="8" t="s">
         <v>25</v>
       </c>
@@ -1417,8 +1413,8 @@
       <c r="K26" s="14"/>
     </row>
     <row r="27" spans="1:11" ht="15.75">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="8" t="s">
         <v>26</v>
       </c>
@@ -1432,8 +1428,8 @@
       <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="8" t="s">
         <v>27</v>
       </c>
@@ -1447,8 +1443,8 @@
       <c r="K28" s="14"/>
     </row>
     <row r="29" spans="1:11" ht="15.75">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="9" t="s">
         <v>28</v>
       </c>
@@ -1462,10 +1458,10 @@
       <c r="K29" s="14"/>
     </row>
     <row r="30" spans="1:11" ht="15.75">
-      <c r="A30" s="27">
+      <c r="A30" s="30">
         <v>4</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -1481,8 +1477,8 @@
       <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11" ht="15.75">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="4" t="s">
         <v>56</v>
       </c>
@@ -1496,8 +1492,8 @@
       <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11" ht="15.75">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="10" t="s">
         <v>57</v>
       </c>
@@ -1511,8 +1507,8 @@
       <c r="K32" s="14"/>
     </row>
     <row r="33" spans="1:11" ht="15.75">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="11" t="s">
         <v>58</v>
       </c>
@@ -1526,8 +1522,8 @@
       <c r="K33" s="14"/>
     </row>
     <row r="34" spans="1:11" ht="15.75">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="11" t="s">
         <v>59</v>
       </c>
@@ -1541,8 +1537,8 @@
       <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11" ht="15.75">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="12" t="s">
         <v>30</v>
       </c>
@@ -1556,8 +1552,8 @@
       <c r="K35" s="14"/>
     </row>
     <row r="36" spans="1:11" ht="15.75">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="10" t="s">
         <v>31</v>
       </c>
@@ -1571,8 +1567,8 @@
       <c r="K36" s="14"/>
     </row>
     <row r="37" spans="1:11" ht="15.75">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="11" t="s">
         <v>32</v>
       </c>
@@ -1586,8 +1582,8 @@
       <c r="K37" s="14"/>
     </row>
     <row r="38" spans="1:11" ht="15.75">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="11" t="s">
         <v>33</v>
       </c>
@@ -1601,8 +1597,8 @@
       <c r="K38" s="14"/>
     </row>
     <row r="39" spans="1:11" ht="15.75">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="13" t="s">
         <v>34</v>
       </c>
@@ -1616,8 +1612,8 @@
       <c r="K39" s="14"/>
     </row>
     <row r="40" spans="1:11" ht="15.75">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="8" t="s">
         <v>53</v>
       </c>
@@ -1631,8 +1627,8 @@
       <c r="K40" s="14"/>
     </row>
     <row r="41" spans="1:11" ht="15.75">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="8" t="s">
         <v>54</v>
       </c>
@@ -1646,8 +1642,8 @@
       <c r="K41" s="14"/>
     </row>
     <row r="42" spans="1:11" ht="15.75">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="8" t="s">
         <v>55</v>
       </c>
@@ -1661,8 +1657,8 @@
       <c r="K42" s="14"/>
     </row>
     <row r="43" spans="1:11" ht="15.75">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="13" t="s">
         <v>51</v>
       </c>
@@ -1676,8 +1672,8 @@
       <c r="K43" s="14"/>
     </row>
     <row r="44" spans="1:11" ht="15.75">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="13" t="s">
         <v>52</v>
       </c>
@@ -1691,10 +1687,10 @@
       <c r="K44" s="14"/>
     </row>
     <row r="45" spans="1:11" ht="15.75">
-      <c r="A45" s="24">
+      <c r="A45" s="27">
         <v>5</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="33" t="s">
         <v>61</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -1710,8 +1706,8 @@
       <c r="K45" s="14"/>
     </row>
     <row r="46" spans="1:11" ht="15.75">
-      <c r="A46" s="25"/>
-      <c r="B46" s="23"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="5" t="s">
         <v>35</v>
       </c>
@@ -1725,8 +1721,8 @@
       <c r="K46" s="14"/>
     </row>
     <row r="47" spans="1:11" ht="15.75">
-      <c r="A47" s="25"/>
-      <c r="B47" s="23"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="11" t="s">
         <v>37</v>
       </c>
@@ -1740,8 +1736,8 @@
       <c r="K47" s="14"/>
     </row>
     <row r="48" spans="1:11" ht="15.75">
-      <c r="A48" s="25"/>
-      <c r="B48" s="23"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="11" t="s">
         <v>38</v>
       </c>
@@ -1755,8 +1751,8 @@
       <c r="K48" s="14"/>
     </row>
     <row r="49" spans="1:11" ht="15.75">
-      <c r="A49" s="25"/>
-      <c r="B49" s="23"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="5" t="s">
         <v>36</v>
       </c>
@@ -1770,8 +1766,8 @@
       <c r="K49" s="14"/>
     </row>
     <row r="50" spans="1:11" ht="15.75">
-      <c r="A50" s="25"/>
-      <c r="B50" s="23"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="11" t="s">
         <v>37</v>
       </c>
@@ -1785,8 +1781,8 @@
       <c r="K50" s="14"/>
     </row>
     <row r="51" spans="1:11" ht="15.75">
-      <c r="A51" s="25"/>
-      <c r="B51" s="23"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="11" t="s">
         <v>38</v>
       </c>
@@ -1800,8 +1796,8 @@
       <c r="K51" s="14"/>
     </row>
     <row r="52" spans="1:11" ht="15.75">
-      <c r="A52" s="25"/>
-      <c r="B52" s="23"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="4" t="s">
         <v>62</v>
       </c>
@@ -1815,8 +1811,8 @@
       <c r="K52" s="14"/>
     </row>
     <row r="53" spans="1:11" ht="15.75">
-      <c r="A53" s="25"/>
-      <c r="B53" s="23"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="13" t="s">
         <v>39</v>
       </c>
@@ -1830,8 +1826,8 @@
       <c r="K53" s="14"/>
     </row>
     <row r="54" spans="1:11" ht="15.75">
-      <c r="A54" s="25"/>
-      <c r="B54" s="23"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="11" t="s">
         <v>20</v>
       </c>
@@ -1845,8 +1841,8 @@
       <c r="K54" s="14"/>
     </row>
     <row r="55" spans="1:11" ht="15.75">
-      <c r="A55" s="25"/>
-      <c r="B55" s="23"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="11" t="s">
         <v>41</v>
       </c>
@@ -1860,8 +1856,8 @@
       <c r="K55" s="14"/>
     </row>
     <row r="56" spans="1:11" ht="15.75">
-      <c r="A56" s="25"/>
-      <c r="B56" s="23"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="33"/>
       <c r="C56" s="11" t="s">
         <v>42</v>
       </c>
@@ -1875,8 +1871,8 @@
       <c r="K56" s="14"/>
     </row>
     <row r="57" spans="1:11" ht="15.75">
-      <c r="A57" s="25"/>
-      <c r="B57" s="23"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="13" t="s">
         <v>40</v>
       </c>
@@ -1890,8 +1886,8 @@
       <c r="K57" s="14"/>
     </row>
     <row r="58" spans="1:11" ht="15.75">
-      <c r="A58" s="25"/>
-      <c r="B58" s="23"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="11" t="s">
         <v>20</v>
       </c>
@@ -1905,8 +1901,8 @@
       <c r="K58" s="14"/>
     </row>
     <row r="59" spans="1:11" ht="15.75">
-      <c r="A59" s="25"/>
-      <c r="B59" s="23"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="33"/>
       <c r="C59" s="11" t="s">
         <v>41</v>
       </c>
@@ -1920,8 +1916,8 @@
       <c r="K59" s="14"/>
     </row>
     <row r="60" spans="1:11" ht="15.75">
-      <c r="A60" s="25"/>
-      <c r="B60" s="23"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="33"/>
       <c r="C60" s="13" t="s">
         <v>60</v>
       </c>
@@ -1935,8 +1931,8 @@
       <c r="K60" s="14"/>
     </row>
     <row r="61" spans="1:11" ht="15.75">
-      <c r="A61" s="25"/>
-      <c r="B61" s="23"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="11" t="s">
         <v>20</v>
       </c>
@@ -1950,8 +1946,8 @@
       <c r="K61" s="14"/>
     </row>
     <row r="62" spans="1:11" ht="15.75">
-      <c r="A62" s="26"/>
-      <c r="B62" s="23"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="33"/>
       <c r="C62" s="11" t="s">
         <v>41</v>
       </c>
@@ -1965,10 +1961,10 @@
       <c r="K62" s="14"/>
     </row>
     <row r="63" spans="1:11" ht="15.75">
-      <c r="A63" s="24">
+      <c r="A63" s="27">
         <v>6</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="13" t="s">
@@ -1984,8 +1980,8 @@
       <c r="K63" s="14"/>
     </row>
     <row r="64" spans="1:11" ht="15.75">
-      <c r="A64" s="25"/>
-      <c r="B64" s="28"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="13" t="s">
         <v>45</v>
       </c>
@@ -1999,8 +1995,8 @@
       <c r="K64" s="14"/>
     </row>
     <row r="65" spans="1:11" ht="15.75">
-      <c r="A65" s="25"/>
-      <c r="B65" s="28"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="11" t="s">
         <v>20</v>
       </c>
@@ -2014,8 +2010,8 @@
       <c r="K65" s="14"/>
     </row>
     <row r="66" spans="1:11" ht="15.75">
-      <c r="A66" s="25"/>
-      <c r="B66" s="28"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="11" t="s">
         <v>41</v>
       </c>
@@ -2029,8 +2025,8 @@
       <c r="K66" s="14"/>
     </row>
     <row r="67" spans="1:11" ht="15.75">
-      <c r="A67" s="25"/>
-      <c r="B67" s="28"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="11" t="s">
         <v>42</v>
       </c>
@@ -2044,8 +2040,8 @@
       <c r="K67" s="14"/>
     </row>
     <row r="68" spans="1:11" ht="15.75">
-      <c r="A68" s="26"/>
-      <c r="B68" s="22"/>
+      <c r="A68" s="29"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="13" t="s">
         <v>46</v>
       </c>
@@ -2329,18 +2325,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B29"/>
+    <mergeCell ref="A13:A29"/>
+    <mergeCell ref="A8:A12"/>
     <mergeCell ref="A63:A68"/>
     <mergeCell ref="B63:B68"/>
     <mergeCell ref="B45:B62"/>
     <mergeCell ref="A45:A62"/>
     <mergeCell ref="B30:B44"/>
     <mergeCell ref="A30:A44"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B29"/>
-    <mergeCell ref="A13:A29"/>
-    <mergeCell ref="A8:A12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:G89">

--- a/wiki/report/Tasksheet.xlsx
+++ b/wiki/report/Tasksheet.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="126">
   <si>
     <t>No.</t>
   </si>
@@ -189,15 +189,6 @@
     <t>Function 1</t>
   </si>
   <si>
-    <t>Function 1 (Usecase &amp; Usecase Specification)</t>
-  </si>
-  <si>
-    <t>Function 2 (Usecase &amp; Usecase Specification)</t>
-  </si>
-  <si>
-    <t>Function n (Usecase &amp; Usecase Specification)</t>
-  </si>
-  <si>
     <t>Non-functional Requirement</t>
   </si>
   <si>
@@ -379,13 +370,145 @@
   </si>
   <si>
     <t>Outline document</t>
+  </si>
+  <si>
+    <t>Usecase</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Post request</t>
+  </si>
+  <si>
+    <t>Edit request</t>
+  </si>
+  <si>
+    <t>Cancel request</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Search request</t>
+  </si>
+  <si>
+    <t>Tracking</t>
+  </si>
+  <si>
+    <t>View request detail</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrators </t>
+  </si>
+  <si>
+    <t>Define fee value/formular</t>
+  </si>
+  <si>
+    <t>Edit fee value/formular</t>
+  </si>
+  <si>
+    <t>Create new staff account</t>
+  </si>
+  <si>
+    <t>Edit account info</t>
+  </si>
+  <si>
+    <t>Delete account</t>
+  </si>
+  <si>
+    <t>Staffs</t>
+  </si>
+  <si>
+    <t>Approve request</t>
+  </si>
+  <si>
+    <t>Reject request</t>
+  </si>
+  <si>
+    <t>Assisgn package</t>
+  </si>
+  <si>
+    <t>Update package status</t>
+  </si>
+  <si>
+    <t>Manage time</t>
+  </si>
+  <si>
+    <t>Search package info</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Add trip</t>
+  </si>
+  <si>
+    <t>Edit trip</t>
+  </si>
+  <si>
+    <t>Delete trip</t>
+  </si>
+  <si>
+    <t>Add station</t>
+  </si>
+  <si>
+    <t>Edit station</t>
+  </si>
+  <si>
+    <t>Delete station</t>
+  </si>
+  <si>
+    <t>Add route</t>
+  </si>
+  <si>
+    <t>Edit route</t>
+  </si>
+  <si>
+    <t>Delete route</t>
+  </si>
+  <si>
+    <t>Add coach</t>
+  </si>
+  <si>
+    <t>Edit coach</t>
+  </si>
+  <si>
+    <t>Delete coach</t>
+  </si>
+  <si>
+    <t>Delete comment</t>
+  </si>
+  <si>
+    <t>Clear rating</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>Use-case specification</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,8 +589,15 @@
       <family val="1"/>
       <charset val="163"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,8 +622,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -553,12 +689,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -636,7 +821,72 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -941,10 +1191,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -955,12 +1206,13 @@
     <col min="5" max="5" width="6.28515625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" style="41" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5">
+    <row r="1" spans="1:12" ht="28.5">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -971,35 +1223,38 @@
         <v>2</v>
       </c>
       <c r="D1" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="H1" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="K1" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" hidden="1">
-      <c r="A2" s="32">
+      <c r="L1" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" hidden="1">
+      <c r="A2" s="49">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="49" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -1011,16 +1266,17 @@
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="45"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" hidden="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
+      <c r="L2" s="38"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" hidden="1">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1028,16 +1284,17 @@
         <v>8</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="14"/>
+      <c r="H3" s="46"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" hidden="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
+      <c r="L3" s="38"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" hidden="1">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -1045,16 +1302,17 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="14"/>
+      <c r="H4" s="46"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" hidden="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
+      <c r="L4" s="38"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" hidden="1">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
@@ -1062,14 +1320,17 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="14"/>
+      <c r="H5" s="46"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" hidden="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
+      <c r="L5" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" hidden="1">
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1077,14 +1338,15 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="14"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" hidden="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
+      <c r="L6" s="38"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" hidden="1">
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1092,33 +1354,35 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="14"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" hidden="1">
-      <c r="A8" s="33">
+      <c r="L7" s="38"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" hidden="1">
+      <c r="A8" s="50">
         <v>2</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="50" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="14"/>
+      <c r="H8" s="46"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" hidden="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
+      <c r="L8" s="38"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" hidden="1">
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1126,14 +1390,15 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="14"/>
+      <c r="H9" s="46"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" hidden="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
+      <c r="L9" s="38"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" hidden="1">
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
@@ -1141,14 +1406,15 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="14"/>
+      <c r="H10" s="46"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" hidden="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
+      <c r="L10" s="38"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" hidden="1">
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1156,14 +1422,15 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="46"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" hidden="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
+      <c r="L11" s="38"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" hidden="1">
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1171,16 +1438,17 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="14"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75">
-      <c r="A13" s="33">
+      <c r="L12" s="38"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A13" s="51">
         <v>3</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="54" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="24" t="s">
@@ -1190,16 +1458,17 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="14"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
+      <c r="L13" s="39"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75">
+      <c r="A14" s="52"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1207,18 +1476,19 @@
       <c r="G14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="46"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
+        <v>81</v>
+      </c>
+      <c r="L14" s="39"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75">
+      <c r="A15" s="52"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1226,18 +1496,19 @@
         <v>8</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="14"/>
+      <c r="H15" s="46"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
+        <v>81</v>
+      </c>
+      <c r="L15" s="39"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75">
+      <c r="A16" s="52"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
@@ -1245,18 +1516,19 @@
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="14"/>
+      <c r="H16" s="46"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
+        <v>81</v>
+      </c>
+      <c r="L16" s="39"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75">
+      <c r="A17" s="52"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>8</v>
@@ -1264,16 +1536,17 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="14"/>
+      <c r="H17" s="46"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
+        <v>81</v>
+      </c>
+      <c r="L17" s="39"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75">
+      <c r="A18" s="52"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
@@ -1281,14 +1554,15 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="14"/>
+      <c r="H18" s="46"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
+      <c r="L18" s="39"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75">
+      <c r="A19" s="52"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="6" t="s">
         <v>18</v>
       </c>
@@ -1298,16 +1572,17 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="14"/>
+      <c r="H19" s="46"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
+      <c r="L19" s="39"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75">
+      <c r="A20" s="52"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>8</v>
@@ -1315,16 +1590,17 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="14"/>
+      <c r="H20" s="46"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
+        <v>74</v>
+      </c>
+      <c r="L20" s="39"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75">
+      <c r="A21" s="52"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="7" t="s">
         <v>19</v>
       </c>
@@ -1332,1014 +1608,1713 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="14"/>
+      <c r="H21" s="46"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="14"/>
+      <c r="L21" s="39"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75">
+      <c r="A22" s="52"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="46"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="14"/>
+      <c r="K22" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="39"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75">
+      <c r="A23" s="52"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="46">
+        <v>2</v>
+      </c>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="14"/>
+      <c r="L23" s="39"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75">
+      <c r="A24" s="52"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="46"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="14"/>
+      <c r="K24" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L24" s="39"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75">
+      <c r="A25" s="52"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="46"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="14"/>
+      <c r="K25" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L25" s="39"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75">
+      <c r="A26" s="52"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="46">
+        <v>9</v>
+      </c>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="14"/>
+      <c r="L26" s="39"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75">
+      <c r="A27" s="52"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="46"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="14"/>
+      <c r="K27" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L27" s="39"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75">
+      <c r="A28" s="52"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="46"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="14"/>
+      <c r="K28" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L28" s="39"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75">
+      <c r="A29" s="52"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="46"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75">
-      <c r="A30" s="30">
-        <v>4</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="14"/>
+      <c r="K29" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L29" s="39"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75">
+      <c r="A30" s="52"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="46"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="14"/>
+      <c r="K30" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L30" s="39"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75">
+      <c r="A31" s="52"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="46"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="14"/>
+      <c r="K31" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L31" s="40"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75">
+      <c r="A32" s="52"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="46"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="14"/>
+      <c r="K32" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L32" s="40"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75">
+      <c r="A33" s="52"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="46"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="14"/>
+      <c r="K33" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L33" s="40"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75">
+      <c r="A34" s="52"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="38"/>
+      <c r="E34" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="46"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="14"/>
+      <c r="K34" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L34" s="40"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75">
+      <c r="A35" s="52"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="46"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="14"/>
+      <c r="K35" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L35" s="40"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75">
+      <c r="A36" s="52"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="46">
+        <v>5</v>
+      </c>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="14"/>
+      <c r="L36" s="40"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75">
+      <c r="A37" s="52"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="38"/>
+      <c r="E37" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="46"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="14"/>
+      <c r="K37" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L37" s="40"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.75">
+      <c r="A38" s="52"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="46"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="14"/>
+      <c r="K38" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L38" s="40"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75">
+      <c r="A39" s="52"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="46"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.75">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="14"/>
+      <c r="K39" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L39" s="40"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.75">
+      <c r="A40" s="52"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="46"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.75">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="14"/>
+      <c r="K40" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L40" s="40"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75">
+      <c r="A41" s="52"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="46"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.75">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="14"/>
+      <c r="K41" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L41" s="40"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75">
+      <c r="A42" s="52"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="46">
+        <v>21</v>
+      </c>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
-    </row>
-    <row r="43" spans="1:11" ht="15.75">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="14"/>
+      <c r="L42" s="40"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75">
+      <c r="A43" s="52"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="38"/>
+      <c r="H43" s="46"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-    </row>
-    <row r="44" spans="1:11" ht="15.75">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="14"/>
+      <c r="K43" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L43" s="40"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75">
+      <c r="A44" s="52"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="38"/>
+      <c r="H44" s="46"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-    </row>
-    <row r="45" spans="1:11" ht="15.75">
-      <c r="A45" s="27">
-        <v>5</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="14"/>
+      <c r="K44" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L44" s="40"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75">
+      <c r="A45" s="52"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="38"/>
+      <c r="H45" s="46"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-    </row>
-    <row r="46" spans="1:11" ht="15.75">
-      <c r="A46" s="28"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="14"/>
+      <c r="K45" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L45" s="40"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75">
+      <c r="A46" s="52"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="38"/>
+      <c r="H46" s="46"/>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-    </row>
-    <row r="47" spans="1:11" ht="15.75">
-      <c r="A47" s="28"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="14"/>
+      <c r="K46" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L46" s="40"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75">
+      <c r="A47" s="52"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="38"/>
+      <c r="H47" s="46"/>
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-    </row>
-    <row r="48" spans="1:11" ht="15.75">
-      <c r="A48" s="28"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="14"/>
+      <c r="K47" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L47" s="40"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75">
+      <c r="A48" s="52"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="38"/>
+      <c r="H48" s="46"/>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-    </row>
-    <row r="49" spans="1:11" ht="15.75">
-      <c r="A49" s="28"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="14"/>
+      <c r="K48" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L48" s="40"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75">
+      <c r="A49" s="52"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="38"/>
+      <c r="H49" s="46"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-    </row>
-    <row r="50" spans="1:11" ht="15.75">
-      <c r="A50" s="28"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="14"/>
+      <c r="K49" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L49" s="40"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.75">
+      <c r="A50" s="52"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="38"/>
+      <c r="H50" s="46"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-    </row>
-    <row r="51" spans="1:11" ht="15.75">
-      <c r="A51" s="28"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="14"/>
+      <c r="K50" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L50" s="40"/>
+    </row>
+    <row r="51" spans="1:12" ht="15.75">
+      <c r="A51" s="52"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="38"/>
+      <c r="H51" s="46"/>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-    </row>
-    <row r="52" spans="1:11" ht="15.75">
-      <c r="A52" s="28"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="14"/>
+      <c r="K51" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L51" s="40"/>
+    </row>
+    <row r="52" spans="1:12" ht="15.75">
+      <c r="A52" s="52"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="38"/>
+      <c r="H52" s="46"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-    </row>
-    <row r="53" spans="1:11" ht="15.75">
-      <c r="A53" s="28"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="14"/>
+      <c r="K52" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L52" s="40"/>
+    </row>
+    <row r="53" spans="1:12" ht="15.75">
+      <c r="A53" s="52"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="46"/>
       <c r="I53" s="14"/>
       <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-    </row>
-    <row r="54" spans="1:11" ht="15.75">
-      <c r="A54" s="28"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="14"/>
+      <c r="K53" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L53" s="40"/>
+    </row>
+    <row r="54" spans="1:12" ht="15.75">
+      <c r="A54" s="52"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="46"/>
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-    </row>
-    <row r="55" spans="1:11" ht="15.75">
-      <c r="A55" s="28"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="14"/>
+      <c r="K54" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L54" s="40"/>
+    </row>
+    <row r="55" spans="1:12" ht="15.75">
+      <c r="A55" s="52"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="46"/>
       <c r="I55" s="14"/>
       <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-    </row>
-    <row r="56" spans="1:11" ht="15.75">
-      <c r="A56" s="28"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="14"/>
+      <c r="K55" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L55" s="40"/>
+    </row>
+    <row r="56" spans="1:12" ht="15.75">
+      <c r="A56" s="52"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="46"/>
       <c r="I56" s="14"/>
       <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-    </row>
-    <row r="57" spans="1:11" ht="15.75">
-      <c r="A57" s="28"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="14"/>
+      <c r="K56" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L56" s="40"/>
+    </row>
+    <row r="57" spans="1:12" ht="15.75">
+      <c r="A57" s="52"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="46"/>
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-    </row>
-    <row r="58" spans="1:11" ht="15.75">
-      <c r="A58" s="28"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="14"/>
+      <c r="K57" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L57" s="40"/>
+    </row>
+    <row r="58" spans="1:12" ht="15.75">
+      <c r="A58" s="52"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="46"/>
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-    </row>
-    <row r="59" spans="1:11" ht="15.75">
-      <c r="A59" s="28"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="14"/>
+      <c r="K58" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L58" s="40"/>
+    </row>
+    <row r="59" spans="1:12" ht="15.75">
+      <c r="A59" s="52"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="46"/>
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-    </row>
-    <row r="60" spans="1:11" ht="15.75">
-      <c r="A60" s="28"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="14"/>
+      <c r="K59" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L59" s="40"/>
+    </row>
+    <row r="60" spans="1:12" ht="15.75">
+      <c r="A60" s="52"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="46"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-    </row>
-    <row r="61" spans="1:11" ht="15.75">
-      <c r="A61" s="28"/>
-      <c r="B61" s="33"/>
-      <c r="C61" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="14"/>
+      <c r="K60" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L60" s="40"/>
+    </row>
+    <row r="61" spans="1:12" ht="15.75">
+      <c r="A61" s="52"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="46"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-    </row>
-    <row r="62" spans="1:11" ht="15.75">
-      <c r="A62" s="29"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="14"/>
+      <c r="K61" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L61" s="40"/>
+    </row>
+    <row r="62" spans="1:12" ht="15.75">
+      <c r="A62" s="52"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="46"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-    </row>
-    <row r="63" spans="1:11" ht="15.75">
-      <c r="A63" s="27">
-        <v>6</v>
-      </c>
-      <c r="B63" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>44</v>
+      <c r="K62" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L62" s="40"/>
+    </row>
+    <row r="63" spans="1:12" ht="15.75">
+      <c r="A63" s="52"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="E63" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="14"/>
+      <c r="H63" s="46"/>
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-    </row>
-    <row r="64" spans="1:11" ht="15.75">
-      <c r="A64" s="28"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="13" t="s">
-        <v>45</v>
+      <c r="K63" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L63" s="40"/>
+    </row>
+    <row r="64" spans="1:12" ht="15.75">
+      <c r="A64" s="52"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="14"/>
+      <c r="H64" s="46"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-    </row>
-    <row r="65" spans="1:11" ht="15.75">
-      <c r="A65" s="28"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="11" t="s">
-        <v>20</v>
+      <c r="K64" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L64" s="40"/>
+    </row>
+    <row r="65" spans="1:12" ht="15.75">
+      <c r="A65" s="52"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="14"/>
+      <c r="H65" s="46"/>
       <c r="I65" s="14"/>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
-    </row>
-    <row r="66" spans="1:11" ht="15.75">
-      <c r="A66" s="28"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="11" t="s">
-        <v>41</v>
+      <c r="L65" s="40"/>
+    </row>
+    <row r="66" spans="1:12" ht="15.75">
+      <c r="A66" s="52"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="14"/>
+      <c r="H66" s="46"/>
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
-    </row>
-    <row r="67" spans="1:11" ht="15.75">
-      <c r="A67" s="28"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="11" t="s">
-        <v>42</v>
+      <c r="L66" s="40"/>
+    </row>
+    <row r="67" spans="1:12" ht="15.75">
+      <c r="A67" s="52"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="14"/>
+      <c r="H67" s="46"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
-    </row>
-    <row r="68" spans="1:11" ht="15.75">
-      <c r="A68" s="29"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="13" t="s">
-        <v>46</v>
+      <c r="L67" s="40"/>
+    </row>
+    <row r="68" spans="1:12" ht="15.75">
+      <c r="A68" s="53"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="14"/>
+      <c r="H68" s="46"/>
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="18" t="s">
+      <c r="L68" s="40"/>
+    </row>
+    <row r="69" spans="1:12" ht="30" customHeight="1">
+      <c r="A69" s="30">
+        <v>4</v>
+      </c>
+      <c r="B69" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="40"/>
+    </row>
+    <row r="70" spans="1:12" ht="15.75">
+      <c r="A70" s="31"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="40"/>
+    </row>
+    <row r="71" spans="1:12" ht="15.75">
+      <c r="A71" s="31"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="40"/>
+    </row>
+    <row r="72" spans="1:12" ht="15.75">
+      <c r="A72" s="31"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="40"/>
+    </row>
+    <row r="73" spans="1:12" ht="15.75">
+      <c r="A73" s="31"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="40"/>
+    </row>
+    <row r="74" spans="1:12" ht="15.75">
+      <c r="A74" s="31"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="40"/>
+    </row>
+    <row r="75" spans="1:12" ht="15.75">
+      <c r="A75" s="31"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="40"/>
+    </row>
+    <row r="76" spans="1:12" ht="15.75">
+      <c r="A76" s="31"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="40"/>
+    </row>
+    <row r="77" spans="1:12" ht="15.75">
+      <c r="A77" s="31"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="40"/>
+    </row>
+    <row r="78" spans="1:12" ht="15.75">
+      <c r="A78" s="31"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="40"/>
+    </row>
+    <row r="79" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A79" s="31"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="40"/>
+    </row>
+    <row r="80" spans="1:12" ht="15.75">
+      <c r="A80" s="31"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="46"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="40"/>
+    </row>
+    <row r="81" spans="1:12" ht="15.75">
+      <c r="A81" s="31"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="46"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="40"/>
+    </row>
+    <row r="82" spans="1:12" ht="15.75">
+      <c r="A82" s="31"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="40"/>
+    </row>
+    <row r="83" spans="1:12" ht="15.75">
+      <c r="A83" s="32"/>
+      <c r="B83" s="49"/>
+      <c r="C83" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="40"/>
+    </row>
+    <row r="84" spans="1:12" ht="45" customHeight="1">
+      <c r="A84" s="27">
+        <v>5</v>
+      </c>
+      <c r="B84" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="46"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="40"/>
+    </row>
+    <row r="85" spans="1:12" ht="15.75">
+      <c r="A85" s="28"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="46"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="40"/>
+    </row>
+    <row r="86" spans="1:12" ht="15.75">
+      <c r="A86" s="28"/>
+      <c r="B86" s="48"/>
+      <c r="C86" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="40"/>
+    </row>
+    <row r="87" spans="1:12" ht="15.75">
+      <c r="A87" s="28"/>
+      <c r="B87" s="48"/>
+      <c r="C87" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="40"/>
+    </row>
+    <row r="88" spans="1:12" ht="15.75">
+      <c r="A88" s="28"/>
+      <c r="B88" s="48"/>
+      <c r="C88" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="40"/>
+    </row>
+    <row r="89" spans="1:12" ht="15.75">
+      <c r="A89" s="28"/>
+      <c r="B89" s="48"/>
+      <c r="C89" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="40"/>
+    </row>
+    <row r="90" spans="1:12" ht="15.75">
+      <c r="A90" s="28"/>
+      <c r="B90" s="48"/>
+      <c r="C90" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="46"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="40"/>
+    </row>
+    <row r="91" spans="1:12" ht="15.75">
+      <c r="A91" s="28"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="40"/>
+    </row>
+    <row r="92" spans="1:12" ht="15.75">
+      <c r="A92" s="28"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="40"/>
+    </row>
+    <row r="93" spans="1:12" ht="15.75">
+      <c r="A93" s="28"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="46"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="40"/>
+    </row>
+    <row r="94" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A94" s="28"/>
+      <c r="B94" s="48"/>
+      <c r="C94" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="46"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="40"/>
+    </row>
+    <row r="95" spans="1:12" ht="15.75">
+      <c r="A95" s="28"/>
+      <c r="B95" s="48"/>
+      <c r="C95" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="40"/>
+    </row>
+    <row r="96" spans="1:12" ht="15.75">
+      <c r="A96" s="28"/>
+      <c r="B96" s="48"/>
+      <c r="C96" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="46"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="40"/>
+    </row>
+    <row r="97" spans="1:12" ht="15.75">
+      <c r="A97" s="28"/>
+      <c r="B97" s="48"/>
+      <c r="C97" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="46"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="40"/>
+    </row>
+    <row r="98" spans="1:12" ht="15.75">
+      <c r="A98" s="28"/>
+      <c r="B98" s="48"/>
+      <c r="C98" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="46"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
+      <c r="K98" s="14"/>
+      <c r="L98" s="40"/>
+    </row>
+    <row r="99" spans="1:12" ht="15.75">
+      <c r="A99" s="28"/>
+      <c r="B99" s="48"/>
+      <c r="C99" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="46"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="14"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="40"/>
+    </row>
+    <row r="100" spans="1:12" ht="15.75">
+      <c r="A100" s="28"/>
+      <c r="B100" s="48"/>
+      <c r="C100" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="46"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="14"/>
+      <c r="K100" s="14"/>
+      <c r="L100" s="40"/>
+    </row>
+    <row r="101" spans="1:12" ht="15.75">
+      <c r="A101" s="29"/>
+      <c r="B101" s="49"/>
+      <c r="C101" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
+      <c r="L101" s="40"/>
+    </row>
+    <row r="102" spans="1:12" ht="30" customHeight="1">
+      <c r="A102" s="27">
+        <v>6</v>
+      </c>
+      <c r="B102" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="46"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="14"/>
+      <c r="K102" s="14"/>
+      <c r="L102" s="40"/>
+    </row>
+    <row r="103" spans="1:12" ht="15.75">
+      <c r="A103" s="28"/>
+      <c r="B103" s="48"/>
+      <c r="C103" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="14"/>
+      <c r="K103" s="14"/>
+      <c r="L103" s="40"/>
+    </row>
+    <row r="104" spans="1:12" ht="15.75">
+      <c r="A104" s="28"/>
+      <c r="B104" s="48"/>
+      <c r="C104" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="46"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="14"/>
+      <c r="K104" s="14"/>
+      <c r="L104" s="40"/>
+    </row>
+    <row r="105" spans="1:12" ht="15.75">
+      <c r="A105" s="28"/>
+      <c r="B105" s="48"/>
+      <c r="C105" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="46"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="14"/>
+      <c r="L105" s="40"/>
+    </row>
+    <row r="106" spans="1:12" ht="15.75">
+      <c r="A106" s="28"/>
+      <c r="B106" s="48"/>
+      <c r="C106" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="46"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="14"/>
+      <c r="K106" s="14"/>
+      <c r="L106" s="40"/>
+    </row>
+    <row r="107" spans="1:12" ht="15.75">
+      <c r="A107" s="29"/>
+      <c r="B107" s="49"/>
+      <c r="C107" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="46"/>
+      <c r="I107" s="14"/>
+      <c r="J107" s="14"/>
+      <c r="K107" s="14"/>
+      <c r="L107" s="40"/>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="42"/>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B109" s="3"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="42"/>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="42"/>
+    </row>
+    <row r="111" spans="1:12" ht="60">
+      <c r="A111" s="19">
+        <v>1</v>
+      </c>
+      <c r="B111" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C111" s="4">
+        <v>1</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="42"/>
+    </row>
+    <row r="112" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A112" s="21">
+        <v>2</v>
+      </c>
+      <c r="B112" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="19" t="s">
+      <c r="C112" s="21">
+        <v>2</v>
+      </c>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="42"/>
+    </row>
+    <row r="113" spans="1:12" ht="30">
+      <c r="A113" s="21">
+        <v>3</v>
+      </c>
+      <c r="B113" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="1:11" ht="60">
-      <c r="A72" s="19">
-        <v>1</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72" s="4">
-        <v>1</v>
-      </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="1:11" ht="30">
-      <c r="A73" s="21">
-        <v>2</v>
-      </c>
-      <c r="B73" s="20" t="s">
+      <c r="C113" s="21">
+        <v>3</v>
+      </c>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="42"/>
+    </row>
+    <row r="114" spans="1:12" ht="30">
+      <c r="A114" s="21">
+        <v>4</v>
+      </c>
+      <c r="B114" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C114" s="21">
+        <v>4</v>
+      </c>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="42"/>
+    </row>
+    <row r="115" spans="1:12" ht="30">
+      <c r="A115" s="21">
+        <v>5</v>
+      </c>
+      <c r="B115" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="21">
-        <v>2</v>
-      </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="1:11" ht="30">
-      <c r="A74" s="21">
-        <v>3</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74" s="21">
-        <v>3</v>
-      </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="1:11" ht="30">
-      <c r="A75" s="21">
-        <v>4</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" s="21">
-        <v>4</v>
-      </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="1:11" ht="30">
-      <c r="A76" s="21">
+      <c r="C115" s="21">
         <v>5</v>
       </c>
-      <c r="B76" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C76" s="21">
-        <v>5</v>
-      </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-    </row>
-    <row r="81" spans="4:11">
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="4:11">
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="4:11">
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="4:11">
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="4:11">
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="4:11">
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="4:11">
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="4:11">
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="4:11">
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="4:11">
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="4:11">
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="9">
+    <mergeCell ref="B69:B83"/>
+    <mergeCell ref="B84:B101"/>
+    <mergeCell ref="B102:B107"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B29"/>
-    <mergeCell ref="A13:A29"/>
     <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="B63:B68"/>
-    <mergeCell ref="B45:B62"/>
-    <mergeCell ref="A45:A62"/>
-    <mergeCell ref="B30:B44"/>
-    <mergeCell ref="A30:A44"/>
+    <mergeCell ref="A13:A68"/>
+    <mergeCell ref="B13:B68"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:G89">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L30 G42 E37:E115 F43:G115 D2:D115 F2:G41 E2:E32 E34:E35">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>

--- a/wiki/report/Tasksheet.xlsx
+++ b/wiki/report/Tasksheet.xlsx
@@ -629,7 +629,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -691,24 +691,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -743,7 +725,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -803,24 +785,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
@@ -874,20 +838,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1194,8 +1158,8 @@
   <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
+      <pane ySplit="12" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102:A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1206,7 +1170,7 @@
     <col min="5" max="5" width="6.28515625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" customWidth="1"/>
-    <col min="8" max="8" width="5" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" style="35" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.5703125" customWidth="1"/>
@@ -1234,7 +1198,7 @@
       <c r="G1" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="38" t="s">
         <v>61</v>
       </c>
       <c r="I1" s="26" t="s">
@@ -1251,10 +1215,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" hidden="1">
-      <c r="A2" s="49">
+      <c r="A2" s="43">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -1266,15 +1230,15 @@
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="45"/>
+      <c r="H2" s="39"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
-      <c r="L2" s="38"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" hidden="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="4" t="s">
         <v>45</v>
       </c>
@@ -1284,15 +1248,15 @@
         <v>8</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="46"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="38"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" hidden="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="4" t="s">
         <v>46</v>
       </c>
@@ -1302,15 +1266,15 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="46"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
-      <c r="L4" s="38"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" hidden="1">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="4" t="s">
         <v>47</v>
       </c>
@@ -1320,17 +1284,17 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="46"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" hidden="1">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1338,15 +1302,15 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="46"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
-      <c r="L6" s="38"/>
+      <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" hidden="1">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1354,17 +1318,17 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="46"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
-      <c r="L7" s="38"/>
+      <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" hidden="1">
-      <c r="A8" s="50">
+      <c r="A8" s="44">
         <v>2</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1374,15 +1338,15 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="46"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
-      <c r="L8" s="38"/>
+      <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" hidden="1">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1390,15 +1354,15 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="46"/>
+      <c r="H9" s="40"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
-      <c r="L9" s="38"/>
+      <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" hidden="1">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
@@ -1406,15 +1370,15 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="46"/>
+      <c r="H10" s="40"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
-      <c r="L10" s="38"/>
+      <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" hidden="1">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1422,15 +1386,15 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="46"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
-      <c r="L11" s="38"/>
+      <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" hidden="1">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1438,17 +1402,17 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="46"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
-      <c r="L12" s="38"/>
+      <c r="L12" s="32"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A13" s="51">
+      <c r="A13" s="41">
         <v>3</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="24" t="s">
@@ -1458,15 +1422,15 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="46"/>
+      <c r="H13" s="40"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
-      <c r="L13" s="39"/>
+      <c r="L13" s="33"/>
     </row>
     <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="52"/>
-      <c r="B14" s="55"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="22" t="s">
         <v>70</v>
       </c>
@@ -1476,17 +1440,17 @@
       <c r="G14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="46"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="39"/>
+      <c r="L14" s="33"/>
     </row>
     <row r="15" spans="1:12" ht="15.75">
-      <c r="A15" s="52"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="22" t="s">
         <v>71</v>
       </c>
@@ -1496,17 +1460,17 @@
         <v>8</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="46"/>
+      <c r="H15" s="40"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="L15" s="39"/>
+      <c r="L15" s="33"/>
     </row>
     <row r="16" spans="1:12" ht="15.75">
-      <c r="A16" s="52"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="22" t="s">
         <v>72</v>
       </c>
@@ -1516,17 +1480,17 @@
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="46"/>
+      <c r="H16" s="40"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="L16" s="39"/>
+      <c r="L16" s="33"/>
     </row>
     <row r="17" spans="1:12" ht="15.75">
-      <c r="A17" s="52"/>
-      <c r="B17" s="55"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="23" t="s">
         <v>73</v>
       </c>
@@ -1536,17 +1500,17 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="46"/>
+      <c r="H17" s="40"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="L17" s="39"/>
+      <c r="L17" s="33"/>
     </row>
     <row r="18" spans="1:12" ht="15.75">
-      <c r="A18" s="52"/>
-      <c r="B18" s="55"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
@@ -1554,15 +1518,15 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="46"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
-      <c r="L18" s="39"/>
+      <c r="L18" s="33"/>
     </row>
     <row r="19" spans="1:12" ht="15.75">
-      <c r="A19" s="52"/>
-      <c r="B19" s="55"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="6" t="s">
         <v>18</v>
       </c>
@@ -1572,15 +1536,15 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="46"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
-      <c r="L19" s="39"/>
+      <c r="L19" s="33"/>
     </row>
     <row r="20" spans="1:12" ht="15.75">
-      <c r="A20" s="52"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="6" t="s">
         <v>74</v>
       </c>
@@ -1590,17 +1554,17 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="46"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="39"/>
+      <c r="L20" s="33"/>
     </row>
     <row r="21" spans="1:12" ht="15.75">
-      <c r="A21" s="52"/>
-      <c r="B21" s="55"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="7" t="s">
         <v>19</v>
       </c>
@@ -1608,823 +1572,823 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="46"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
-      <c r="L21" s="39"/>
+      <c r="L21" s="33"/>
     </row>
     <row r="22" spans="1:12" ht="15.75">
-      <c r="A22" s="52"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="33" t="s">
+      <c r="A22" s="42"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="46"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L22" s="39"/>
+      <c r="L22" s="33"/>
     </row>
     <row r="23" spans="1:12" ht="15.75">
-      <c r="A23" s="52"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="34" t="s">
+      <c r="A23" s="42"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="46">
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="40">
         <v>2</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
-      <c r="L23" s="39"/>
+      <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" ht="15.75">
-      <c r="A24" s="52"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="35" t="s">
+      <c r="A24" s="42"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="46"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="40"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
       <c r="K24" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L24" s="39"/>
+      <c r="L24" s="33"/>
     </row>
     <row r="25" spans="1:12" ht="15.75">
-      <c r="A25" s="52"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="35" t="s">
+      <c r="A25" s="42"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="46"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="40"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L25" s="39"/>
+      <c r="L25" s="33"/>
     </row>
     <row r="26" spans="1:12" ht="15.75">
-      <c r="A26" s="52"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="34" t="s">
+      <c r="A26" s="42"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="46">
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="40">
         <v>9</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
-      <c r="L26" s="39"/>
+      <c r="L26" s="33"/>
     </row>
     <row r="27" spans="1:12" ht="15.75">
-      <c r="A27" s="52"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="35" t="s">
+      <c r="A27" s="42"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="46"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="40"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L27" s="39"/>
+      <c r="L27" s="33"/>
     </row>
     <row r="28" spans="1:12" ht="15.75">
-      <c r="A28" s="52"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="35" t="s">
+      <c r="A28" s="42"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="46"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="40"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L28" s="39"/>
+      <c r="L28" s="33"/>
     </row>
     <row r="29" spans="1:12" ht="15.75">
-      <c r="A29" s="52"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="35" t="s">
+      <c r="A29" s="42"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="46"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="40"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L29" s="39"/>
+      <c r="L29" s="33"/>
     </row>
     <row r="30" spans="1:12" ht="15.75">
-      <c r="A30" s="52"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="35" t="s">
+      <c r="A30" s="42"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="46"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="40"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
       <c r="K30" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L30" s="39"/>
+      <c r="L30" s="33"/>
     </row>
     <row r="31" spans="1:12" ht="15.75">
-      <c r="A31" s="52"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="36" t="s">
+      <c r="A31" s="42"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="46"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="40"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
       <c r="K31" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L31" s="40"/>
+      <c r="L31" s="34"/>
     </row>
     <row r="32" spans="1:12" ht="15.75">
-      <c r="A32" s="52"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="36" t="s">
+      <c r="A32" s="42"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="46"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="40"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
       <c r="K32" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L32" s="40"/>
+      <c r="L32" s="34"/>
     </row>
     <row r="33" spans="1:12" ht="15.75">
-      <c r="A33" s="52"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="36" t="s">
+      <c r="A33" s="42"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="46"/>
+      <c r="D33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="40"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L33" s="40"/>
+      <c r="L33" s="34"/>
     </row>
     <row r="34" spans="1:12" ht="15.75">
-      <c r="A34" s="52"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="36" t="s">
+      <c r="A34" s="42"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="46"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="40"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
       <c r="K34" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L34" s="40"/>
+      <c r="L34" s="34"/>
     </row>
     <row r="35" spans="1:12" ht="15.75">
-      <c r="A35" s="52"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="36" t="s">
+      <c r="A35" s="42"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="46"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="40"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
       <c r="K35" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L35" s="40"/>
+      <c r="L35" s="34"/>
     </row>
     <row r="36" spans="1:12" ht="15.75">
-      <c r="A36" s="52"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="37" t="s">
+      <c r="A36" s="42"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="46">
+      <c r="D36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="40">
         <v>5</v>
       </c>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
-      <c r="L36" s="40"/>
+      <c r="L36" s="34"/>
     </row>
     <row r="37" spans="1:12" ht="15.75">
-      <c r="A37" s="52"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="36" t="s">
+      <c r="A37" s="42"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="46"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="40"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L37" s="40"/>
+      <c r="L37" s="34"/>
     </row>
     <row r="38" spans="1:12" ht="15.75">
-      <c r="A38" s="52"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="36" t="s">
+      <c r="A38" s="42"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="46"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="40"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
       <c r="K38" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L38" s="40"/>
+      <c r="L38" s="34"/>
     </row>
     <row r="39" spans="1:12" ht="15.75">
-      <c r="A39" s="52"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="36" t="s">
+      <c r="A39" s="42"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="46"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="40"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L39" s="40"/>
+      <c r="L39" s="34"/>
     </row>
     <row r="40" spans="1:12" ht="15.75">
-      <c r="A40" s="52"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="36" t="s">
+      <c r="A40" s="42"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="46"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="40"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L40" s="40"/>
+      <c r="L40" s="34"/>
     </row>
     <row r="41" spans="1:12" ht="15.75">
-      <c r="A41" s="52"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="36" t="s">
+      <c r="A41" s="42"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="46"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="40"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
       <c r="K41" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L41" s="40"/>
+      <c r="L41" s="34"/>
     </row>
     <row r="42" spans="1:12" ht="15.75">
-      <c r="A42" s="52"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="37" t="s">
+      <c r="A42" s="42"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="46">
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="40">
         <v>21</v>
       </c>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
-      <c r="L42" s="40"/>
+      <c r="L42" s="34"/>
     </row>
     <row r="43" spans="1:12" ht="15.75">
-      <c r="A43" s="52"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="36" t="s">
+      <c r="A43" s="42"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="38"/>
-      <c r="H43" s="46"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="32"/>
+      <c r="H43" s="40"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L43" s="40"/>
+      <c r="L43" s="34"/>
     </row>
     <row r="44" spans="1:12" ht="15.75">
-      <c r="A44" s="52"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="36" t="s">
+      <c r="A44" s="42"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="38"/>
-      <c r="H44" s="46"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="32"/>
+      <c r="H44" s="40"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L44" s="40"/>
+      <c r="L44" s="34"/>
     </row>
     <row r="45" spans="1:12" ht="15.75">
-      <c r="A45" s="52"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="36" t="s">
+      <c r="A45" s="42"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="38"/>
-      <c r="H45" s="46"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="32"/>
+      <c r="H45" s="40"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
       <c r="K45" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L45" s="40"/>
+      <c r="L45" s="34"/>
     </row>
     <row r="46" spans="1:12" ht="15.75">
-      <c r="A46" s="52"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="36" t="s">
+      <c r="A46" s="42"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="38"/>
-      <c r="H46" s="46"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="32"/>
+      <c r="H46" s="40"/>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
       <c r="K46" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L46" s="40"/>
+      <c r="L46" s="34"/>
     </row>
     <row r="47" spans="1:12" ht="15.75">
-      <c r="A47" s="52"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="36" t="s">
+      <c r="A47" s="42"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="38"/>
-      <c r="H47" s="46"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="32"/>
+      <c r="H47" s="40"/>
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
       <c r="K47" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L47" s="40"/>
+      <c r="L47" s="34"/>
     </row>
     <row r="48" spans="1:12" ht="15.75">
-      <c r="A48" s="52"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="36" t="s">
+      <c r="A48" s="42"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="38"/>
-      <c r="H48" s="46"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="32"/>
+      <c r="H48" s="40"/>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
       <c r="K48" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L48" s="40"/>
+      <c r="L48" s="34"/>
     </row>
     <row r="49" spans="1:12" ht="15.75">
-      <c r="A49" s="52"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="36" t="s">
+      <c r="A49" s="42"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="38"/>
-      <c r="H49" s="46"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="32"/>
+      <c r="H49" s="40"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
       <c r="K49" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L49" s="40"/>
+      <c r="L49" s="34"/>
     </row>
     <row r="50" spans="1:12" ht="15.75">
-      <c r="A50" s="52"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="36" t="s">
+      <c r="A50" s="42"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="38"/>
-      <c r="H50" s="46"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="32"/>
+      <c r="H50" s="40"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
       <c r="K50" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L50" s="40"/>
+      <c r="L50" s="34"/>
     </row>
     <row r="51" spans="1:12" ht="15.75">
-      <c r="A51" s="52"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="36" t="s">
+      <c r="A51" s="42"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="38"/>
-      <c r="H51" s="46"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="32"/>
+      <c r="H51" s="40"/>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
       <c r="K51" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L51" s="40"/>
+      <c r="L51" s="34"/>
     </row>
     <row r="52" spans="1:12" ht="15.75">
-      <c r="A52" s="52"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="36" t="s">
+      <c r="A52" s="42"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="38"/>
-      <c r="H52" s="46"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="32"/>
+      <c r="H52" s="40"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
       <c r="K52" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L52" s="40"/>
+      <c r="L52" s="34"/>
     </row>
     <row r="53" spans="1:12" ht="15.75">
-      <c r="A53" s="52"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="36" t="s">
+      <c r="A53" s="42"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="46"/>
+      <c r="D53" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="40"/>
       <c r="I53" s="14"/>
       <c r="J53" s="14"/>
       <c r="K53" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L53" s="40"/>
+      <c r="L53" s="34"/>
     </row>
     <row r="54" spans="1:12" ht="15.75">
-      <c r="A54" s="52"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="36" t="s">
+      <c r="A54" s="42"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D54" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="46"/>
+      <c r="D54" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="40"/>
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
       <c r="K54" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L54" s="40"/>
+      <c r="L54" s="34"/>
     </row>
     <row r="55" spans="1:12" ht="15.75">
-      <c r="A55" s="52"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="36" t="s">
+      <c r="A55" s="42"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="46"/>
+      <c r="D55" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="40"/>
       <c r="I55" s="14"/>
       <c r="J55" s="14"/>
       <c r="K55" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L55" s="40"/>
+      <c r="L55" s="34"/>
     </row>
     <row r="56" spans="1:12" ht="15.75">
-      <c r="A56" s="52"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="36" t="s">
+      <c r="A56" s="42"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="D56" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="46"/>
+      <c r="D56" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="40"/>
       <c r="I56" s="14"/>
       <c r="J56" s="14"/>
       <c r="K56" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L56" s="40"/>
+      <c r="L56" s="34"/>
     </row>
     <row r="57" spans="1:12" ht="15.75">
-      <c r="A57" s="52"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="36" t="s">
+      <c r="A57" s="42"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D57" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="46"/>
+      <c r="D57" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="40"/>
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
       <c r="K57" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L57" s="40"/>
+      <c r="L57" s="34"/>
     </row>
     <row r="58" spans="1:12" ht="15.75">
-      <c r="A58" s="52"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="36" t="s">
+      <c r="A58" s="42"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="D58" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="46"/>
+      <c r="D58" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="40"/>
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
       <c r="K58" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L58" s="40"/>
+      <c r="L58" s="34"/>
     </row>
     <row r="59" spans="1:12" ht="15.75">
-      <c r="A59" s="52"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="36" t="s">
+      <c r="A59" s="42"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D59" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="46"/>
+      <c r="D59" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="40"/>
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
       <c r="K59" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L59" s="40"/>
+      <c r="L59" s="34"/>
     </row>
     <row r="60" spans="1:12" ht="15.75">
-      <c r="A60" s="52"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="36" t="s">
+      <c r="A60" s="42"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="D60" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="46"/>
+      <c r="D60" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="40"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14"/>
       <c r="K60" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L60" s="40"/>
+      <c r="L60" s="34"/>
     </row>
     <row r="61" spans="1:12" ht="15.75">
-      <c r="A61" s="52"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="36" t="s">
+      <c r="A61" s="42"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="D61" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="46"/>
+      <c r="D61" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="40"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
       <c r="K61" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L61" s="40"/>
+      <c r="L61" s="34"/>
     </row>
     <row r="62" spans="1:12" ht="15.75">
-      <c r="A62" s="52"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="36" t="s">
+      <c r="A62" s="42"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="46"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="40"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
       <c r="K62" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L62" s="40"/>
+      <c r="L62" s="34"/>
     </row>
     <row r="63" spans="1:12" ht="15.75">
-      <c r="A63" s="52"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="36" t="s">
+      <c r="A63" s="42"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="30" t="s">
         <v>123</v>
       </c>
       <c r="D63" s="2"/>
@@ -2433,17 +2397,17 @@
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="46"/>
+      <c r="H63" s="40"/>
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
       <c r="K63" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L63" s="40"/>
+      <c r="L63" s="34"/>
     </row>
     <row r="64" spans="1:12" ht="15.75">
-      <c r="A64" s="52"/>
-      <c r="B64" s="55"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="46"/>
       <c r="C64" s="7" t="s">
         <v>21</v>
       </c>
@@ -2451,17 +2415,17 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="46"/>
+      <c r="H64" s="40"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14"/>
       <c r="K64" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L64" s="40"/>
+      <c r="L64" s="34"/>
     </row>
     <row r="65" spans="1:12" ht="15.75">
-      <c r="A65" s="52"/>
-      <c r="B65" s="55"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="8" t="s">
         <v>22</v>
       </c>
@@ -2469,15 +2433,15 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="46"/>
+      <c r="H65" s="40"/>
       <c r="I65" s="14"/>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
-      <c r="L65" s="40"/>
+      <c r="L65" s="34"/>
     </row>
     <row r="66" spans="1:12" ht="15.75">
-      <c r="A66" s="52"/>
-      <c r="B66" s="55"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="8" t="s">
         <v>23</v>
       </c>
@@ -2485,15 +2449,15 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="46"/>
+      <c r="H66" s="40"/>
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
-      <c r="L66" s="40"/>
+      <c r="L66" s="34"/>
     </row>
     <row r="67" spans="1:12" ht="15.75">
-      <c r="A67" s="52"/>
-      <c r="B67" s="55"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="46"/>
       <c r="C67" s="8" t="s">
         <v>24</v>
       </c>
@@ -2501,15 +2465,15 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="46"/>
+      <c r="H67" s="40"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
-      <c r="L67" s="40"/>
+      <c r="L67" s="34"/>
     </row>
     <row r="68" spans="1:12" ht="15.75">
-      <c r="A68" s="53"/>
-      <c r="B68" s="56"/>
+      <c r="A68" s="43"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="9" t="s">
         <v>25</v>
       </c>
@@ -2517,17 +2481,17 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="46"/>
+      <c r="H68" s="40"/>
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
-      <c r="L68" s="40"/>
-    </row>
-    <row r="69" spans="1:12" ht="30" customHeight="1">
-      <c r="A69" s="30">
+      <c r="L68" s="34"/>
+    </row>
+    <row r="69" spans="1:12" ht="15.75">
+      <c r="A69" s="41">
         <v>4</v>
       </c>
-      <c r="B69" s="47" t="s">
+      <c r="B69" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -2537,15 +2501,15 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="46"/>
+      <c r="H69" s="40"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
       <c r="K69" s="14"/>
-      <c r="L69" s="40"/>
+      <c r="L69" s="34"/>
     </row>
     <row r="70" spans="1:12" ht="15.75">
-      <c r="A70" s="31"/>
-      <c r="B70" s="48"/>
+      <c r="A70" s="42"/>
+      <c r="B70" s="42"/>
       <c r="C70" s="4" t="s">
         <v>53</v>
       </c>
@@ -2553,15 +2517,15 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="46"/>
+      <c r="H70" s="40"/>
       <c r="I70" s="14"/>
       <c r="J70" s="14"/>
       <c r="K70" s="14"/>
-      <c r="L70" s="40"/>
+      <c r="L70" s="34"/>
     </row>
     <row r="71" spans="1:12" ht="15.75">
-      <c r="A71" s="31"/>
-      <c r="B71" s="48"/>
+      <c r="A71" s="42"/>
+      <c r="B71" s="42"/>
       <c r="C71" s="10" t="s">
         <v>54</v>
       </c>
@@ -2569,15 +2533,15 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="46"/>
+      <c r="H71" s="40"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
-      <c r="L71" s="40"/>
+      <c r="L71" s="34"/>
     </row>
     <row r="72" spans="1:12" ht="15.75">
-      <c r="A72" s="31"/>
-      <c r="B72" s="48"/>
+      <c r="A72" s="42"/>
+      <c r="B72" s="42"/>
       <c r="C72" s="11" t="s">
         <v>55</v>
       </c>
@@ -2585,15 +2549,15 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="46"/>
+      <c r="H72" s="40"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14"/>
       <c r="K72" s="14"/>
-      <c r="L72" s="40"/>
+      <c r="L72" s="34"/>
     </row>
     <row r="73" spans="1:12" ht="15.75">
-      <c r="A73" s="31"/>
-      <c r="B73" s="48"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="42"/>
       <c r="C73" s="11" t="s">
         <v>56</v>
       </c>
@@ -2601,15 +2565,15 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="46"/>
+      <c r="H73" s="40"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14"/>
       <c r="K73" s="14"/>
-      <c r="L73" s="40"/>
+      <c r="L73" s="34"/>
     </row>
     <row r="74" spans="1:12" ht="15.75">
-      <c r="A74" s="31"/>
-      <c r="B74" s="48"/>
+      <c r="A74" s="42"/>
+      <c r="B74" s="42"/>
       <c r="C74" s="12" t="s">
         <v>27</v>
       </c>
@@ -2617,15 +2581,15 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="46"/>
+      <c r="H74" s="40"/>
       <c r="I74" s="14"/>
       <c r="J74" s="14"/>
       <c r="K74" s="14"/>
-      <c r="L74" s="40"/>
+      <c r="L74" s="34"/>
     </row>
     <row r="75" spans="1:12" ht="15.75">
-      <c r="A75" s="31"/>
-      <c r="B75" s="48"/>
+      <c r="A75" s="42"/>
+      <c r="B75" s="42"/>
       <c r="C75" s="10" t="s">
         <v>28</v>
       </c>
@@ -2633,15 +2597,15 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="46"/>
+      <c r="H75" s="40"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14"/>
       <c r="K75" s="14"/>
-      <c r="L75" s="40"/>
+      <c r="L75" s="34"/>
     </row>
     <row r="76" spans="1:12" ht="15.75">
-      <c r="A76" s="31"/>
-      <c r="B76" s="48"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="42"/>
       <c r="C76" s="11" t="s">
         <v>29</v>
       </c>
@@ -2649,15 +2613,15 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="46"/>
+      <c r="H76" s="40"/>
       <c r="I76" s="14"/>
       <c r="J76" s="14"/>
       <c r="K76" s="14"/>
-      <c r="L76" s="40"/>
+      <c r="L76" s="34"/>
     </row>
     <row r="77" spans="1:12" ht="15.75">
-      <c r="A77" s="31"/>
-      <c r="B77" s="48"/>
+      <c r="A77" s="42"/>
+      <c r="B77" s="42"/>
       <c r="C77" s="11" t="s">
         <v>30</v>
       </c>
@@ -2665,15 +2629,15 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="46"/>
+      <c r="H77" s="40"/>
       <c r="I77" s="14"/>
       <c r="J77" s="14"/>
       <c r="K77" s="14"/>
-      <c r="L77" s="40"/>
+      <c r="L77" s="34"/>
     </row>
     <row r="78" spans="1:12" ht="15.75">
-      <c r="A78" s="31"/>
-      <c r="B78" s="48"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="42"/>
       <c r="C78" s="13" t="s">
         <v>31</v>
       </c>
@@ -2681,15 +2645,15 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="46"/>
+      <c r="H78" s="40"/>
       <c r="I78" s="14"/>
       <c r="J78" s="14"/>
       <c r="K78" s="14"/>
-      <c r="L78" s="40"/>
+      <c r="L78" s="34"/>
     </row>
     <row r="79" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A79" s="31"/>
-      <c r="B79" s="48"/>
+      <c r="A79" s="42"/>
+      <c r="B79" s="42"/>
       <c r="C79" s="8" t="s">
         <v>50</v>
       </c>
@@ -2697,15 +2661,15 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="46"/>
+      <c r="H79" s="40"/>
       <c r="I79" s="14"/>
       <c r="J79" s="14"/>
       <c r="K79" s="14"/>
-      <c r="L79" s="40"/>
+      <c r="L79" s="34"/>
     </row>
     <row r="80" spans="1:12" ht="15.75">
-      <c r="A80" s="31"/>
-      <c r="B80" s="48"/>
+      <c r="A80" s="42"/>
+      <c r="B80" s="42"/>
       <c r="C80" s="8" t="s">
         <v>51</v>
       </c>
@@ -2713,15 +2677,15 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="46"/>
+      <c r="H80" s="40"/>
       <c r="I80" s="14"/>
       <c r="J80" s="14"/>
       <c r="K80" s="14"/>
-      <c r="L80" s="40"/>
+      <c r="L80" s="34"/>
     </row>
     <row r="81" spans="1:12" ht="15.75">
-      <c r="A81" s="31"/>
-      <c r="B81" s="48"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="42"/>
       <c r="C81" s="8" t="s">
         <v>52</v>
       </c>
@@ -2729,15 +2693,15 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="46"/>
+      <c r="H81" s="40"/>
       <c r="I81" s="14"/>
       <c r="J81" s="14"/>
       <c r="K81" s="14"/>
-      <c r="L81" s="40"/>
+      <c r="L81" s="34"/>
     </row>
     <row r="82" spans="1:12" ht="15.75">
-      <c r="A82" s="31"/>
-      <c r="B82" s="48"/>
+      <c r="A82" s="42"/>
+      <c r="B82" s="42"/>
       <c r="C82" s="13" t="s">
         <v>48</v>
       </c>
@@ -2745,15 +2709,15 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="46"/>
+      <c r="H82" s="40"/>
       <c r="I82" s="14"/>
       <c r="J82" s="14"/>
       <c r="K82" s="14"/>
-      <c r="L82" s="40"/>
+      <c r="L82" s="34"/>
     </row>
     <row r="83" spans="1:12" ht="15.75">
-      <c r="A83" s="32"/>
-      <c r="B83" s="49"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
       <c r="C83" s="13" t="s">
         <v>49</v>
       </c>
@@ -2761,17 +2725,17 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="46"/>
+      <c r="H83" s="40"/>
       <c r="I83" s="14"/>
       <c r="J83" s="14"/>
       <c r="K83" s="14"/>
-      <c r="L83" s="40"/>
-    </row>
-    <row r="84" spans="1:12" ht="45" customHeight="1">
-      <c r="A84" s="27">
+      <c r="L83" s="34"/>
+    </row>
+    <row r="84" spans="1:12" ht="15.75">
+      <c r="A84" s="48">
         <v>5</v>
       </c>
-      <c r="B84" s="47" t="s">
+      <c r="B84" s="41" t="s">
         <v>58</v>
       </c>
       <c r="C84" s="5" t="s">
@@ -2781,15 +2745,15 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="46"/>
+      <c r="H84" s="40"/>
       <c r="I84" s="14"/>
       <c r="J84" s="14"/>
       <c r="K84" s="14"/>
-      <c r="L84" s="40"/>
+      <c r="L84" s="34"/>
     </row>
     <row r="85" spans="1:12" ht="15.75">
-      <c r="A85" s="28"/>
-      <c r="B85" s="48"/>
+      <c r="A85" s="49"/>
+      <c r="B85" s="42"/>
       <c r="C85" s="5" t="s">
         <v>32</v>
       </c>
@@ -2797,15 +2761,15 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="46"/>
+      <c r="H85" s="40"/>
       <c r="I85" s="14"/>
       <c r="J85" s="14"/>
       <c r="K85" s="14"/>
-      <c r="L85" s="40"/>
+      <c r="L85" s="34"/>
     </row>
     <row r="86" spans="1:12" ht="15.75">
-      <c r="A86" s="28"/>
-      <c r="B86" s="48"/>
+      <c r="A86" s="49"/>
+      <c r="B86" s="42"/>
       <c r="C86" s="11" t="s">
         <v>34</v>
       </c>
@@ -2813,15 +2777,15 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-      <c r="H86" s="46"/>
+      <c r="H86" s="40"/>
       <c r="I86" s="14"/>
       <c r="J86" s="14"/>
       <c r="K86" s="14"/>
-      <c r="L86" s="40"/>
+      <c r="L86" s="34"/>
     </row>
     <row r="87" spans="1:12" ht="15.75">
-      <c r="A87" s="28"/>
-      <c r="B87" s="48"/>
+      <c r="A87" s="49"/>
+      <c r="B87" s="42"/>
       <c r="C87" s="11" t="s">
         <v>35</v>
       </c>
@@ -2829,15 +2793,15 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="46"/>
+      <c r="H87" s="40"/>
       <c r="I87" s="14"/>
       <c r="J87" s="14"/>
       <c r="K87" s="14"/>
-      <c r="L87" s="40"/>
+      <c r="L87" s="34"/>
     </row>
     <row r="88" spans="1:12" ht="15.75">
-      <c r="A88" s="28"/>
-      <c r="B88" s="48"/>
+      <c r="A88" s="49"/>
+      <c r="B88" s="42"/>
       <c r="C88" s="5" t="s">
         <v>33</v>
       </c>
@@ -2845,15 +2809,15 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="46"/>
+      <c r="H88" s="40"/>
       <c r="I88" s="14"/>
       <c r="J88" s="14"/>
       <c r="K88" s="14"/>
-      <c r="L88" s="40"/>
+      <c r="L88" s="34"/>
     </row>
     <row r="89" spans="1:12" ht="15.75">
-      <c r="A89" s="28"/>
-      <c r="B89" s="48"/>
+      <c r="A89" s="49"/>
+      <c r="B89" s="42"/>
       <c r="C89" s="11" t="s">
         <v>34</v>
       </c>
@@ -2861,15 +2825,15 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-      <c r="H89" s="46"/>
+      <c r="H89" s="40"/>
       <c r="I89" s="14"/>
       <c r="J89" s="14"/>
       <c r="K89" s="14"/>
-      <c r="L89" s="40"/>
+      <c r="L89" s="34"/>
     </row>
     <row r="90" spans="1:12" ht="15.75">
-      <c r="A90" s="28"/>
-      <c r="B90" s="48"/>
+      <c r="A90" s="49"/>
+      <c r="B90" s="42"/>
       <c r="C90" s="11" t="s">
         <v>35</v>
       </c>
@@ -2877,15 +2841,15 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="46"/>
+      <c r="H90" s="40"/>
       <c r="I90" s="14"/>
       <c r="J90" s="14"/>
       <c r="K90" s="14"/>
-      <c r="L90" s="40"/>
+      <c r="L90" s="34"/>
     </row>
     <row r="91" spans="1:12" ht="15.75">
-      <c r="A91" s="28"/>
-      <c r="B91" s="48"/>
+      <c r="A91" s="49"/>
+      <c r="B91" s="42"/>
       <c r="C91" s="4" t="s">
         <v>59</v>
       </c>
@@ -2893,15 +2857,15 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="46"/>
+      <c r="H91" s="40"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14"/>
       <c r="K91" s="14"/>
-      <c r="L91" s="40"/>
+      <c r="L91" s="34"/>
     </row>
     <row r="92" spans="1:12" ht="15.75">
-      <c r="A92" s="28"/>
-      <c r="B92" s="48"/>
+      <c r="A92" s="49"/>
+      <c r="B92" s="42"/>
       <c r="C92" s="13" t="s">
         <v>36</v>
       </c>
@@ -2909,15 +2873,15 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-      <c r="H92" s="46"/>
+      <c r="H92" s="40"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14"/>
       <c r="K92" s="14"/>
-      <c r="L92" s="40"/>
+      <c r="L92" s="34"/>
     </row>
     <row r="93" spans="1:12" ht="15.75">
-      <c r="A93" s="28"/>
-      <c r="B93" s="48"/>
+      <c r="A93" s="49"/>
+      <c r="B93" s="42"/>
       <c r="C93" s="11" t="s">
         <v>20</v>
       </c>
@@ -2925,15 +2889,15 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-      <c r="H93" s="46"/>
+      <c r="H93" s="40"/>
       <c r="I93" s="14"/>
       <c r="J93" s="14"/>
       <c r="K93" s="14"/>
-      <c r="L93" s="40"/>
+      <c r="L93" s="34"/>
     </row>
     <row r="94" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A94" s="28"/>
-      <c r="B94" s="48"/>
+      <c r="A94" s="49"/>
+      <c r="B94" s="42"/>
       <c r="C94" s="11" t="s">
         <v>38</v>
       </c>
@@ -2941,15 +2905,15 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-      <c r="H94" s="46"/>
+      <c r="H94" s="40"/>
       <c r="I94" s="14"/>
       <c r="J94" s="14"/>
       <c r="K94" s="14"/>
-      <c r="L94" s="40"/>
+      <c r="L94" s="34"/>
     </row>
     <row r="95" spans="1:12" ht="15.75">
-      <c r="A95" s="28"/>
-      <c r="B95" s="48"/>
+      <c r="A95" s="49"/>
+      <c r="B95" s="42"/>
       <c r="C95" s="11" t="s">
         <v>39</v>
       </c>
@@ -2957,15 +2921,15 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
-      <c r="H95" s="46"/>
+      <c r="H95" s="40"/>
       <c r="I95" s="14"/>
       <c r="J95" s="14"/>
       <c r="K95" s="14"/>
-      <c r="L95" s="40"/>
+      <c r="L95" s="34"/>
     </row>
     <row r="96" spans="1:12" ht="15.75">
-      <c r="A96" s="28"/>
-      <c r="B96" s="48"/>
+      <c r="A96" s="49"/>
+      <c r="B96" s="42"/>
       <c r="C96" s="13" t="s">
         <v>37</v>
       </c>
@@ -2973,15 +2937,15 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
-      <c r="H96" s="46"/>
+      <c r="H96" s="40"/>
       <c r="I96" s="14"/>
       <c r="J96" s="14"/>
       <c r="K96" s="14"/>
-      <c r="L96" s="40"/>
+      <c r="L96" s="34"/>
     </row>
     <row r="97" spans="1:12" ht="15.75">
-      <c r="A97" s="28"/>
-      <c r="B97" s="48"/>
+      <c r="A97" s="49"/>
+      <c r="B97" s="42"/>
       <c r="C97" s="11" t="s">
         <v>20</v>
       </c>
@@ -2989,15 +2953,15 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
-      <c r="H97" s="46"/>
+      <c r="H97" s="40"/>
       <c r="I97" s="14"/>
       <c r="J97" s="14"/>
       <c r="K97" s="14"/>
-      <c r="L97" s="40"/>
+      <c r="L97" s="34"/>
     </row>
     <row r="98" spans="1:12" ht="15.75">
-      <c r="A98" s="28"/>
-      <c r="B98" s="48"/>
+      <c r="A98" s="49"/>
+      <c r="B98" s="42"/>
       <c r="C98" s="11" t="s">
         <v>38</v>
       </c>
@@ -3005,15 +2969,15 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
-      <c r="H98" s="46"/>
+      <c r="H98" s="40"/>
       <c r="I98" s="14"/>
       <c r="J98" s="14"/>
       <c r="K98" s="14"/>
-      <c r="L98" s="40"/>
+      <c r="L98" s="34"/>
     </row>
     <row r="99" spans="1:12" ht="15.75">
-      <c r="A99" s="28"/>
-      <c r="B99" s="48"/>
+      <c r="A99" s="49"/>
+      <c r="B99" s="42"/>
       <c r="C99" s="13" t="s">
         <v>57</v>
       </c>
@@ -3021,15 +2985,15 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
-      <c r="H99" s="46"/>
+      <c r="H99" s="40"/>
       <c r="I99" s="14"/>
       <c r="J99" s="14"/>
       <c r="K99" s="14"/>
-      <c r="L99" s="40"/>
+      <c r="L99" s="34"/>
     </row>
     <row r="100" spans="1:12" ht="15.75">
-      <c r="A100" s="28"/>
-      <c r="B100" s="48"/>
+      <c r="A100" s="49"/>
+      <c r="B100" s="42"/>
       <c r="C100" s="11" t="s">
         <v>20</v>
       </c>
@@ -3037,15 +3001,15 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="46"/>
+      <c r="H100" s="40"/>
       <c r="I100" s="14"/>
       <c r="J100" s="14"/>
       <c r="K100" s="14"/>
-      <c r="L100" s="40"/>
+      <c r="L100" s="34"/>
     </row>
     <row r="101" spans="1:12" ht="15.75">
-      <c r="A101" s="29"/>
-      <c r="B101" s="49"/>
+      <c r="A101" s="50"/>
+      <c r="B101" s="43"/>
       <c r="C101" s="11" t="s">
         <v>38</v>
       </c>
@@ -3053,17 +3017,17 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
-      <c r="H101" s="46"/>
+      <c r="H101" s="40"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14"/>
       <c r="K101" s="14"/>
-      <c r="L101" s="40"/>
-    </row>
-    <row r="102" spans="1:12" ht="30" customHeight="1">
-      <c r="A102" s="27">
+      <c r="L101" s="34"/>
+    </row>
+    <row r="102" spans="1:12" ht="15.75">
+      <c r="A102" s="48">
         <v>6</v>
       </c>
-      <c r="B102" s="47" t="s">
+      <c r="B102" s="41" t="s">
         <v>7</v>
       </c>
       <c r="C102" s="13" t="s">
@@ -3073,15 +3037,15 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
-      <c r="H102" s="46"/>
+      <c r="H102" s="40"/>
       <c r="I102" s="14"/>
       <c r="J102" s="14"/>
       <c r="K102" s="14"/>
-      <c r="L102" s="40"/>
+      <c r="L102" s="34"/>
     </row>
     <row r="103" spans="1:12" ht="15.75">
-      <c r="A103" s="28"/>
-      <c r="B103" s="48"/>
+      <c r="A103" s="49"/>
+      <c r="B103" s="42"/>
       <c r="C103" s="13" t="s">
         <v>42</v>
       </c>
@@ -3089,15 +3053,15 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
-      <c r="H103" s="46"/>
+      <c r="H103" s="40"/>
       <c r="I103" s="14"/>
       <c r="J103" s="14"/>
       <c r="K103" s="14"/>
-      <c r="L103" s="40"/>
+      <c r="L103" s="34"/>
     </row>
     <row r="104" spans="1:12" ht="15.75">
-      <c r="A104" s="28"/>
-      <c r="B104" s="48"/>
+      <c r="A104" s="49"/>
+      <c r="B104" s="42"/>
       <c r="C104" s="11" t="s">
         <v>20</v>
       </c>
@@ -3105,15 +3069,15 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
-      <c r="H104" s="46"/>
+      <c r="H104" s="40"/>
       <c r="I104" s="14"/>
       <c r="J104" s="14"/>
       <c r="K104" s="14"/>
-      <c r="L104" s="40"/>
+      <c r="L104" s="34"/>
     </row>
     <row r="105" spans="1:12" ht="15.75">
-      <c r="A105" s="28"/>
-      <c r="B105" s="48"/>
+      <c r="A105" s="49"/>
+      <c r="B105" s="42"/>
       <c r="C105" s="11" t="s">
         <v>38</v>
       </c>
@@ -3121,15 +3085,15 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
-      <c r="H105" s="46"/>
+      <c r="H105" s="40"/>
       <c r="I105" s="14"/>
       <c r="J105" s="14"/>
       <c r="K105" s="14"/>
-      <c r="L105" s="40"/>
+      <c r="L105" s="34"/>
     </row>
     <row r="106" spans="1:12" ht="15.75">
-      <c r="A106" s="28"/>
-      <c r="B106" s="48"/>
+      <c r="A106" s="49"/>
+      <c r="B106" s="42"/>
       <c r="C106" s="11" t="s">
         <v>39</v>
       </c>
@@ -3137,15 +3101,15 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="46"/>
+      <c r="H106" s="40"/>
       <c r="I106" s="14"/>
       <c r="J106" s="14"/>
       <c r="K106" s="14"/>
-      <c r="L106" s="40"/>
+      <c r="L106" s="34"/>
     </row>
     <row r="107" spans="1:12" ht="15.75">
-      <c r="A107" s="29"/>
-      <c r="B107" s="49"/>
+      <c r="A107" s="50"/>
+      <c r="B107" s="43"/>
       <c r="C107" s="13" t="s">
         <v>43</v>
       </c>
@@ -3153,11 +3117,11 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
-      <c r="H107" s="46"/>
+      <c r="H107" s="40"/>
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
       <c r="K107" s="14"/>
-      <c r="L107" s="40"/>
+      <c r="L107" s="34"/>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="3"/>
@@ -3170,7 +3134,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
-      <c r="L108" s="42"/>
+      <c r="L108" s="36"/>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="18" t="s">
@@ -3185,7 +3149,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
-      <c r="L109" s="42"/>
+      <c r="L109" s="36"/>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="19" t="s">
@@ -3204,7 +3168,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
-      <c r="L110" s="42"/>
+      <c r="L110" s="36"/>
     </row>
     <row r="111" spans="1:12" ht="60">
       <c r="A111" s="19">
@@ -3223,7 +3187,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
-      <c r="L111" s="42"/>
+      <c r="L111" s="36"/>
     </row>
     <row r="112" spans="1:12" ht="15.75" customHeight="1">
       <c r="A112" s="21">
@@ -3242,7 +3206,7 @@
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
-      <c r="L112" s="42"/>
+      <c r="L112" s="36"/>
     </row>
     <row r="113" spans="1:12" ht="30">
       <c r="A113" s="21">
@@ -3261,7 +3225,7 @@
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
-      <c r="L113" s="42"/>
+      <c r="L113" s="36"/>
     </row>
     <row r="114" spans="1:12" ht="30">
       <c r="A114" s="21">
@@ -3280,7 +3244,7 @@
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
-      <c r="L114" s="42"/>
+      <c r="L114" s="36"/>
     </row>
     <row r="115" spans="1:12" ht="30">
       <c r="A115" s="21">
@@ -3299,10 +3263,10 @@
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
-      <c r="L115" s="42"/>
+      <c r="L115" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
     <mergeCell ref="B69:B83"/>
     <mergeCell ref="B84:B101"/>
     <mergeCell ref="B102:B107"/>
@@ -3312,6 +3276,9 @@
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A68"/>
     <mergeCell ref="B13:B68"/>
+    <mergeCell ref="A69:A83"/>
+    <mergeCell ref="A84:A101"/>
+    <mergeCell ref="A102:A107"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L30 G42 E37:E115 F43:G115 D2:D115 F2:G41 E2:E32 E34:E35">

--- a/wiki/report/Tasksheet.xlsx
+++ b/wiki/report/Tasksheet.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="126">
   <si>
     <t>No.</t>
   </si>
@@ -725,7 +725,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -852,6 +852,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1155,11 +1158,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L115"/>
+  <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102:A107"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F45:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1815,14 +1818,14 @@
       <c r="A34" s="42"/>
       <c r="B34" s="46"/>
       <c r="C34" s="30" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D34" s="32"/>
-      <c r="E34" s="37" t="s">
-        <v>8</v>
-      </c>
+      <c r="E34" s="37"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
+      <c r="G34" s="32" t="s">
+        <v>8</v>
+      </c>
       <c r="H34" s="40"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
@@ -1835,7 +1838,7 @@
       <c r="A35" s="42"/>
       <c r="B35" s="46"/>
       <c r="C35" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D35" s="32"/>
       <c r="E35" s="32" t="s">
@@ -1854,10 +1857,13 @@
     <row r="36" spans="1:12" ht="15.75">
       <c r="A36" s="42"/>
       <c r="B36" s="46"/>
-      <c r="C36" s="31" t="s">
-        <v>96</v>
+      <c r="C36" s="30" t="s">
+        <v>95</v>
       </c>
       <c r="D36" s="32"/>
+      <c r="E36" s="32" t="s">
+        <v>8</v>
+      </c>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
       <c r="H36" s="40">
@@ -1871,13 +1877,11 @@
     <row r="37" spans="1:12" ht="15.75">
       <c r="A37" s="42"/>
       <c r="B37" s="46"/>
-      <c r="C37" s="30" t="s">
-        <v>97</v>
+      <c r="C37" s="31" t="s">
+        <v>96</v>
       </c>
       <c r="D37" s="32"/>
-      <c r="E37" s="37" t="s">
-        <v>8</v>
-      </c>
+      <c r="E37" s="37"/>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
       <c r="H37" s="40"/>
@@ -1892,7 +1896,7 @@
       <c r="A38" s="42"/>
       <c r="B38" s="46"/>
       <c r="C38" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D38" s="32"/>
       <c r="E38" s="32" t="s">
@@ -1912,7 +1916,7 @@
       <c r="A39" s="42"/>
       <c r="B39" s="46"/>
       <c r="C39" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D39" s="32"/>
       <c r="E39" s="32" t="s">
@@ -1932,7 +1936,7 @@
       <c r="A40" s="42"/>
       <c r="B40" s="46"/>
       <c r="C40" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D40" s="32"/>
       <c r="E40" s="32" t="s">
@@ -1952,7 +1956,7 @@
       <c r="A41" s="42"/>
       <c r="B41" s="46"/>
       <c r="C41" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D41" s="32"/>
       <c r="E41" s="32" t="s">
@@ -1971,11 +1975,13 @@
     <row r="42" spans="1:12" ht="15.75">
       <c r="A42" s="42"/>
       <c r="B42" s="46"/>
-      <c r="C42" s="31" t="s">
-        <v>102</v>
+      <c r="C42" s="30" t="s">
+        <v>101</v>
       </c>
       <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
+      <c r="E42" s="32" t="s">
+        <v>8</v>
+      </c>
       <c r="G42" s="32"/>
       <c r="H42" s="40">
         <v>21</v>
@@ -1988,14 +1994,14 @@
     <row r="43" spans="1:12" ht="15.75">
       <c r="A43" s="42"/>
       <c r="B43" s="46"/>
-      <c r="C43" s="30" t="s">
-        <v>103</v>
+      <c r="C43" s="51" t="s">
+        <v>109</v>
       </c>
       <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="37" t="s">
-        <v>8</v>
-      </c>
+      <c r="E43" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="37"/>
       <c r="G43" s="32"/>
       <c r="H43" s="40"/>
       <c r="I43" s="14"/>
@@ -2008,14 +2014,12 @@
     <row r="44" spans="1:12" ht="15.75">
       <c r="A44" s="42"/>
       <c r="B44" s="46"/>
-      <c r="C44" s="30" t="s">
-        <v>104</v>
+      <c r="C44" s="31" t="s">
+        <v>102</v>
       </c>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="32" t="s">
-        <v>8</v>
-      </c>
+      <c r="F44" s="32"/>
       <c r="G44" s="32"/>
       <c r="H44" s="40"/>
       <c r="I44" s="14"/>
@@ -2029,7 +2033,7 @@
       <c r="A45" s="42"/>
       <c r="B45" s="46"/>
       <c r="C45" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
@@ -2049,7 +2053,7 @@
       <c r="A46" s="42"/>
       <c r="B46" s="46"/>
       <c r="C46" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
@@ -2069,7 +2073,7 @@
       <c r="A47" s="42"/>
       <c r="B47" s="46"/>
       <c r="C47" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
@@ -2089,7 +2093,7 @@
       <c r="A48" s="42"/>
       <c r="B48" s="46"/>
       <c r="C48" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D48" s="32"/>
       <c r="E48" s="32"/>
@@ -2109,7 +2113,7 @@
       <c r="A49" s="42"/>
       <c r="B49" s="46"/>
       <c r="C49" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D49" s="32"/>
       <c r="E49" s="32"/>
@@ -2129,7 +2133,7 @@
       <c r="A50" s="42"/>
       <c r="B50" s="46"/>
       <c r="C50" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D50" s="32"/>
       <c r="E50" s="32"/>
@@ -2149,7 +2153,7 @@
       <c r="A51" s="42"/>
       <c r="B51" s="46"/>
       <c r="C51" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D51" s="32"/>
       <c r="E51" s="32"/>
@@ -2169,13 +2173,13 @@
       <c r="A52" s="42"/>
       <c r="B52" s="46"/>
       <c r="C52" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="32"/>
+        <v>110</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>8</v>
+      </c>
       <c r="E52" s="32"/>
-      <c r="F52" s="32" t="s">
-        <v>8</v>
-      </c>
+      <c r="F52" s="32"/>
       <c r="G52" s="32"/>
       <c r="H52" s="40"/>
       <c r="I52" s="14"/>
@@ -2189,7 +2193,7 @@
       <c r="A53" s="42"/>
       <c r="B53" s="46"/>
       <c r="C53" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D53" s="32" t="s">
         <v>8</v>
@@ -2209,7 +2213,7 @@
       <c r="A54" s="42"/>
       <c r="B54" s="46"/>
       <c r="C54" s="30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D54" s="32" t="s">
         <v>8</v>
@@ -2229,7 +2233,7 @@
       <c r="A55" s="42"/>
       <c r="B55" s="46"/>
       <c r="C55" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D55" s="32" t="s">
         <v>8</v>
@@ -2249,7 +2253,7 @@
       <c r="A56" s="42"/>
       <c r="B56" s="46"/>
       <c r="C56" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D56" s="32" t="s">
         <v>8</v>
@@ -2269,7 +2273,7 @@
       <c r="A57" s="42"/>
       <c r="B57" s="46"/>
       <c r="C57" s="30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D57" s="32" t="s">
         <v>8</v>
@@ -2289,7 +2293,7 @@
       <c r="A58" s="42"/>
       <c r="B58" s="46"/>
       <c r="C58" s="30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D58" s="32" t="s">
         <v>8</v>
@@ -2309,7 +2313,7 @@
       <c r="A59" s="42"/>
       <c r="B59" s="46"/>
       <c r="C59" s="30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D59" s="32" t="s">
         <v>8</v>
@@ -2329,7 +2333,7 @@
       <c r="A60" s="42"/>
       <c r="B60" s="46"/>
       <c r="C60" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D60" s="32" t="s">
         <v>8</v>
@@ -2349,7 +2353,7 @@
       <c r="A61" s="42"/>
       <c r="B61" s="46"/>
       <c r="C61" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D61" s="32" t="s">
         <v>8</v>
@@ -2369,12 +2373,12 @@
       <c r="A62" s="42"/>
       <c r="B62" s="46"/>
       <c r="C62" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32" t="s">
-        <v>8</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="32"/>
       <c r="F62" s="32"/>
       <c r="G62" s="32"/>
       <c r="H62" s="40"/>
@@ -2389,12 +2393,12 @@
       <c r="A63" s="42"/>
       <c r="B63" s="46"/>
       <c r="C63" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="40"/>
@@ -2408,11 +2412,13 @@
     <row r="64" spans="1:12" ht="15.75">
       <c r="A64" s="42"/>
       <c r="B64" s="46"/>
-      <c r="C64" s="7" t="s">
-        <v>21</v>
+      <c r="C64" s="30" t="s">
+        <v>122</v>
       </c>
       <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="E64" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="40"/>
@@ -2426,11 +2432,13 @@
     <row r="65" spans="1:12" ht="15.75">
       <c r="A65" s="42"/>
       <c r="B65" s="46"/>
-      <c r="C65" s="8" t="s">
-        <v>22</v>
+      <c r="C65" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="40"/>
@@ -2442,8 +2450,8 @@
     <row r="66" spans="1:12" ht="15.75">
       <c r="A66" s="42"/>
       <c r="B66" s="46"/>
-      <c r="C66" s="8" t="s">
-        <v>23</v>
+      <c r="C66" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2459,7 +2467,7 @@
       <c r="A67" s="42"/>
       <c r="B67" s="46"/>
       <c r="C67" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -2474,8 +2482,8 @@
     <row r="68" spans="1:12" ht="15.75">
       <c r="A68" s="43"/>
       <c r="B68" s="47"/>
-      <c r="C68" s="9" t="s">
-        <v>25</v>
+      <c r="C68" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -2494,8 +2502,8 @@
       <c r="B69" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>26</v>
+      <c r="C69" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2510,8 +2518,8 @@
     <row r="70" spans="1:12" ht="15.75">
       <c r="A70" s="42"/>
       <c r="B70" s="42"/>
-      <c r="C70" s="4" t="s">
-        <v>53</v>
+      <c r="C70" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2526,8 +2534,8 @@
     <row r="71" spans="1:12" ht="15.75">
       <c r="A71" s="42"/>
       <c r="B71" s="42"/>
-      <c r="C71" s="10" t="s">
-        <v>54</v>
+      <c r="C71" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -2542,8 +2550,8 @@
     <row r="72" spans="1:12" ht="15.75">
       <c r="A72" s="42"/>
       <c r="B72" s="42"/>
-      <c r="C72" s="11" t="s">
-        <v>55</v>
+      <c r="C72" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -2558,8 +2566,8 @@
     <row r="73" spans="1:12" ht="15.75">
       <c r="A73" s="42"/>
       <c r="B73" s="42"/>
-      <c r="C73" s="11" t="s">
-        <v>56</v>
+      <c r="C73" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -2574,8 +2582,8 @@
     <row r="74" spans="1:12" ht="15.75">
       <c r="A74" s="42"/>
       <c r="B74" s="42"/>
-      <c r="C74" s="12" t="s">
-        <v>27</v>
+      <c r="C74" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -2590,8 +2598,8 @@
     <row r="75" spans="1:12" ht="15.75">
       <c r="A75" s="42"/>
       <c r="B75" s="42"/>
-      <c r="C75" s="10" t="s">
-        <v>28</v>
+      <c r="C75" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -2606,8 +2614,8 @@
     <row r="76" spans="1:12" ht="15.75">
       <c r="A76" s="42"/>
       <c r="B76" s="42"/>
-      <c r="C76" s="11" t="s">
-        <v>29</v>
+      <c r="C76" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -2622,8 +2630,8 @@
     <row r="77" spans="1:12" ht="15.75">
       <c r="A77" s="42"/>
       <c r="B77" s="42"/>
-      <c r="C77" s="11" t="s">
-        <v>30</v>
+      <c r="C77" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -2638,8 +2646,8 @@
     <row r="78" spans="1:12" ht="15.75">
       <c r="A78" s="42"/>
       <c r="B78" s="42"/>
-      <c r="C78" s="13" t="s">
-        <v>31</v>
+      <c r="C78" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -2654,8 +2662,8 @@
     <row r="79" spans="1:12" ht="15.75" customHeight="1">
       <c r="A79" s="42"/>
       <c r="B79" s="42"/>
-      <c r="C79" s="8" t="s">
-        <v>50</v>
+      <c r="C79" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -2670,8 +2678,8 @@
     <row r="80" spans="1:12" ht="15.75">
       <c r="A80" s="42"/>
       <c r="B80" s="42"/>
-      <c r="C80" s="8" t="s">
-        <v>51</v>
+      <c r="C80" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -2687,7 +2695,7 @@
       <c r="A81" s="42"/>
       <c r="B81" s="42"/>
       <c r="C81" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -2702,8 +2710,8 @@
     <row r="82" spans="1:12" ht="15.75">
       <c r="A82" s="42"/>
       <c r="B82" s="42"/>
-      <c r="C82" s="13" t="s">
-        <v>48</v>
+      <c r="C82" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -2718,8 +2726,8 @@
     <row r="83" spans="1:12" ht="15.75">
       <c r="A83" s="43"/>
       <c r="B83" s="43"/>
-      <c r="C83" s="13" t="s">
-        <v>49</v>
+      <c r="C83" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -2738,8 +2746,8 @@
       <c r="B84" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>40</v>
+      <c r="C84" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -2754,8 +2762,8 @@
     <row r="85" spans="1:12" ht="15.75">
       <c r="A85" s="49"/>
       <c r="B85" s="42"/>
-      <c r="C85" s="5" t="s">
-        <v>32</v>
+      <c r="C85" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -2770,8 +2778,8 @@
     <row r="86" spans="1:12" ht="15.75">
       <c r="A86" s="49"/>
       <c r="B86" s="42"/>
-      <c r="C86" s="11" t="s">
-        <v>34</v>
+      <c r="C86" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -2786,8 +2794,8 @@
     <row r="87" spans="1:12" ht="15.75">
       <c r="A87" s="49"/>
       <c r="B87" s="42"/>
-      <c r="C87" s="11" t="s">
-        <v>35</v>
+      <c r="C87" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -2802,8 +2810,8 @@
     <row r="88" spans="1:12" ht="15.75">
       <c r="A88" s="49"/>
       <c r="B88" s="42"/>
-      <c r="C88" s="5" t="s">
-        <v>33</v>
+      <c r="C88" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -2819,7 +2827,7 @@
       <c r="A89" s="49"/>
       <c r="B89" s="42"/>
       <c r="C89" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -2834,8 +2842,8 @@
     <row r="90" spans="1:12" ht="15.75">
       <c r="A90" s="49"/>
       <c r="B90" s="42"/>
-      <c r="C90" s="11" t="s">
-        <v>35</v>
+      <c r="C90" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -2850,8 +2858,8 @@
     <row r="91" spans="1:12" ht="15.75">
       <c r="A91" s="49"/>
       <c r="B91" s="42"/>
-      <c r="C91" s="4" t="s">
-        <v>59</v>
+      <c r="C91" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -2866,8 +2874,8 @@
     <row r="92" spans="1:12" ht="15.75">
       <c r="A92" s="49"/>
       <c r="B92" s="42"/>
-      <c r="C92" s="13" t="s">
-        <v>36</v>
+      <c r="C92" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -2882,8 +2890,8 @@
     <row r="93" spans="1:12" ht="15.75">
       <c r="A93" s="49"/>
       <c r="B93" s="42"/>
-      <c r="C93" s="11" t="s">
-        <v>20</v>
+      <c r="C93" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -2898,8 +2906,8 @@
     <row r="94" spans="1:12" ht="15.75" customHeight="1">
       <c r="A94" s="49"/>
       <c r="B94" s="42"/>
-      <c r="C94" s="11" t="s">
-        <v>38</v>
+      <c r="C94" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -2915,7 +2923,7 @@
       <c r="A95" s="49"/>
       <c r="B95" s="42"/>
       <c r="C95" s="11" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -2930,8 +2938,8 @@
     <row r="96" spans="1:12" ht="15.75">
       <c r="A96" s="49"/>
       <c r="B96" s="42"/>
-      <c r="C96" s="13" t="s">
-        <v>37</v>
+      <c r="C96" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -2947,7 +2955,7 @@
       <c r="A97" s="49"/>
       <c r="B97" s="42"/>
       <c r="C97" s="11" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -2962,8 +2970,8 @@
     <row r="98" spans="1:12" ht="15.75">
       <c r="A98" s="49"/>
       <c r="B98" s="42"/>
-      <c r="C98" s="11" t="s">
-        <v>38</v>
+      <c r="C98" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -2978,8 +2986,8 @@
     <row r="99" spans="1:12" ht="15.75">
       <c r="A99" s="49"/>
       <c r="B99" s="42"/>
-      <c r="C99" s="13" t="s">
-        <v>57</v>
+      <c r="C99" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -2995,7 +3003,7 @@
       <c r="A100" s="49"/>
       <c r="B100" s="42"/>
       <c r="C100" s="11" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -3010,8 +3018,8 @@
     <row r="101" spans="1:12" ht="15.75">
       <c r="A101" s="50"/>
       <c r="B101" s="43"/>
-      <c r="C101" s="11" t="s">
-        <v>38</v>
+      <c r="C101" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -3030,8 +3038,8 @@
       <c r="B102" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C102" s="13" t="s">
-        <v>41</v>
+      <c r="C102" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -3046,8 +3054,8 @@
     <row r="103" spans="1:12" ht="15.75">
       <c r="A103" s="49"/>
       <c r="B103" s="42"/>
-      <c r="C103" s="13" t="s">
-        <v>42</v>
+      <c r="C103" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -3062,8 +3070,8 @@
     <row r="104" spans="1:12" ht="15.75">
       <c r="A104" s="49"/>
       <c r="B104" s="42"/>
-      <c r="C104" s="11" t="s">
-        <v>20</v>
+      <c r="C104" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -3078,8 +3086,8 @@
     <row r="105" spans="1:12" ht="15.75">
       <c r="A105" s="49"/>
       <c r="B105" s="42"/>
-      <c r="C105" s="11" t="s">
-        <v>38</v>
+      <c r="C105" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -3095,7 +3103,7 @@
       <c r="A106" s="49"/>
       <c r="B106" s="42"/>
       <c r="C106" s="11" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -3110,8 +3118,8 @@
     <row r="107" spans="1:12" ht="15.75">
       <c r="A107" s="50"/>
       <c r="B107" s="43"/>
-      <c r="C107" s="13" t="s">
-        <v>43</v>
+      <c r="C107" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -3126,7 +3134,9 @@
     <row r="108" spans="1:12">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
-      <c r="C108" s="1"/>
+      <c r="C108" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
@@ -3141,7 +3151,9 @@
         <v>62</v>
       </c>
       <c r="B109" s="3"/>
-      <c r="C109" s="1"/>
+      <c r="C109" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
@@ -3158,9 +3170,7 @@
       <c r="B110" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C110" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="C110" s="1"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
@@ -3177,9 +3187,7 @@
       <c r="B111" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C111" s="4">
-        <v>1</v>
-      </c>
+      <c r="C111" s="1"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
@@ -3196,8 +3204,8 @@
       <c r="B112" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C112" s="21">
-        <v>2</v>
+      <c r="C112" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -3215,8 +3223,8 @@
       <c r="B113" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C113" s="21">
-        <v>3</v>
+      <c r="C113" s="4">
+        <v>1</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -3235,7 +3243,7 @@
         <v>69</v>
       </c>
       <c r="C114" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -3254,7 +3262,7 @@
         <v>68</v>
       </c>
       <c r="C115" s="21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -3264,6 +3272,16 @@
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
       <c r="L115" s="36"/>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="C116" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="C117" s="21">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3281,7 +3299,7 @@
     <mergeCell ref="A102:A107"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L30 G42 E37:E115 F43:G115 D2:D115 F2:G41 E2:E32 E34:E35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L30 G42 F43:G115 D2:D115 F2:G41 E2:E32 E34:E115">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>

--- a/wiki/report/Tasksheet.xlsx
+++ b/wiki/report/Tasksheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="126">
   <si>
     <t>No.</t>
   </si>
@@ -597,7 +597,7 @@
       <charset val="163"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,6 +625,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,7 +731,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -788,17 +794,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="9"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -823,6 +823,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -853,8 +856,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="9"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1161,8 +1176,8 @@
   <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F45:F51"/>
+      <pane ySplit="12" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1173,9 +1188,10 @@
     <col min="5" max="5" width="6.28515625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" customWidth="1"/>
-    <col min="8" max="8" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1201,7 +1217,7 @@
       <c r="G1" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="36" t="s">
         <v>61</v>
       </c>
       <c r="I1" s="26" t="s">
@@ -1218,10 +1234,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" hidden="1">
-      <c r="A2" s="43">
+      <c r="A2" s="42">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -1233,15 +1249,15 @@
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="39"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
-      <c r="L2" s="32"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" hidden="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="4" t="s">
         <v>45</v>
       </c>
@@ -1251,15 +1267,15 @@
         <v>8</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="40"/>
+      <c r="H3" s="38"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="32"/>
+      <c r="L3" s="30"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" hidden="1">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="4" t="s">
         <v>46</v>
       </c>
@@ -1269,15 +1285,15 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="40"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
-      <c r="L4" s="32"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" hidden="1">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="4" t="s">
         <v>47</v>
       </c>
@@ -1287,17 +1303,17 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="40"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" hidden="1">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1305,15 +1321,15 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="40"/>
+      <c r="H6" s="38"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
-      <c r="L6" s="32"/>
+      <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" hidden="1">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1321,17 +1337,17 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="40"/>
+      <c r="H7" s="38"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
-      <c r="L7" s="32"/>
+      <c r="L7" s="30"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" hidden="1">
-      <c r="A8" s="44">
+      <c r="A8" s="43">
         <v>2</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1341,15 +1357,15 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="40"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
-      <c r="L8" s="32"/>
+      <c r="L8" s="30"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" hidden="1">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1357,15 +1373,15 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="40"/>
+      <c r="H9" s="38"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
-      <c r="L9" s="32"/>
+      <c r="L9" s="30"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" hidden="1">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
@@ -1373,15 +1389,15 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="40"/>
+      <c r="H10" s="38"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
-      <c r="L10" s="32"/>
+      <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" hidden="1">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1389,15 +1405,15 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="40"/>
+      <c r="H11" s="38"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
-      <c r="L11" s="32"/>
+      <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" hidden="1">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1405,17 +1421,17 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="40"/>
+      <c r="H12" s="38"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
-      <c r="L12" s="32"/>
+      <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A13" s="41">
+      <c r="A13" s="40">
         <v>3</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="24" t="s">
@@ -1425,15 +1441,15 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="40"/>
+      <c r="H13" s="38"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
-      <c r="L13" s="33"/>
+      <c r="L13" s="31"/>
     </row>
     <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="42"/>
-      <c r="B14" s="46"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="22" t="s">
         <v>70</v>
       </c>
@@ -1443,17 +1459,17 @@
       <c r="G14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="40"/>
+      <c r="H14" s="38"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="33"/>
+      <c r="L14" s="31"/>
     </row>
     <row r="15" spans="1:12" ht="15.75">
-      <c r="A15" s="42"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="22" t="s">
         <v>71</v>
       </c>
@@ -1463,17 +1479,17 @@
         <v>8</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="40"/>
+      <c r="H15" s="38"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="L15" s="33"/>
+      <c r="L15" s="31"/>
     </row>
     <row r="16" spans="1:12" ht="15.75">
-      <c r="A16" s="42"/>
-      <c r="B16" s="46"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="22" t="s">
         <v>72</v>
       </c>
@@ -1483,17 +1499,17 @@
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="40"/>
+      <c r="H16" s="38"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="L16" s="33"/>
+      <c r="L16" s="31"/>
     </row>
     <row r="17" spans="1:12" ht="15.75">
-      <c r="A17" s="42"/>
-      <c r="B17" s="46"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="23" t="s">
         <v>73</v>
       </c>
@@ -1503,17 +1519,17 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="40"/>
+      <c r="H17" s="38"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="L17" s="33"/>
+      <c r="L17" s="31"/>
     </row>
     <row r="18" spans="1:12" ht="15.75">
-      <c r="A18" s="42"/>
-      <c r="B18" s="46"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
@@ -1521,15 +1537,15 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="40"/>
+      <c r="H18" s="38"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
-      <c r="L18" s="33"/>
+      <c r="L18" s="31"/>
     </row>
     <row r="19" spans="1:12" ht="15.75">
-      <c r="A19" s="42"/>
-      <c r="B19" s="46"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="6" t="s">
         <v>18</v>
       </c>
@@ -1539,15 +1555,15 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="40"/>
+      <c r="H19" s="38"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
-      <c r="L19" s="33"/>
+      <c r="L19" s="31"/>
     </row>
     <row r="20" spans="1:12" ht="15.75">
-      <c r="A20" s="42"/>
-      <c r="B20" s="46"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="6" t="s">
         <v>74</v>
       </c>
@@ -1557,17 +1573,17 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="40"/>
+      <c r="H20" s="38"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="33"/>
+      <c r="L20" s="31"/>
     </row>
     <row r="21" spans="1:12" ht="15.75">
-      <c r="A21" s="42"/>
-      <c r="B21" s="46"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="7" t="s">
         <v>19</v>
       </c>
@@ -1575,824 +1591,906 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="40"/>
+      <c r="H21" s="38"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
-      <c r="L21" s="33"/>
+      <c r="L21" s="31"/>
     </row>
     <row r="22" spans="1:12" ht="15.75">
-      <c r="A22" s="42"/>
-      <c r="B22" s="46"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="40"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="38"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
+      <c r="J22" s="50">
+        <v>41680</v>
+      </c>
       <c r="K22" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L22" s="33"/>
+      <c r="L22" s="31"/>
     </row>
     <row r="23" spans="1:12" ht="15.75">
-      <c r="A23" s="42"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="28" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="40">
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53">
         <v>2</v>
       </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="33"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="55">
+        <v>41680</v>
+      </c>
+      <c r="K23" s="54"/>
+      <c r="L23" s="52"/>
     </row>
     <row r="24" spans="1:12" ht="15.75">
-      <c r="A24" s="42"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="29" t="s">
+      <c r="A24" s="41"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="40"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="38"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
+      <c r="J24" s="50">
+        <v>41680</v>
+      </c>
       <c r="K24" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L24" s="33"/>
+      <c r="L24" s="31"/>
     </row>
     <row r="25" spans="1:12" ht="15.75">
-      <c r="A25" s="42"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="29" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="40"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="38"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+      <c r="J25" s="50">
+        <v>41680</v>
+      </c>
       <c r="K25" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L25" s="33"/>
+      <c r="L25" s="31"/>
     </row>
     <row r="26" spans="1:12" ht="15.75">
-      <c r="A26" s="42"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="28" t="s">
+      <c r="A26" s="41"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="40">
-        <v>9</v>
-      </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="33"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53">
+        <v>10</v>
+      </c>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55">
+        <v>41680</v>
+      </c>
+      <c r="K26" s="54"/>
+      <c r="L26" s="52"/>
     </row>
     <row r="27" spans="1:12" ht="15.75">
-      <c r="A27" s="42"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="29" t="s">
+      <c r="A27" s="41"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="40"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="38"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
+      <c r="J27" s="50">
+        <v>41680</v>
+      </c>
       <c r="K27" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L27" s="33"/>
+      <c r="L27" s="31"/>
     </row>
     <row r="28" spans="1:12" ht="15.75">
-      <c r="A28" s="42"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="29" t="s">
+      <c r="A28" s="41"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="40"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="38"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
+      <c r="J28" s="50">
+        <v>41680</v>
+      </c>
       <c r="K28" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L28" s="33"/>
+      <c r="L28" s="31"/>
     </row>
     <row r="29" spans="1:12" ht="15.75">
-      <c r="A29" s="42"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="29" t="s">
+      <c r="A29" s="41"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="40"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="38"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
+      <c r="J29" s="50">
+        <v>41680</v>
+      </c>
       <c r="K29" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L29" s="33"/>
+      <c r="L29" s="31"/>
     </row>
     <row r="30" spans="1:12" ht="15.75">
-      <c r="A30" s="42"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="29" t="s">
+      <c r="A30" s="41"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="40"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="38"/>
       <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
+      <c r="J30" s="50">
+        <v>41680</v>
+      </c>
       <c r="K30" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L30" s="33"/>
+      <c r="L30" s="31"/>
     </row>
     <row r="31" spans="1:12" ht="15.75">
-      <c r="A31" s="42"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="30" t="s">
+      <c r="A31" s="41"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="40"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="38"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
+      <c r="J31" s="50">
+        <v>41680</v>
+      </c>
       <c r="K31" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L31" s="34"/>
+      <c r="L31" s="32"/>
     </row>
     <row r="32" spans="1:12" ht="15.75">
-      <c r="A32" s="42"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="30" t="s">
+      <c r="A32" s="41"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="40"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="38"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
+      <c r="J32" s="50">
+        <v>41680</v>
+      </c>
       <c r="K32" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L32" s="34"/>
+      <c r="L32" s="32"/>
     </row>
     <row r="33" spans="1:12" ht="15.75">
-      <c r="A33" s="42"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="30" t="s">
+      <c r="A33" s="41"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="40"/>
+      <c r="D33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="38"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
+      <c r="J33" s="50">
+        <v>41680</v>
+      </c>
       <c r="K33" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L33" s="34"/>
+      <c r="L33" s="32"/>
     </row>
     <row r="34" spans="1:12" ht="15.75">
-      <c r="A34" s="42"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="30" t="s">
+      <c r="A34" s="41"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="40"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="38"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
+      <c r="J34" s="50">
+        <v>41680</v>
+      </c>
       <c r="K34" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L34" s="34"/>
+      <c r="L34" s="32"/>
     </row>
     <row r="35" spans="1:12" ht="15.75">
-      <c r="A35" s="42"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="30" t="s">
+      <c r="A35" s="41"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="40"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="38"/>
       <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
+      <c r="J35" s="50">
+        <v>41680</v>
+      </c>
       <c r="K35" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L35" s="34"/>
+      <c r="L35" s="32"/>
     </row>
     <row r="36" spans="1:12" ht="15.75">
-      <c r="A36" s="42"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="30" t="s">
+      <c r="A36" s="41"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="40">
-        <v>5</v>
-      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="38"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="34"/>
+      <c r="J36" s="50">
+        <v>41680</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L36" s="32"/>
     </row>
     <row r="37" spans="1:12" ht="15.75">
-      <c r="A37" s="42"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="31" t="s">
+      <c r="A37" s="41"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="L37" s="34"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="53">
+        <v>6</v>
+      </c>
+      <c r="I37" s="54"/>
+      <c r="J37" s="55">
+        <v>41680</v>
+      </c>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
     </row>
     <row r="38" spans="1:12" ht="15.75">
-      <c r="A38" s="42"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="30" t="s">
+      <c r="A38" s="41"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="40"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="38"/>
       <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
+      <c r="J38" s="50">
+        <v>41680</v>
+      </c>
       <c r="K38" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L38" s="34"/>
+      <c r="L38" s="32"/>
     </row>
     <row r="39" spans="1:12" ht="15.75">
-      <c r="A39" s="42"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="30" t="s">
+      <c r="A39" s="41"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="40"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="38"/>
       <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
+      <c r="J39" s="50">
+        <v>41680</v>
+      </c>
       <c r="K39" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L39" s="34"/>
+      <c r="L39" s="32"/>
     </row>
     <row r="40" spans="1:12" ht="15.75">
-      <c r="A40" s="42"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="30" t="s">
+      <c r="A40" s="41"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="40"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="38"/>
       <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
+      <c r="J40" s="50">
+        <v>41680</v>
+      </c>
       <c r="K40" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L40" s="34"/>
+      <c r="L40" s="32"/>
     </row>
     <row r="41" spans="1:12" ht="15.75">
-      <c r="A41" s="42"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="30" t="s">
+      <c r="A41" s="41"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="40"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="38"/>
       <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
+      <c r="J41" s="50">
+        <v>41680</v>
+      </c>
       <c r="K41" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L41" s="34"/>
+      <c r="L41" s="32"/>
     </row>
     <row r="42" spans="1:12" ht="15.75">
-      <c r="A42" s="42"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="30" t="s">
+      <c r="A42" s="41"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="32"/>
-      <c r="H42" s="40">
+      <c r="D42" s="30"/>
+      <c r="E42" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="30"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="50">
+        <v>41680</v>
+      </c>
+      <c r="K42" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L42" s="32"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75">
+      <c r="A43" s="41"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="35"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="50">
+        <v>41680</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L43" s="32"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75">
+      <c r="A44" s="41"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="53">
         <v>21</v>
       </c>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="34"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.75">
-      <c r="A43" s="42"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="51" t="s">
+      <c r="I44" s="54"/>
+      <c r="J44" s="55">
+        <v>41680</v>
+      </c>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75">
+      <c r="A45" s="41"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="30"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="50">
+        <v>41680</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L45" s="32"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75">
+      <c r="A46" s="41"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="30"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="50">
+        <v>41680</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L46" s="32"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75">
+      <c r="A47" s="41"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="30"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="50">
+        <v>41680</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L47" s="32"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75">
+      <c r="A48" s="41"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="30"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="50">
+        <v>41680</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L48" s="32"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75">
+      <c r="A49" s="41"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="30"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="50">
+        <v>41680</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L49" s="32"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.75">
+      <c r="A50" s="41"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="30"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="50">
+        <v>41680</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L50" s="32"/>
+    </row>
+    <row r="51" spans="1:12" ht="15.75">
+      <c r="A51" s="41"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="L43" s="34"/>
-    </row>
-    <row r="44" spans="1:12" ht="15.75">
-      <c r="A44" s="42"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="L44" s="34"/>
-    </row>
-    <row r="45" spans="1:12" ht="15.75">
-      <c r="A45" s="42"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="32"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="L45" s="34"/>
-    </row>
-    <row r="46" spans="1:12" ht="15.75">
-      <c r="A46" s="42"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="32"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="L46" s="34"/>
-    </row>
-    <row r="47" spans="1:12" ht="15.75">
-      <c r="A47" s="42"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="32"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="L47" s="34"/>
-    </row>
-    <row r="48" spans="1:12" ht="15.75">
-      <c r="A48" s="42"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="32"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="L48" s="34"/>
-    </row>
-    <row r="49" spans="1:12" ht="15.75">
-      <c r="A49" s="42"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="32"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="L49" s="34"/>
-    </row>
-    <row r="50" spans="1:12" ht="15.75">
-      <c r="A50" s="42"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="32"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="L50" s="34"/>
-    </row>
-    <row r="51" spans="1:12" ht="15.75">
-      <c r="A51" s="42"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="32"/>
-      <c r="H51" s="40"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="30"/>
+      <c r="H51" s="38"/>
       <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
+      <c r="J51" s="50">
+        <v>41680</v>
+      </c>
       <c r="K51" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L51" s="34"/>
+      <c r="L51" s="32"/>
     </row>
     <row r="52" spans="1:12" ht="15.75">
-      <c r="A52" s="42"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="30" t="s">
+      <c r="A52" s="41"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="40"/>
+      <c r="D52" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="38"/>
       <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
+      <c r="J52" s="50">
+        <v>41680</v>
+      </c>
       <c r="K52" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L52" s="34"/>
+      <c r="L52" s="32"/>
     </row>
     <row r="53" spans="1:12" ht="15.75">
-      <c r="A53" s="42"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="30" t="s">
+      <c r="A53" s="41"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="40"/>
+      <c r="D53" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="38"/>
       <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
+      <c r="J53" s="50">
+        <v>41680</v>
+      </c>
       <c r="K53" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L53" s="34"/>
+      <c r="L53" s="32"/>
     </row>
     <row r="54" spans="1:12" ht="15.75">
-      <c r="A54" s="42"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="30" t="s">
+      <c r="A54" s="41"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="D54" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="40"/>
+      <c r="D54" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="38"/>
       <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
+      <c r="J54" s="50">
+        <v>41680</v>
+      </c>
       <c r="K54" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L54" s="34"/>
+      <c r="L54" s="32"/>
     </row>
     <row r="55" spans="1:12" ht="15.75">
-      <c r="A55" s="42"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="30" t="s">
+      <c r="A55" s="41"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="40"/>
+      <c r="D55" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="38"/>
       <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
+      <c r="J55" s="50">
+        <v>41680</v>
+      </c>
       <c r="K55" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L55" s="34"/>
+      <c r="L55" s="32"/>
     </row>
     <row r="56" spans="1:12" ht="15.75">
-      <c r="A56" s="42"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="30" t="s">
+      <c r="A56" s="41"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="40"/>
+      <c r="D56" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="38"/>
       <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
+      <c r="J56" s="50">
+        <v>41680</v>
+      </c>
       <c r="K56" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L56" s="34"/>
+      <c r="L56" s="32"/>
     </row>
     <row r="57" spans="1:12" ht="15.75">
-      <c r="A57" s="42"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="30" t="s">
+      <c r="A57" s="41"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="D57" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="40"/>
+      <c r="D57" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="38"/>
       <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
+      <c r="J57" s="50">
+        <v>41680</v>
+      </c>
       <c r="K57" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L57" s="34"/>
+      <c r="L57" s="32"/>
     </row>
     <row r="58" spans="1:12" ht="15.75">
-      <c r="A58" s="42"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="30" t="s">
+      <c r="A58" s="41"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="D58" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="40"/>
+      <c r="D58" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="38"/>
       <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
+      <c r="J58" s="50">
+        <v>41680</v>
+      </c>
       <c r="K58" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L58" s="34"/>
+      <c r="L58" s="32"/>
     </row>
     <row r="59" spans="1:12" ht="15.75">
-      <c r="A59" s="42"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="30" t="s">
+      <c r="A59" s="41"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="D59" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="40"/>
+      <c r="D59" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="38"/>
       <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
+      <c r="J59" s="50">
+        <v>41680</v>
+      </c>
       <c r="K59" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L59" s="34"/>
+      <c r="L59" s="32"/>
     </row>
     <row r="60" spans="1:12" ht="15.75">
-      <c r="A60" s="42"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="30" t="s">
+      <c r="A60" s="41"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="D60" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="40"/>
+      <c r="D60" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="38"/>
       <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
+      <c r="J60" s="50">
+        <v>41680</v>
+      </c>
       <c r="K60" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L60" s="34"/>
+      <c r="L60" s="32"/>
     </row>
     <row r="61" spans="1:12" ht="15.75">
-      <c r="A61" s="42"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="30" t="s">
+      <c r="A61" s="41"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="D61" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="40"/>
+      <c r="D61" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="38"/>
       <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
+      <c r="J61" s="50">
+        <v>41680</v>
+      </c>
       <c r="K61" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L61" s="34"/>
+      <c r="L61" s="32"/>
     </row>
     <row r="62" spans="1:12" ht="15.75">
-      <c r="A62" s="42"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="30" t="s">
+      <c r="A62" s="41"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="D62" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="40"/>
+      <c r="D62" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="38"/>
       <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
+      <c r="J62" s="50">
+        <v>41680</v>
+      </c>
       <c r="K62" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L62" s="34"/>
+      <c r="L62" s="32"/>
     </row>
     <row r="63" spans="1:12" ht="15.75">
-      <c r="A63" s="42"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="30" t="s">
+      <c r="A63" s="41"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="29" t="s">
         <v>121</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -2401,18 +2499,20 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="40"/>
+      <c r="H63" s="38"/>
       <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
+      <c r="J63" s="50">
+        <v>41680</v>
+      </c>
       <c r="K63" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L63" s="34"/>
+      <c r="L63" s="32"/>
     </row>
     <row r="64" spans="1:12" ht="15.75">
-      <c r="A64" s="42"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="30" t="s">
+      <c r="A64" s="41"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="29" t="s">
         <v>122</v>
       </c>
       <c r="D64" s="2"/>
@@ -2421,18 +2521,20 @@
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="40"/>
+      <c r="H64" s="38"/>
       <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
+      <c r="J64" s="50">
+        <v>41680</v>
+      </c>
       <c r="K64" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="L64" s="34"/>
+      <c r="L64" s="32"/>
     </row>
     <row r="65" spans="1:12" ht="15.75">
-      <c r="A65" s="42"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="30" t="s">
+      <c r="A65" s="41"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="29" t="s">
         <v>123</v>
       </c>
       <c r="D65" s="2"/>
@@ -2441,15 +2543,19 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="40"/>
+      <c r="H65" s="38"/>
       <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="34"/>
+      <c r="J65" s="50">
+        <v>41680</v>
+      </c>
+      <c r="K65" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L65" s="32"/>
     </row>
     <row r="66" spans="1:12" ht="15.75">
-      <c r="A66" s="42"/>
-      <c r="B66" s="46"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="45"/>
       <c r="C66" s="7" t="s">
         <v>21</v>
       </c>
@@ -2457,15 +2563,15 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="40"/>
+      <c r="H66" s="38"/>
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
-      <c r="L66" s="34"/>
+      <c r="L66" s="32"/>
     </row>
     <row r="67" spans="1:12" ht="15.75">
-      <c r="A67" s="42"/>
-      <c r="B67" s="46"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="45"/>
       <c r="C67" s="8" t="s">
         <v>22</v>
       </c>
@@ -2473,15 +2579,15 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="40"/>
+      <c r="H67" s="38"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
-      <c r="L67" s="34"/>
+      <c r="L67" s="32"/>
     </row>
     <row r="68" spans="1:12" ht="15.75">
-      <c r="A68" s="43"/>
-      <c r="B68" s="47"/>
+      <c r="A68" s="42"/>
+      <c r="B68" s="46"/>
       <c r="C68" s="8" t="s">
         <v>23</v>
       </c>
@@ -2489,17 +2595,17 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="40"/>
+      <c r="H68" s="38"/>
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
-      <c r="L68" s="34"/>
+      <c r="L68" s="32"/>
     </row>
     <row r="69" spans="1:12" ht="15.75">
-      <c r="A69" s="41">
+      <c r="A69" s="40">
         <v>4</v>
       </c>
-      <c r="B69" s="41" t="s">
+      <c r="B69" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="8" t="s">
@@ -2509,15 +2615,15 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="40"/>
+      <c r="H69" s="38"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
       <c r="K69" s="14"/>
-      <c r="L69" s="34"/>
+      <c r="L69" s="32"/>
     </row>
     <row r="70" spans="1:12" ht="15.75">
-      <c r="A70" s="42"/>
-      <c r="B70" s="42"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="41"/>
       <c r="C70" s="9" t="s">
         <v>25</v>
       </c>
@@ -2525,15 +2631,15 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="40"/>
+      <c r="H70" s="38"/>
       <c r="I70" s="14"/>
       <c r="J70" s="14"/>
       <c r="K70" s="14"/>
-      <c r="L70" s="34"/>
+      <c r="L70" s="32"/>
     </row>
     <row r="71" spans="1:12" ht="15.75">
-      <c r="A71" s="42"/>
-      <c r="B71" s="42"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="41"/>
       <c r="C71" s="4" t="s">
         <v>26</v>
       </c>
@@ -2541,15 +2647,15 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="40"/>
+      <c r="H71" s="38"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
-      <c r="L71" s="34"/>
+      <c r="L71" s="32"/>
     </row>
     <row r="72" spans="1:12" ht="15.75">
-      <c r="A72" s="42"/>
-      <c r="B72" s="42"/>
+      <c r="A72" s="41"/>
+      <c r="B72" s="41"/>
       <c r="C72" s="4" t="s">
         <v>53</v>
       </c>
@@ -2557,15 +2663,15 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="40"/>
+      <c r="H72" s="38"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14"/>
       <c r="K72" s="14"/>
-      <c r="L72" s="34"/>
+      <c r="L72" s="32"/>
     </row>
     <row r="73" spans="1:12" ht="15.75">
-      <c r="A73" s="42"/>
-      <c r="B73" s="42"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="41"/>
       <c r="C73" s="10" t="s">
         <v>54</v>
       </c>
@@ -2573,15 +2679,15 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="40"/>
+      <c r="H73" s="38"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14"/>
       <c r="K73" s="14"/>
-      <c r="L73" s="34"/>
+      <c r="L73" s="32"/>
     </row>
     <row r="74" spans="1:12" ht="15.75">
-      <c r="A74" s="42"/>
-      <c r="B74" s="42"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="41"/>
       <c r="C74" s="11" t="s">
         <v>55</v>
       </c>
@@ -2589,15 +2695,15 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="40"/>
+      <c r="H74" s="38"/>
       <c r="I74" s="14"/>
       <c r="J74" s="14"/>
       <c r="K74" s="14"/>
-      <c r="L74" s="34"/>
+      <c r="L74" s="32"/>
     </row>
     <row r="75" spans="1:12" ht="15.75">
-      <c r="A75" s="42"/>
-      <c r="B75" s="42"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="41"/>
       <c r="C75" s="11" t="s">
         <v>56</v>
       </c>
@@ -2605,15 +2711,15 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="40"/>
+      <c r="H75" s="38"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14"/>
       <c r="K75" s="14"/>
-      <c r="L75" s="34"/>
+      <c r="L75" s="32"/>
     </row>
     <row r="76" spans="1:12" ht="15.75">
-      <c r="A76" s="42"/>
-      <c r="B76" s="42"/>
+      <c r="A76" s="41"/>
+      <c r="B76" s="41"/>
       <c r="C76" s="12" t="s">
         <v>27</v>
       </c>
@@ -2621,15 +2727,15 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="40"/>
+      <c r="H76" s="38"/>
       <c r="I76" s="14"/>
       <c r="J76" s="14"/>
       <c r="K76" s="14"/>
-      <c r="L76" s="34"/>
+      <c r="L76" s="32"/>
     </row>
     <row r="77" spans="1:12" ht="15.75">
-      <c r="A77" s="42"/>
-      <c r="B77" s="42"/>
+      <c r="A77" s="41"/>
+      <c r="B77" s="41"/>
       <c r="C77" s="10" t="s">
         <v>28</v>
       </c>
@@ -2637,15 +2743,15 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="40"/>
+      <c r="H77" s="38"/>
       <c r="I77" s="14"/>
       <c r="J77" s="14"/>
       <c r="K77" s="14"/>
-      <c r="L77" s="34"/>
+      <c r="L77" s="32"/>
     </row>
     <row r="78" spans="1:12" ht="15.75">
-      <c r="A78" s="42"/>
-      <c r="B78" s="42"/>
+      <c r="A78" s="41"/>
+      <c r="B78" s="41"/>
       <c r="C78" s="11" t="s">
         <v>29</v>
       </c>
@@ -2653,15 +2759,15 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="40"/>
+      <c r="H78" s="38"/>
       <c r="I78" s="14"/>
       <c r="J78" s="14"/>
       <c r="K78" s="14"/>
-      <c r="L78" s="34"/>
+      <c r="L78" s="32"/>
     </row>
     <row r="79" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A79" s="42"/>
-      <c r="B79" s="42"/>
+      <c r="A79" s="41"/>
+      <c r="B79" s="41"/>
       <c r="C79" s="11" t="s">
         <v>30</v>
       </c>
@@ -2669,15 +2775,15 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="40"/>
+      <c r="H79" s="38"/>
       <c r="I79" s="14"/>
       <c r="J79" s="14"/>
       <c r="K79" s="14"/>
-      <c r="L79" s="34"/>
+      <c r="L79" s="32"/>
     </row>
     <row r="80" spans="1:12" ht="15.75">
-      <c r="A80" s="42"/>
-      <c r="B80" s="42"/>
+      <c r="A80" s="41"/>
+      <c r="B80" s="41"/>
       <c r="C80" s="13" t="s">
         <v>31</v>
       </c>
@@ -2685,15 +2791,15 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="40"/>
+      <c r="H80" s="38"/>
       <c r="I80" s="14"/>
       <c r="J80" s="14"/>
       <c r="K80" s="14"/>
-      <c r="L80" s="34"/>
+      <c r="L80" s="32"/>
     </row>
     <row r="81" spans="1:12" ht="15.75">
-      <c r="A81" s="42"/>
-      <c r="B81" s="42"/>
+      <c r="A81" s="41"/>
+      <c r="B81" s="41"/>
       <c r="C81" s="8" t="s">
         <v>50</v>
       </c>
@@ -2701,15 +2807,15 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="40"/>
+      <c r="H81" s="38"/>
       <c r="I81" s="14"/>
       <c r="J81" s="14"/>
       <c r="K81" s="14"/>
-      <c r="L81" s="34"/>
+      <c r="L81" s="32"/>
     </row>
     <row r="82" spans="1:12" ht="15.75">
-      <c r="A82" s="42"/>
-      <c r="B82" s="42"/>
+      <c r="A82" s="41"/>
+      <c r="B82" s="41"/>
       <c r="C82" s="8" t="s">
         <v>51</v>
       </c>
@@ -2717,15 +2823,15 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="40"/>
+      <c r="H82" s="38"/>
       <c r="I82" s="14"/>
       <c r="J82" s="14"/>
       <c r="K82" s="14"/>
-      <c r="L82" s="34"/>
+      <c r="L82" s="32"/>
     </row>
     <row r="83" spans="1:12" ht="15.75">
-      <c r="A83" s="43"/>
-      <c r="B83" s="43"/>
+      <c r="A83" s="42"/>
+      <c r="B83" s="42"/>
       <c r="C83" s="8" t="s">
         <v>52</v>
       </c>
@@ -2733,17 +2839,17 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="40"/>
+      <c r="H83" s="38"/>
       <c r="I83" s="14"/>
       <c r="J83" s="14"/>
       <c r="K83" s="14"/>
-      <c r="L83" s="34"/>
+      <c r="L83" s="32"/>
     </row>
     <row r="84" spans="1:12" ht="15.75">
-      <c r="A84" s="48">
+      <c r="A84" s="47">
         <v>5</v>
       </c>
-      <c r="B84" s="41" t="s">
+      <c r="B84" s="40" t="s">
         <v>58</v>
       </c>
       <c r="C84" s="13" t="s">
@@ -2753,15 +2859,15 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="40"/>
+      <c r="H84" s="38"/>
       <c r="I84" s="14"/>
       <c r="J84" s="14"/>
       <c r="K84" s="14"/>
-      <c r="L84" s="34"/>
+      <c r="L84" s="32"/>
     </row>
     <row r="85" spans="1:12" ht="15.75">
-      <c r="A85" s="49"/>
-      <c r="B85" s="42"/>
+      <c r="A85" s="48"/>
+      <c r="B85" s="41"/>
       <c r="C85" s="13" t="s">
         <v>49</v>
       </c>
@@ -2769,15 +2875,15 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="40"/>
+      <c r="H85" s="38"/>
       <c r="I85" s="14"/>
       <c r="J85" s="14"/>
       <c r="K85" s="14"/>
-      <c r="L85" s="34"/>
+      <c r="L85" s="32"/>
     </row>
     <row r="86" spans="1:12" ht="15.75">
-      <c r="A86" s="49"/>
-      <c r="B86" s="42"/>
+      <c r="A86" s="48"/>
+      <c r="B86" s="41"/>
       <c r="C86" s="5" t="s">
         <v>40</v>
       </c>
@@ -2785,15 +2891,15 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-      <c r="H86" s="40"/>
+      <c r="H86" s="38"/>
       <c r="I86" s="14"/>
       <c r="J86" s="14"/>
       <c r="K86" s="14"/>
-      <c r="L86" s="34"/>
+      <c r="L86" s="32"/>
     </row>
     <row r="87" spans="1:12" ht="15.75">
-      <c r="A87" s="49"/>
-      <c r="B87" s="42"/>
+      <c r="A87" s="48"/>
+      <c r="B87" s="41"/>
       <c r="C87" s="5" t="s">
         <v>32</v>
       </c>
@@ -2801,15 +2907,15 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="40"/>
+      <c r="H87" s="38"/>
       <c r="I87" s="14"/>
       <c r="J87" s="14"/>
       <c r="K87" s="14"/>
-      <c r="L87" s="34"/>
+      <c r="L87" s="32"/>
     </row>
     <row r="88" spans="1:12" ht="15.75">
-      <c r="A88" s="49"/>
-      <c r="B88" s="42"/>
+      <c r="A88" s="48"/>
+      <c r="B88" s="41"/>
       <c r="C88" s="11" t="s">
         <v>34</v>
       </c>
@@ -2817,15 +2923,15 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="40"/>
+      <c r="H88" s="38"/>
       <c r="I88" s="14"/>
       <c r="J88" s="14"/>
       <c r="K88" s="14"/>
-      <c r="L88" s="34"/>
+      <c r="L88" s="32"/>
     </row>
     <row r="89" spans="1:12" ht="15.75">
-      <c r="A89" s="49"/>
-      <c r="B89" s="42"/>
+      <c r="A89" s="48"/>
+      <c r="B89" s="41"/>
       <c r="C89" s="11" t="s">
         <v>35</v>
       </c>
@@ -2833,15 +2939,15 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-      <c r="H89" s="40"/>
+      <c r="H89" s="38"/>
       <c r="I89" s="14"/>
       <c r="J89" s="14"/>
       <c r="K89" s="14"/>
-      <c r="L89" s="34"/>
+      <c r="L89" s="32"/>
     </row>
     <row r="90" spans="1:12" ht="15.75">
-      <c r="A90" s="49"/>
-      <c r="B90" s="42"/>
+      <c r="A90" s="48"/>
+      <c r="B90" s="41"/>
       <c r="C90" s="5" t="s">
         <v>33</v>
       </c>
@@ -2849,15 +2955,15 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="40"/>
+      <c r="H90" s="38"/>
       <c r="I90" s="14"/>
       <c r="J90" s="14"/>
       <c r="K90" s="14"/>
-      <c r="L90" s="34"/>
+      <c r="L90" s="32"/>
     </row>
     <row r="91" spans="1:12" ht="15.75">
-      <c r="A91" s="49"/>
-      <c r="B91" s="42"/>
+      <c r="A91" s="48"/>
+      <c r="B91" s="41"/>
       <c r="C91" s="11" t="s">
         <v>34</v>
       </c>
@@ -2865,15 +2971,15 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="40"/>
+      <c r="H91" s="38"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14"/>
       <c r="K91" s="14"/>
-      <c r="L91" s="34"/>
+      <c r="L91" s="32"/>
     </row>
     <row r="92" spans="1:12" ht="15.75">
-      <c r="A92" s="49"/>
-      <c r="B92" s="42"/>
+      <c r="A92" s="48"/>
+      <c r="B92" s="41"/>
       <c r="C92" s="11" t="s">
         <v>35</v>
       </c>
@@ -2881,15 +2987,15 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-      <c r="H92" s="40"/>
+      <c r="H92" s="38"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14"/>
       <c r="K92" s="14"/>
-      <c r="L92" s="34"/>
+      <c r="L92" s="32"/>
     </row>
     <row r="93" spans="1:12" ht="15.75">
-      <c r="A93" s="49"/>
-      <c r="B93" s="42"/>
+      <c r="A93" s="48"/>
+      <c r="B93" s="41"/>
       <c r="C93" s="4" t="s">
         <v>59</v>
       </c>
@@ -2897,15 +3003,15 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-      <c r="H93" s="40"/>
+      <c r="H93" s="38"/>
       <c r="I93" s="14"/>
       <c r="J93" s="14"/>
       <c r="K93" s="14"/>
-      <c r="L93" s="34"/>
+      <c r="L93" s="32"/>
     </row>
     <row r="94" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A94" s="49"/>
-      <c r="B94" s="42"/>
+      <c r="A94" s="48"/>
+      <c r="B94" s="41"/>
       <c r="C94" s="13" t="s">
         <v>36</v>
       </c>
@@ -2913,15 +3019,15 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-      <c r="H94" s="40"/>
+      <c r="H94" s="38"/>
       <c r="I94" s="14"/>
       <c r="J94" s="14"/>
       <c r="K94" s="14"/>
-      <c r="L94" s="34"/>
+      <c r="L94" s="32"/>
     </row>
     <row r="95" spans="1:12" ht="15.75">
-      <c r="A95" s="49"/>
-      <c r="B95" s="42"/>
+      <c r="A95" s="48"/>
+      <c r="B95" s="41"/>
       <c r="C95" s="11" t="s">
         <v>20</v>
       </c>
@@ -2929,15 +3035,15 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
-      <c r="H95" s="40"/>
+      <c r="H95" s="38"/>
       <c r="I95" s="14"/>
       <c r="J95" s="14"/>
       <c r="K95" s="14"/>
-      <c r="L95" s="34"/>
+      <c r="L95" s="32"/>
     </row>
     <row r="96" spans="1:12" ht="15.75">
-      <c r="A96" s="49"/>
-      <c r="B96" s="42"/>
+      <c r="A96" s="48"/>
+      <c r="B96" s="41"/>
       <c r="C96" s="11" t="s">
         <v>38</v>
       </c>
@@ -2945,15 +3051,15 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
-      <c r="H96" s="40"/>
+      <c r="H96" s="38"/>
       <c r="I96" s="14"/>
       <c r="J96" s="14"/>
       <c r="K96" s="14"/>
-      <c r="L96" s="34"/>
+      <c r="L96" s="32"/>
     </row>
     <row r="97" spans="1:12" ht="15.75">
-      <c r="A97" s="49"/>
-      <c r="B97" s="42"/>
+      <c r="A97" s="48"/>
+      <c r="B97" s="41"/>
       <c r="C97" s="11" t="s">
         <v>39</v>
       </c>
@@ -2961,15 +3067,15 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
-      <c r="H97" s="40"/>
+      <c r="H97" s="38"/>
       <c r="I97" s="14"/>
       <c r="J97" s="14"/>
       <c r="K97" s="14"/>
-      <c r="L97" s="34"/>
+      <c r="L97" s="32"/>
     </row>
     <row r="98" spans="1:12" ht="15.75">
-      <c r="A98" s="49"/>
-      <c r="B98" s="42"/>
+      <c r="A98" s="48"/>
+      <c r="B98" s="41"/>
       <c r="C98" s="13" t="s">
         <v>37</v>
       </c>
@@ -2977,15 +3083,15 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
-      <c r="H98" s="40"/>
+      <c r="H98" s="38"/>
       <c r="I98" s="14"/>
       <c r="J98" s="14"/>
       <c r="K98" s="14"/>
-      <c r="L98" s="34"/>
+      <c r="L98" s="32"/>
     </row>
     <row r="99" spans="1:12" ht="15.75">
-      <c r="A99" s="49"/>
-      <c r="B99" s="42"/>
+      <c r="A99" s="48"/>
+      <c r="B99" s="41"/>
       <c r="C99" s="11" t="s">
         <v>20</v>
       </c>
@@ -2993,15 +3099,15 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
-      <c r="H99" s="40"/>
+      <c r="H99" s="38"/>
       <c r="I99" s="14"/>
       <c r="J99" s="14"/>
       <c r="K99" s="14"/>
-      <c r="L99" s="34"/>
+      <c r="L99" s="32"/>
     </row>
     <row r="100" spans="1:12" ht="15.75">
-      <c r="A100" s="49"/>
-      <c r="B100" s="42"/>
+      <c r="A100" s="48"/>
+      <c r="B100" s="41"/>
       <c r="C100" s="11" t="s">
         <v>38</v>
       </c>
@@ -3009,15 +3115,15 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="40"/>
+      <c r="H100" s="38"/>
       <c r="I100" s="14"/>
       <c r="J100" s="14"/>
       <c r="K100" s="14"/>
-      <c r="L100" s="34"/>
+      <c r="L100" s="32"/>
     </row>
     <row r="101" spans="1:12" ht="15.75">
-      <c r="A101" s="50"/>
-      <c r="B101" s="43"/>
+      <c r="A101" s="49"/>
+      <c r="B101" s="42"/>
       <c r="C101" s="13" t="s">
         <v>57</v>
       </c>
@@ -3025,17 +3131,17 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
-      <c r="H101" s="40"/>
+      <c r="H101" s="38"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14"/>
       <c r="K101" s="14"/>
-      <c r="L101" s="34"/>
+      <c r="L101" s="32"/>
     </row>
     <row r="102" spans="1:12" ht="15.75">
-      <c r="A102" s="48">
+      <c r="A102" s="47">
         <v>6</v>
       </c>
-      <c r="B102" s="41" t="s">
+      <c r="B102" s="40" t="s">
         <v>7</v>
       </c>
       <c r="C102" s="11" t="s">
@@ -3045,15 +3151,15 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
-      <c r="H102" s="40"/>
+      <c r="H102" s="38"/>
       <c r="I102" s="14"/>
       <c r="J102" s="14"/>
       <c r="K102" s="14"/>
-      <c r="L102" s="34"/>
+      <c r="L102" s="32"/>
     </row>
     <row r="103" spans="1:12" ht="15.75">
-      <c r="A103" s="49"/>
-      <c r="B103" s="42"/>
+      <c r="A103" s="48"/>
+      <c r="B103" s="41"/>
       <c r="C103" s="11" t="s">
         <v>38</v>
       </c>
@@ -3061,15 +3167,15 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
-      <c r="H103" s="40"/>
+      <c r="H103" s="38"/>
       <c r="I103" s="14"/>
       <c r="J103" s="14"/>
       <c r="K103" s="14"/>
-      <c r="L103" s="34"/>
+      <c r="L103" s="32"/>
     </row>
     <row r="104" spans="1:12" ht="15.75">
-      <c r="A104" s="49"/>
-      <c r="B104" s="42"/>
+      <c r="A104" s="48"/>
+      <c r="B104" s="41"/>
       <c r="C104" s="13" t="s">
         <v>41</v>
       </c>
@@ -3077,15 +3183,15 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
-      <c r="H104" s="40"/>
+      <c r="H104" s="38"/>
       <c r="I104" s="14"/>
       <c r="J104" s="14"/>
       <c r="K104" s="14"/>
-      <c r="L104" s="34"/>
+      <c r="L104" s="32"/>
     </row>
     <row r="105" spans="1:12" ht="15.75">
-      <c r="A105" s="49"/>
-      <c r="B105" s="42"/>
+      <c r="A105" s="48"/>
+      <c r="B105" s="41"/>
       <c r="C105" s="13" t="s">
         <v>42</v>
       </c>
@@ -3093,15 +3199,15 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
-      <c r="H105" s="40"/>
+      <c r="H105" s="38"/>
       <c r="I105" s="14"/>
       <c r="J105" s="14"/>
       <c r="K105" s="14"/>
-      <c r="L105" s="34"/>
+      <c r="L105" s="32"/>
     </row>
     <row r="106" spans="1:12" ht="15.75">
-      <c r="A106" s="49"/>
-      <c r="B106" s="42"/>
+      <c r="A106" s="48"/>
+      <c r="B106" s="41"/>
       <c r="C106" s="11" t="s">
         <v>20</v>
       </c>
@@ -3109,15 +3215,15 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="40"/>
+      <c r="H106" s="38"/>
       <c r="I106" s="14"/>
       <c r="J106" s="14"/>
       <c r="K106" s="14"/>
-      <c r="L106" s="34"/>
+      <c r="L106" s="32"/>
     </row>
     <row r="107" spans="1:12" ht="15.75">
-      <c r="A107" s="50"/>
-      <c r="B107" s="43"/>
+      <c r="A107" s="49"/>
+      <c r="B107" s="42"/>
       <c r="C107" s="11" t="s">
         <v>38</v>
       </c>
@@ -3125,11 +3231,11 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
-      <c r="H107" s="40"/>
+      <c r="H107" s="38"/>
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
       <c r="K107" s="14"/>
-      <c r="L107" s="34"/>
+      <c r="L107" s="32"/>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="3"/>
@@ -3144,7 +3250,7 @@
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
-      <c r="L108" s="36"/>
+      <c r="L108" s="34"/>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="18" t="s">
@@ -3161,7 +3267,7 @@
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
-      <c r="L109" s="36"/>
+      <c r="L109" s="34"/>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="19" t="s">
@@ -3178,7 +3284,7 @@
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
-      <c r="L110" s="36"/>
+      <c r="L110" s="34"/>
     </row>
     <row r="111" spans="1:12" ht="60">
       <c r="A111" s="19">
@@ -3195,7 +3301,7 @@
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
-      <c r="L111" s="36"/>
+      <c r="L111" s="34"/>
     </row>
     <row r="112" spans="1:12" ht="15.75" customHeight="1">
       <c r="A112" s="21">
@@ -3214,7 +3320,7 @@
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
-      <c r="L112" s="36"/>
+      <c r="L112" s="34"/>
     </row>
     <row r="113" spans="1:12" ht="30">
       <c r="A113" s="21">
@@ -3233,7 +3339,7 @@
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
-      <c r="L113" s="36"/>
+      <c r="L113" s="34"/>
     </row>
     <row r="114" spans="1:12" ht="30">
       <c r="A114" s="21">
@@ -3252,7 +3358,7 @@
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
-      <c r="L114" s="36"/>
+      <c r="L114" s="34"/>
     </row>
     <row r="115" spans="1:12" ht="30">
       <c r="A115" s="21">
@@ -3271,7 +3377,7 @@
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
-      <c r="L115" s="36"/>
+      <c r="L115" s="34"/>
     </row>
     <row r="116" spans="1:12">
       <c r="C116" s="21">

--- a/wiki/report/Tasksheet.xlsx
+++ b/wiki/report/Tasksheet.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="127">
   <si>
     <t>No.</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t>Use-case specification</t>
+  </si>
+  <si>
+    <t>Search information</t>
   </si>
 </sst>
 </file>
@@ -731,7 +734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -826,36 +829,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="9"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="7"/>
@@ -871,6 +844,47 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1173,11 +1187,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L117"/>
+  <dimension ref="A1:L118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45:C65"/>
+      <pane ySplit="12" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1195,7 +1209,7 @@
     <col min="12" max="12" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.5">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1234,10 +1248,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" hidden="1">
-      <c r="A2" s="42">
+      <c r="A2" s="49">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="49" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -1256,8 +1270,8 @@
       <c r="L2" s="30"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" hidden="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="4" t="s">
         <v>45</v>
       </c>
@@ -1274,8 +1288,8 @@
       <c r="L3" s="30"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" hidden="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="4" t="s">
         <v>46</v>
       </c>
@@ -1292,8 +1306,8 @@
       <c r="L4" s="30"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" hidden="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="4" t="s">
         <v>47</v>
       </c>
@@ -1312,8 +1326,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" hidden="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1328,8 +1342,8 @@
       <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" hidden="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1344,10 +1358,10 @@
       <c r="L7" s="30"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" hidden="1">
-      <c r="A8" s="43">
+      <c r="A8" s="50">
         <v>2</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="50" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1364,8 +1378,8 @@
       <c r="L8" s="30"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" hidden="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1380,8 +1394,8 @@
       <c r="L9" s="30"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" hidden="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
@@ -1396,8 +1410,8 @@
       <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" hidden="1">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1412,8 +1426,8 @@
       <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" hidden="1">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1428,10 +1442,10 @@
       <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A13" s="40">
+      <c r="A13" s="47">
         <v>3</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="51" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="24" t="s">
@@ -1448,8 +1462,8 @@
       <c r="L13" s="31"/>
     </row>
     <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="41"/>
-      <c r="B14" s="45"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="22" t="s">
         <v>70</v>
       </c>
@@ -1468,8 +1482,8 @@
       <c r="L14" s="31"/>
     </row>
     <row r="15" spans="1:12" ht="15.75">
-      <c r="A15" s="41"/>
-      <c r="B15" s="45"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="22" t="s">
         <v>71</v>
       </c>
@@ -1488,8 +1502,8 @@
       <c r="L15" s="31"/>
     </row>
     <row r="16" spans="1:12" ht="15.75">
-      <c r="A16" s="41"/>
-      <c r="B16" s="45"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="22" t="s">
         <v>72</v>
       </c>
@@ -1508,8 +1522,8 @@
       <c r="L16" s="31"/>
     </row>
     <row r="17" spans="1:12" ht="15.75">
-      <c r="A17" s="41"/>
-      <c r="B17" s="45"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="23" t="s">
         <v>73</v>
       </c>
@@ -1528,8 +1542,8 @@
       <c r="L17" s="31"/>
     </row>
     <row r="18" spans="1:12" ht="15.75">
-      <c r="A18" s="41"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
@@ -1544,8 +1558,8 @@
       <c r="L18" s="31"/>
     </row>
     <row r="19" spans="1:12" ht="15.75">
-      <c r="A19" s="41"/>
-      <c r="B19" s="45"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="6" t="s">
         <v>18</v>
       </c>
@@ -1562,8 +1576,8 @@
       <c r="L19" s="31"/>
     </row>
     <row r="20" spans="1:12" ht="15.75">
-      <c r="A20" s="41"/>
-      <c r="B20" s="45"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="6" t="s">
         <v>74</v>
       </c>
@@ -1582,8 +1596,8 @@
       <c r="L20" s="31"/>
     </row>
     <row r="21" spans="1:12" ht="15.75">
-      <c r="A21" s="41"/>
-      <c r="B21" s="45"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="7" t="s">
         <v>19</v>
       </c>
@@ -1598,8 +1612,8 @@
       <c r="L21" s="31"/>
     </row>
     <row r="22" spans="1:12" ht="15.75">
-      <c r="A22" s="41"/>
-      <c r="B22" s="45"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="27" t="s">
         <v>82</v>
       </c>
@@ -1609,7 +1623,7 @@
       <c r="G22" s="30"/>
       <c r="H22" s="38"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="50">
+      <c r="J22" s="40">
         <v>41680</v>
       </c>
       <c r="K22" s="14" t="s">
@@ -1618,28 +1632,28 @@
       <c r="L22" s="31"/>
     </row>
     <row r="23" spans="1:12" ht="15.75">
-      <c r="A23" s="41"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="51" t="s">
+      <c r="A23" s="48"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="53">
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43">
         <v>2</v>
       </c>
-      <c r="I23" s="54"/>
-      <c r="J23" s="55">
-        <v>41680</v>
-      </c>
-      <c r="K23" s="54"/>
-      <c r="L23" s="52"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45">
+        <v>41680</v>
+      </c>
+      <c r="K23" s="44"/>
+      <c r="L23" s="42"/>
     </row>
     <row r="24" spans="1:12" ht="15.75">
-      <c r="A24" s="41"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="28" t="s">
         <v>84</v>
       </c>
@@ -1651,7 +1665,7 @@
       </c>
       <c r="H24" s="38"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="50">
+      <c r="J24" s="40">
         <v>41680</v>
       </c>
       <c r="K24" s="14" t="s">
@@ -1660,8 +1674,8 @@
       <c r="L24" s="31"/>
     </row>
     <row r="25" spans="1:12" ht="15.75">
-      <c r="A25" s="41"/>
-      <c r="B25" s="45"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="28" t="s">
         <v>85</v>
       </c>
@@ -1673,7 +1687,7 @@
       </c>
       <c r="H25" s="38"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="50">
+      <c r="J25" s="40">
         <v>41680</v>
       </c>
       <c r="K25" s="14" t="s">
@@ -1682,28 +1696,28 @@
       <c r="L25" s="31"/>
     </row>
     <row r="26" spans="1:12" ht="15.75">
-      <c r="A26" s="41"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="51" t="s">
+      <c r="A26" s="48"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53">
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="43">
         <v>10</v>
       </c>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55">
-        <v>41680</v>
-      </c>
-      <c r="K26" s="54"/>
-      <c r="L26" s="52"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="45">
+        <v>41680</v>
+      </c>
+      <c r="K26" s="44"/>
+      <c r="L26" s="42"/>
     </row>
     <row r="27" spans="1:12" ht="15.75">
-      <c r="A27" s="41"/>
-      <c r="B27" s="45"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="28" t="s">
         <v>87</v>
       </c>
@@ -1715,7 +1729,7 @@
       </c>
       <c r="H27" s="38"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="50">
+      <c r="J27" s="40">
         <v>41680</v>
       </c>
       <c r="K27" s="14" t="s">
@@ -1724,8 +1738,8 @@
       <c r="L27" s="31"/>
     </row>
     <row r="28" spans="1:12" ht="15.75">
-      <c r="A28" s="41"/>
-      <c r="B28" s="45"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="28" t="s">
         <v>88</v>
       </c>
@@ -1737,7 +1751,7 @@
       </c>
       <c r="H28" s="38"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="50">
+      <c r="J28" s="40">
         <v>41680</v>
       </c>
       <c r="K28" s="14" t="s">
@@ -1746,8 +1760,8 @@
       <c r="L28" s="31"/>
     </row>
     <row r="29" spans="1:12" ht="15.75">
-      <c r="A29" s="41"/>
-      <c r="B29" s="45"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="28" t="s">
         <v>89</v>
       </c>
@@ -1759,7 +1773,7 @@
       </c>
       <c r="H29" s="38"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="50">
+      <c r="J29" s="40">
         <v>41680</v>
       </c>
       <c r="K29" s="14" t="s">
@@ -1768,8 +1782,8 @@
       <c r="L29" s="31"/>
     </row>
     <row r="30" spans="1:12" ht="15.75">
-      <c r="A30" s="41"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="28" t="s">
         <v>90</v>
       </c>
@@ -1781,7 +1795,7 @@
       </c>
       <c r="H30" s="38"/>
       <c r="I30" s="14"/>
-      <c r="J30" s="50">
+      <c r="J30" s="40">
         <v>41680</v>
       </c>
       <c r="K30" s="14" t="s">
@@ -1790,8 +1804,8 @@
       <c r="L30" s="31"/>
     </row>
     <row r="31" spans="1:12" ht="15.75">
-      <c r="A31" s="41"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="29" t="s">
         <v>91</v>
       </c>
@@ -1803,7 +1817,7 @@
       </c>
       <c r="H31" s="38"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="50">
+      <c r="J31" s="40">
         <v>41680</v>
       </c>
       <c r="K31" s="14" t="s">
@@ -1812,8 +1826,8 @@
       <c r="L31" s="32"/>
     </row>
     <row r="32" spans="1:12" ht="15.75">
-      <c r="A32" s="41"/>
-      <c r="B32" s="45"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="29" t="s">
         <v>92</v>
       </c>
@@ -1825,7 +1839,7 @@
       </c>
       <c r="H32" s="38"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="50">
+      <c r="J32" s="40">
         <v>41680</v>
       </c>
       <c r="K32" s="14" t="s">
@@ -1834,8 +1848,8 @@
       <c r="L32" s="32"/>
     </row>
     <row r="33" spans="1:12" ht="15.75">
-      <c r="A33" s="41"/>
-      <c r="B33" s="45"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="29" t="s">
         <v>93</v>
       </c>
@@ -1846,7 +1860,7 @@
       </c>
       <c r="H33" s="38"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="50">
+      <c r="J33" s="40">
         <v>41680</v>
       </c>
       <c r="K33" s="14" t="s">
@@ -1855,8 +1869,8 @@
       <c r="L33" s="32"/>
     </row>
     <row r="34" spans="1:12" ht="15.75">
-      <c r="A34" s="41"/>
-      <c r="B34" s="45"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="29" t="s">
         <v>109</v>
       </c>
@@ -1868,7 +1882,7 @@
       </c>
       <c r="H34" s="38"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="50">
+      <c r="J34" s="40">
         <v>41680</v>
       </c>
       <c r="K34" s="14" t="s">
@@ -1877,8 +1891,8 @@
       <c r="L34" s="32"/>
     </row>
     <row r="35" spans="1:12" ht="15.75">
-      <c r="A35" s="41"/>
-      <c r="B35" s="45"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="29" t="s">
         <v>94</v>
       </c>
@@ -1890,7 +1904,7 @@
       <c r="G35" s="30"/>
       <c r="H35" s="38"/>
       <c r="I35" s="14"/>
-      <c r="J35" s="50">
+      <c r="J35" s="40">
         <v>41680</v>
       </c>
       <c r="K35" s="14" t="s">
@@ -1899,8 +1913,8 @@
       <c r="L35" s="32"/>
     </row>
     <row r="36" spans="1:12" ht="15.75">
-      <c r="A36" s="41"/>
-      <c r="B36" s="45"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="29" t="s">
         <v>95</v>
       </c>
@@ -1912,7 +1926,7 @@
       <c r="G36" s="30"/>
       <c r="H36" s="38"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="50">
+      <c r="J36" s="40">
         <v>41680</v>
       </c>
       <c r="K36" s="14" t="s">
@@ -1921,28 +1935,28 @@
       <c r="L36" s="32"/>
     </row>
     <row r="37" spans="1:12" ht="15.75">
-      <c r="A37" s="41"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="51" t="s">
+      <c r="A37" s="48"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="53">
-        <v>6</v>
-      </c>
-      <c r="I37" s="54"/>
-      <c r="J37" s="55">
-        <v>41680</v>
-      </c>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="43">
+        <v>7</v>
+      </c>
+      <c r="I37" s="44"/>
+      <c r="J37" s="45">
+        <v>41680</v>
+      </c>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
     </row>
     <row r="38" spans="1:12" ht="15.75">
-      <c r="A38" s="41"/>
-      <c r="B38" s="45"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="52"/>
       <c r="C38" s="29" t="s">
         <v>97</v>
       </c>
@@ -1954,7 +1968,7 @@
       <c r="G38" s="30"/>
       <c r="H38" s="38"/>
       <c r="I38" s="14"/>
-      <c r="J38" s="50">
+      <c r="J38" s="40">
         <v>41680</v>
       </c>
       <c r="K38" s="14" t="s">
@@ -1963,8 +1977,8 @@
       <c r="L38" s="32"/>
     </row>
     <row r="39" spans="1:12" ht="15.75">
-      <c r="A39" s="41"/>
-      <c r="B39" s="45"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="29" t="s">
         <v>98</v>
       </c>
@@ -1976,7 +1990,7 @@
       <c r="G39" s="30"/>
       <c r="H39" s="38"/>
       <c r="I39" s="14"/>
-      <c r="J39" s="50">
+      <c r="J39" s="40">
         <v>41680</v>
       </c>
       <c r="K39" s="14" t="s">
@@ -1985,8 +1999,8 @@
       <c r="L39" s="32"/>
     </row>
     <row r="40" spans="1:12" ht="15.75">
-      <c r="A40" s="41"/>
-      <c r="B40" s="45"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="29" t="s">
         <v>99</v>
       </c>
@@ -1998,7 +2012,7 @@
       <c r="G40" s="30"/>
       <c r="H40" s="38"/>
       <c r="I40" s="14"/>
-      <c r="J40" s="50">
+      <c r="J40" s="40">
         <v>41680</v>
       </c>
       <c r="K40" s="14" t="s">
@@ -2007,8 +2021,8 @@
       <c r="L40" s="32"/>
     </row>
     <row r="41" spans="1:12" ht="15.75">
-      <c r="A41" s="41"/>
-      <c r="B41" s="45"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="29" t="s">
         <v>100</v>
       </c>
@@ -2020,7 +2034,7 @@
       <c r="G41" s="30"/>
       <c r="H41" s="38"/>
       <c r="I41" s="14"/>
-      <c r="J41" s="50">
+      <c r="J41" s="40">
         <v>41680</v>
       </c>
       <c r="K41" s="14" t="s">
@@ -2029,95 +2043,95 @@
       <c r="L41" s="32"/>
     </row>
     <row r="42" spans="1:12" ht="15.75">
-      <c r="A42" s="41"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="29" t="s">
+      <c r="A42" s="48"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="30"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="50">
-        <v>41680</v>
-      </c>
-      <c r="K42" s="14" t="s">
+      <c r="D42" s="58"/>
+      <c r="E42" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="58"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="61">
+        <v>41680</v>
+      </c>
+      <c r="K42" s="60" t="s">
         <v>125</v>
       </c>
       <c r="L42" s="32"/>
     </row>
     <row r="43" spans="1:12" ht="15.75">
-      <c r="A43" s="41"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="35"/>
-      <c r="G43" s="30"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="21"/>
+      <c r="G43" s="35"/>
       <c r="H43" s="38"/>
       <c r="I43" s="14"/>
-      <c r="J43" s="50">
-        <v>41680</v>
-      </c>
-      <c r="K43" s="14" t="s">
+      <c r="J43" s="61">
+        <v>41680</v>
+      </c>
+      <c r="K43" s="60" t="s">
         <v>125</v>
       </c>
       <c r="L43" s="32"/>
     </row>
     <row r="44" spans="1:12" ht="15.75">
-      <c r="A44" s="41"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="51" t="s">
+      <c r="A44" s="48"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="35"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="40">
+        <v>41680</v>
+      </c>
+      <c r="K44" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L44" s="32"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75">
+      <c r="A45" s="48"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="53">
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="43">
         <v>21</v>
       </c>
-      <c r="I44" s="54"/>
-      <c r="J44" s="55">
-        <v>41680</v>
-      </c>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
-    </row>
-    <row r="45" spans="1:12" ht="15.75">
-      <c r="A45" s="41"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="29" t="s">
+      <c r="I45" s="44"/>
+      <c r="J45" s="45">
+        <v>41680</v>
+      </c>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75">
+      <c r="A46" s="48"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="29" t="s">
         <v>103</v>
-      </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="30"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="50">
-        <v>41680</v>
-      </c>
-      <c r="K45" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="L45" s="32"/>
-    </row>
-    <row r="46" spans="1:12" ht="15.75">
-      <c r="A46" s="41"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="29" t="s">
-        <v>104</v>
       </c>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
@@ -2127,7 +2141,7 @@
       <c r="G46" s="30"/>
       <c r="H46" s="38"/>
       <c r="I46" s="14"/>
-      <c r="J46" s="50">
+      <c r="J46" s="40">
         <v>41680</v>
       </c>
       <c r="K46" s="14" t="s">
@@ -2136,10 +2150,10 @@
       <c r="L46" s="32"/>
     </row>
     <row r="47" spans="1:12" ht="15.75">
-      <c r="A47" s="41"/>
-      <c r="B47" s="45"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="52"/>
       <c r="C47" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
@@ -2149,7 +2163,7 @@
       <c r="G47" s="30"/>
       <c r="H47" s="38"/>
       <c r="I47" s="14"/>
-      <c r="J47" s="50">
+      <c r="J47" s="40">
         <v>41680</v>
       </c>
       <c r="K47" s="14" t="s">
@@ -2158,10 +2172,10 @@
       <c r="L47" s="32"/>
     </row>
     <row r="48" spans="1:12" ht="15.75">
-      <c r="A48" s="41"/>
-      <c r="B48" s="45"/>
+      <c r="A48" s="48"/>
+      <c r="B48" s="52"/>
       <c r="C48" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D48" s="30"/>
       <c r="E48" s="30"/>
@@ -2171,7 +2185,7 @@
       <c r="G48" s="30"/>
       <c r="H48" s="38"/>
       <c r="I48" s="14"/>
-      <c r="J48" s="50">
+      <c r="J48" s="40">
         <v>41680</v>
       </c>
       <c r="K48" s="14" t="s">
@@ -2180,10 +2194,10 @@
       <c r="L48" s="32"/>
     </row>
     <row r="49" spans="1:12" ht="15.75">
-      <c r="A49" s="41"/>
-      <c r="B49" s="45"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="52"/>
       <c r="C49" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="30"/>
@@ -2193,7 +2207,7 @@
       <c r="G49" s="30"/>
       <c r="H49" s="38"/>
       <c r="I49" s="14"/>
-      <c r="J49" s="50">
+      <c r="J49" s="40">
         <v>41680</v>
       </c>
       <c r="K49" s="14" t="s">
@@ -2202,10 +2216,10 @@
       <c r="L49" s="32"/>
     </row>
     <row r="50" spans="1:12" ht="15.75">
-      <c r="A50" s="41"/>
-      <c r="B50" s="45"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D50" s="30"/>
       <c r="E50" s="30"/>
@@ -2215,7 +2229,7 @@
       <c r="G50" s="30"/>
       <c r="H50" s="38"/>
       <c r="I50" s="14"/>
-      <c r="J50" s="50">
+      <c r="J50" s="40">
         <v>41680</v>
       </c>
       <c r="K50" s="14" t="s">
@@ -2224,10 +2238,10 @@
       <c r="L50" s="32"/>
     </row>
     <row r="51" spans="1:12" ht="15.75">
-      <c r="A51" s="41"/>
-      <c r="B51" s="45"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="52"/>
       <c r="C51" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D51" s="30"/>
       <c r="E51" s="30"/>
@@ -2237,7 +2251,7 @@
       <c r="G51" s="30"/>
       <c r="H51" s="38"/>
       <c r="I51" s="14"/>
-      <c r="J51" s="50">
+      <c r="J51" s="40">
         <v>41680</v>
       </c>
       <c r="K51" s="14" t="s">
@@ -2246,20 +2260,20 @@
       <c r="L51" s="32"/>
     </row>
     <row r="52" spans="1:12" ht="15.75">
-      <c r="A52" s="41"/>
-      <c r="B52" s="45"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="52"/>
       <c r="C52" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>8</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D52" s="30"/>
       <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
+      <c r="F52" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="G52" s="30"/>
       <c r="H52" s="38"/>
       <c r="I52" s="14"/>
-      <c r="J52" s="50">
+      <c r="J52" s="40">
         <v>41680</v>
       </c>
       <c r="K52" s="14" t="s">
@@ -2268,10 +2282,10 @@
       <c r="L52" s="32"/>
     </row>
     <row r="53" spans="1:12" ht="15.75">
-      <c r="A53" s="41"/>
-      <c r="B53" s="45"/>
+      <c r="A53" s="48"/>
+      <c r="B53" s="52"/>
       <c r="C53" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D53" s="30" t="s">
         <v>8</v>
@@ -2281,7 +2295,7 @@
       <c r="G53" s="30"/>
       <c r="H53" s="38"/>
       <c r="I53" s="14"/>
-      <c r="J53" s="50">
+      <c r="J53" s="40">
         <v>41680</v>
       </c>
       <c r="K53" s="14" t="s">
@@ -2290,10 +2304,10 @@
       <c r="L53" s="32"/>
     </row>
     <row r="54" spans="1:12" ht="15.75">
-      <c r="A54" s="41"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="52"/>
       <c r="C54" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D54" s="30" t="s">
         <v>8</v>
@@ -2303,7 +2317,7 @@
       <c r="G54" s="30"/>
       <c r="H54" s="38"/>
       <c r="I54" s="14"/>
-      <c r="J54" s="50">
+      <c r="J54" s="40">
         <v>41680</v>
       </c>
       <c r="K54" s="14" t="s">
@@ -2312,10 +2326,10 @@
       <c r="L54" s="32"/>
     </row>
     <row r="55" spans="1:12" ht="15.75">
-      <c r="A55" s="41"/>
-      <c r="B55" s="45"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D55" s="30" t="s">
         <v>8</v>
@@ -2325,7 +2339,7 @@
       <c r="G55" s="30"/>
       <c r="H55" s="38"/>
       <c r="I55" s="14"/>
-      <c r="J55" s="50">
+      <c r="J55" s="40">
         <v>41680</v>
       </c>
       <c r="K55" s="14" t="s">
@@ -2334,10 +2348,10 @@
       <c r="L55" s="32"/>
     </row>
     <row r="56" spans="1:12" ht="15.75">
-      <c r="A56" s="41"/>
-      <c r="B56" s="45"/>
+      <c r="A56" s="48"/>
+      <c r="B56" s="52"/>
       <c r="C56" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D56" s="30" t="s">
         <v>8</v>
@@ -2347,7 +2361,7 @@
       <c r="G56" s="30"/>
       <c r="H56" s="38"/>
       <c r="I56" s="14"/>
-      <c r="J56" s="50">
+      <c r="J56" s="40">
         <v>41680</v>
       </c>
       <c r="K56" s="14" t="s">
@@ -2356,10 +2370,10 @@
       <c r="L56" s="32"/>
     </row>
     <row r="57" spans="1:12" ht="15.75">
-      <c r="A57" s="41"/>
-      <c r="B57" s="45"/>
+      <c r="A57" s="48"/>
+      <c r="B57" s="52"/>
       <c r="C57" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D57" s="30" t="s">
         <v>8</v>
@@ -2369,7 +2383,7 @@
       <c r="G57" s="30"/>
       <c r="H57" s="38"/>
       <c r="I57" s="14"/>
-      <c r="J57" s="50">
+      <c r="J57" s="40">
         <v>41680</v>
       </c>
       <c r="K57" s="14" t="s">
@@ -2378,10 +2392,10 @@
       <c r="L57" s="32"/>
     </row>
     <row r="58" spans="1:12" ht="15.75">
-      <c r="A58" s="41"/>
-      <c r="B58" s="45"/>
+      <c r="A58" s="48"/>
+      <c r="B58" s="52"/>
       <c r="C58" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D58" s="30" t="s">
         <v>8</v>
@@ -2391,7 +2405,7 @@
       <c r="G58" s="30"/>
       <c r="H58" s="38"/>
       <c r="I58" s="14"/>
-      <c r="J58" s="50">
+      <c r="J58" s="40">
         <v>41680</v>
       </c>
       <c r="K58" s="14" t="s">
@@ -2400,10 +2414,10 @@
       <c r="L58" s="32"/>
     </row>
     <row r="59" spans="1:12" ht="15.75">
-      <c r="A59" s="41"/>
-      <c r="B59" s="45"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="52"/>
       <c r="C59" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D59" s="30" t="s">
         <v>8</v>
@@ -2413,7 +2427,7 @@
       <c r="G59" s="30"/>
       <c r="H59" s="38"/>
       <c r="I59" s="14"/>
-      <c r="J59" s="50">
+      <c r="J59" s="40">
         <v>41680</v>
       </c>
       <c r="K59" s="14" t="s">
@@ -2422,10 +2436,10 @@
       <c r="L59" s="32"/>
     </row>
     <row r="60" spans="1:12" ht="15.75">
-      <c r="A60" s="41"/>
-      <c r="B60" s="45"/>
+      <c r="A60" s="48"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D60" s="30" t="s">
         <v>8</v>
@@ -2435,7 +2449,7 @@
       <c r="G60" s="30"/>
       <c r="H60" s="38"/>
       <c r="I60" s="14"/>
-      <c r="J60" s="50">
+      <c r="J60" s="40">
         <v>41680</v>
       </c>
       <c r="K60" s="14" t="s">
@@ -2444,10 +2458,10 @@
       <c r="L60" s="32"/>
     </row>
     <row r="61" spans="1:12" ht="15.75">
-      <c r="A61" s="41"/>
-      <c r="B61" s="45"/>
+      <c r="A61" s="48"/>
+      <c r="B61" s="52"/>
       <c r="C61" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D61" s="30" t="s">
         <v>8</v>
@@ -2457,7 +2471,7 @@
       <c r="G61" s="30"/>
       <c r="H61" s="38"/>
       <c r="I61" s="14"/>
-      <c r="J61" s="50">
+      <c r="J61" s="40">
         <v>41680</v>
       </c>
       <c r="K61" s="14" t="s">
@@ -2466,10 +2480,10 @@
       <c r="L61" s="32"/>
     </row>
     <row r="62" spans="1:12" ht="15.75">
-      <c r="A62" s="41"/>
-      <c r="B62" s="45"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="52"/>
       <c r="C62" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D62" s="30" t="s">
         <v>8</v>
@@ -2479,7 +2493,7 @@
       <c r="G62" s="30"/>
       <c r="H62" s="38"/>
       <c r="I62" s="14"/>
-      <c r="J62" s="50">
+      <c r="J62" s="40">
         <v>41680</v>
       </c>
       <c r="K62" s="14" t="s">
@@ -2488,20 +2502,20 @@
       <c r="L62" s="32"/>
     </row>
     <row r="63" spans="1:12" ht="15.75">
-      <c r="A63" s="41"/>
-      <c r="B63" s="45"/>
+      <c r="A63" s="48"/>
+      <c r="B63" s="52"/>
       <c r="C63" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
       <c r="H63" s="38"/>
       <c r="I63" s="14"/>
-      <c r="J63" s="50">
+      <c r="J63" s="40">
         <v>41680</v>
       </c>
       <c r="K63" s="14" t="s">
@@ -2510,20 +2524,20 @@
       <c r="L63" s="32"/>
     </row>
     <row r="64" spans="1:12" ht="15.75">
-      <c r="A64" s="41"/>
-      <c r="B64" s="45"/>
+      <c r="A64" s="48"/>
+      <c r="B64" s="52"/>
       <c r="C64" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="38"/>
       <c r="I64" s="14"/>
-      <c r="J64" s="50">
+      <c r="J64" s="40">
         <v>41680</v>
       </c>
       <c r="K64" s="14" t="s">
@@ -2532,10 +2546,10 @@
       <c r="L64" s="32"/>
     </row>
     <row r="65" spans="1:12" ht="15.75">
-      <c r="A65" s="41"/>
-      <c r="B65" s="45"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="52"/>
       <c r="C65" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
@@ -2545,7 +2559,7 @@
       <c r="G65" s="2"/>
       <c r="H65" s="38"/>
       <c r="I65" s="14"/>
-      <c r="J65" s="50">
+      <c r="J65" s="40">
         <v>41680</v>
       </c>
       <c r="K65" s="14" t="s">
@@ -2554,26 +2568,32 @@
       <c r="L65" s="32"/>
     </row>
     <row r="66" spans="1:12" ht="15.75">
-      <c r="A66" s="41"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="7" t="s">
-        <v>21</v>
+      <c r="A66" s="48"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="29" t="s">
+        <v>123</v>
       </c>
       <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="E66" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="38"/>
       <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
+      <c r="J66" s="40">
+        <v>41680</v>
+      </c>
+      <c r="K66" s="14" t="s">
+        <v>125</v>
+      </c>
       <c r="L66" s="32"/>
     </row>
     <row r="67" spans="1:12" ht="15.75">
-      <c r="A67" s="41"/>
-      <c r="B67" s="45"/>
-      <c r="C67" s="8" t="s">
-        <v>22</v>
+      <c r="A67" s="48"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -2586,10 +2606,10 @@
       <c r="L67" s="32"/>
     </row>
     <row r="68" spans="1:12" ht="15.75">
-      <c r="A68" s="42"/>
-      <c r="B68" s="46"/>
+      <c r="A68" s="48"/>
+      <c r="B68" s="52"/>
       <c r="C68" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -2602,14 +2622,10 @@
       <c r="L68" s="32"/>
     </row>
     <row r="69" spans="1:12" ht="15.75">
-      <c r="A69" s="40">
-        <v>4</v>
-      </c>
-      <c r="B69" s="40" t="s">
-        <v>6</v>
-      </c>
+      <c r="A69" s="49"/>
+      <c r="B69" s="53"/>
       <c r="C69" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2622,10 +2638,14 @@
       <c r="L69" s="32"/>
     </row>
     <row r="70" spans="1:12" ht="15.75">
-      <c r="A70" s="41"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="9" t="s">
-        <v>25</v>
+      <c r="A70" s="47">
+        <v>4</v>
+      </c>
+      <c r="B70" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2638,10 +2658,10 @@
       <c r="L70" s="32"/>
     </row>
     <row r="71" spans="1:12" ht="15.75">
-      <c r="A71" s="41"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="4" t="s">
-        <v>26</v>
+      <c r="A71" s="48"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -2654,10 +2674,10 @@
       <c r="L71" s="32"/>
     </row>
     <row r="72" spans="1:12" ht="15.75">
-      <c r="A72" s="41"/>
-      <c r="B72" s="41"/>
+      <c r="A72" s="48"/>
+      <c r="B72" s="48"/>
       <c r="C72" s="4" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -2670,10 +2690,10 @@
       <c r="L72" s="32"/>
     </row>
     <row r="73" spans="1:12" ht="15.75">
-      <c r="A73" s="41"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="10" t="s">
-        <v>54</v>
+      <c r="A73" s="48"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -2686,10 +2706,10 @@
       <c r="L73" s="32"/>
     </row>
     <row r="74" spans="1:12" ht="15.75">
-      <c r="A74" s="41"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="11" t="s">
-        <v>55</v>
+      <c r="A74" s="48"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -2702,10 +2722,10 @@
       <c r="L74" s="32"/>
     </row>
     <row r="75" spans="1:12" ht="15.75">
-      <c r="A75" s="41"/>
-      <c r="B75" s="41"/>
+      <c r="A75" s="48"/>
+      <c r="B75" s="48"/>
       <c r="C75" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -2718,10 +2738,10 @@
       <c r="L75" s="32"/>
     </row>
     <row r="76" spans="1:12" ht="15.75">
-      <c r="A76" s="41"/>
-      <c r="B76" s="41"/>
-      <c r="C76" s="12" t="s">
-        <v>27</v>
+      <c r="A76" s="48"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -2734,10 +2754,10 @@
       <c r="L76" s="32"/>
     </row>
     <row r="77" spans="1:12" ht="15.75">
-      <c r="A77" s="41"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="10" t="s">
-        <v>28</v>
+      <c r="A77" s="48"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -2750,10 +2770,10 @@
       <c r="L77" s="32"/>
     </row>
     <row r="78" spans="1:12" ht="15.75">
-      <c r="A78" s="41"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="11" t="s">
-        <v>29</v>
+      <c r="A78" s="48"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -2765,11 +2785,11 @@
       <c r="K78" s="14"/>
       <c r="L78" s="32"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A79" s="41"/>
-      <c r="B79" s="41"/>
+    <row r="79" spans="1:12" ht="15.75">
+      <c r="A79" s="48"/>
+      <c r="B79" s="48"/>
       <c r="C79" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -2781,11 +2801,11 @@
       <c r="K79" s="14"/>
       <c r="L79" s="32"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75">
-      <c r="A80" s="41"/>
-      <c r="B80" s="41"/>
-      <c r="C80" s="13" t="s">
-        <v>31</v>
+    <row r="80" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A80" s="48"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -2798,10 +2818,10 @@
       <c r="L80" s="32"/>
     </row>
     <row r="81" spans="1:12" ht="15.75">
-      <c r="A81" s="41"/>
-      <c r="B81" s="41"/>
-      <c r="C81" s="8" t="s">
-        <v>50</v>
+      <c r="A81" s="48"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -2814,10 +2834,10 @@
       <c r="L81" s="32"/>
     </row>
     <row r="82" spans="1:12" ht="15.75">
-      <c r="A82" s="41"/>
-      <c r="B82" s="41"/>
+      <c r="A82" s="48"/>
+      <c r="B82" s="48"/>
       <c r="C82" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -2830,10 +2850,10 @@
       <c r="L82" s="32"/>
     </row>
     <row r="83" spans="1:12" ht="15.75">
-      <c r="A83" s="42"/>
-      <c r="B83" s="42"/>
+      <c r="A83" s="48"/>
+      <c r="B83" s="48"/>
       <c r="C83" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -2846,14 +2866,10 @@
       <c r="L83" s="32"/>
     </row>
     <row r="84" spans="1:12" ht="15.75">
-      <c r="A84" s="47">
-        <v>5</v>
-      </c>
-      <c r="B84" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>48</v>
+      <c r="A84" s="49"/>
+      <c r="B84" s="49"/>
+      <c r="C84" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -2866,10 +2882,14 @@
       <c r="L84" s="32"/>
     </row>
     <row r="85" spans="1:12" ht="15.75">
-      <c r="A85" s="48"/>
-      <c r="B85" s="41"/>
+      <c r="A85" s="54">
+        <v>5</v>
+      </c>
+      <c r="B85" s="47" t="s">
+        <v>58</v>
+      </c>
       <c r="C85" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -2882,10 +2902,10 @@
       <c r="L85" s="32"/>
     </row>
     <row r="86" spans="1:12" ht="15.75">
-      <c r="A86" s="48"/>
-      <c r="B86" s="41"/>
-      <c r="C86" s="5" t="s">
-        <v>40</v>
+      <c r="A86" s="55"/>
+      <c r="B86" s="48"/>
+      <c r="C86" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -2898,10 +2918,10 @@
       <c r="L86" s="32"/>
     </row>
     <row r="87" spans="1:12" ht="15.75">
-      <c r="A87" s="48"/>
-      <c r="B87" s="41"/>
+      <c r="A87" s="55"/>
+      <c r="B87" s="48"/>
       <c r="C87" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -2914,10 +2934,10 @@
       <c r="L87" s="32"/>
     </row>
     <row r="88" spans="1:12" ht="15.75">
-      <c r="A88" s="48"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="11" t="s">
-        <v>34</v>
+      <c r="A88" s="55"/>
+      <c r="B88" s="48"/>
+      <c r="C88" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -2930,10 +2950,10 @@
       <c r="L88" s="32"/>
     </row>
     <row r="89" spans="1:12" ht="15.75">
-      <c r="A89" s="48"/>
-      <c r="B89" s="41"/>
+      <c r="A89" s="55"/>
+      <c r="B89" s="48"/>
       <c r="C89" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -2946,10 +2966,10 @@
       <c r="L89" s="32"/>
     </row>
     <row r="90" spans="1:12" ht="15.75">
-      <c r="A90" s="48"/>
-      <c r="B90" s="41"/>
-      <c r="C90" s="5" t="s">
-        <v>33</v>
+      <c r="A90" s="55"/>
+      <c r="B90" s="48"/>
+      <c r="C90" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -2962,10 +2982,10 @@
       <c r="L90" s="32"/>
     </row>
     <row r="91" spans="1:12" ht="15.75">
-      <c r="A91" s="48"/>
-      <c r="B91" s="41"/>
-      <c r="C91" s="11" t="s">
-        <v>34</v>
+      <c r="A91" s="55"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -2978,10 +2998,10 @@
       <c r="L91" s="32"/>
     </row>
     <row r="92" spans="1:12" ht="15.75">
-      <c r="A92" s="48"/>
-      <c r="B92" s="41"/>
+      <c r="A92" s="55"/>
+      <c r="B92" s="48"/>
       <c r="C92" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -2994,10 +3014,10 @@
       <c r="L92" s="32"/>
     </row>
     <row r="93" spans="1:12" ht="15.75">
-      <c r="A93" s="48"/>
-      <c r="B93" s="41"/>
-      <c r="C93" s="4" t="s">
-        <v>59</v>
+      <c r="A93" s="55"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -3009,11 +3029,11 @@
       <c r="K93" s="14"/>
       <c r="L93" s="32"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A94" s="48"/>
-      <c r="B94" s="41"/>
-      <c r="C94" s="13" t="s">
-        <v>36</v>
+    <row r="94" spans="1:12" ht="15.75">
+      <c r="A94" s="55"/>
+      <c r="B94" s="48"/>
+      <c r="C94" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -3025,11 +3045,11 @@
       <c r="K94" s="14"/>
       <c r="L94" s="32"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75">
-      <c r="A95" s="48"/>
-      <c r="B95" s="41"/>
-      <c r="C95" s="11" t="s">
-        <v>20</v>
+    <row r="95" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A95" s="55"/>
+      <c r="B95" s="48"/>
+      <c r="C95" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -3042,10 +3062,10 @@
       <c r="L95" s="32"/>
     </row>
     <row r="96" spans="1:12" ht="15.75">
-      <c r="A96" s="48"/>
-      <c r="B96" s="41"/>
+      <c r="A96" s="55"/>
+      <c r="B96" s="48"/>
       <c r="C96" s="11" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -3058,10 +3078,10 @@
       <c r="L96" s="32"/>
     </row>
     <row r="97" spans="1:12" ht="15.75">
-      <c r="A97" s="48"/>
-      <c r="B97" s="41"/>
+      <c r="A97" s="55"/>
+      <c r="B97" s="48"/>
       <c r="C97" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -3074,10 +3094,10 @@
       <c r="L97" s="32"/>
     </row>
     <row r="98" spans="1:12" ht="15.75">
-      <c r="A98" s="48"/>
-      <c r="B98" s="41"/>
-      <c r="C98" s="13" t="s">
-        <v>37</v>
+      <c r="A98" s="55"/>
+      <c r="B98" s="48"/>
+      <c r="C98" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -3090,10 +3110,10 @@
       <c r="L98" s="32"/>
     </row>
     <row r="99" spans="1:12" ht="15.75">
-      <c r="A99" s="48"/>
-      <c r="B99" s="41"/>
-      <c r="C99" s="11" t="s">
-        <v>20</v>
+      <c r="A99" s="55"/>
+      <c r="B99" s="48"/>
+      <c r="C99" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -3106,10 +3126,10 @@
       <c r="L99" s="32"/>
     </row>
     <row r="100" spans="1:12" ht="15.75">
-      <c r="A100" s="48"/>
-      <c r="B100" s="41"/>
+      <c r="A100" s="55"/>
+      <c r="B100" s="48"/>
       <c r="C100" s="11" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -3122,10 +3142,10 @@
       <c r="L100" s="32"/>
     </row>
     <row r="101" spans="1:12" ht="15.75">
-      <c r="A101" s="49"/>
-      <c r="B101" s="42"/>
-      <c r="C101" s="13" t="s">
-        <v>57</v>
+      <c r="A101" s="55"/>
+      <c r="B101" s="48"/>
+      <c r="C101" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -3138,14 +3158,10 @@
       <c r="L101" s="32"/>
     </row>
     <row r="102" spans="1:12" ht="15.75">
-      <c r="A102" s="47">
-        <v>6</v>
-      </c>
-      <c r="B102" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>20</v>
+      <c r="A102" s="56"/>
+      <c r="B102" s="49"/>
+      <c r="C102" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -3158,10 +3174,14 @@
       <c r="L102" s="32"/>
     </row>
     <row r="103" spans="1:12" ht="15.75">
-      <c r="A103" s="48"/>
-      <c r="B103" s="41"/>
+      <c r="A103" s="54">
+        <v>6</v>
+      </c>
+      <c r="B103" s="47" t="s">
+        <v>7</v>
+      </c>
       <c r="C103" s="11" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -3174,10 +3194,10 @@
       <c r="L103" s="32"/>
     </row>
     <row r="104" spans="1:12" ht="15.75">
-      <c r="A104" s="48"/>
-      <c r="B104" s="41"/>
-      <c r="C104" s="13" t="s">
-        <v>41</v>
+      <c r="A104" s="55"/>
+      <c r="B104" s="48"/>
+      <c r="C104" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -3190,10 +3210,10 @@
       <c r="L104" s="32"/>
     </row>
     <row r="105" spans="1:12" ht="15.75">
-      <c r="A105" s="48"/>
-      <c r="B105" s="41"/>
+      <c r="A105" s="55"/>
+      <c r="B105" s="48"/>
       <c r="C105" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -3206,10 +3226,10 @@
       <c r="L105" s="32"/>
     </row>
     <row r="106" spans="1:12" ht="15.75">
-      <c r="A106" s="48"/>
-      <c r="B106" s="41"/>
-      <c r="C106" s="11" t="s">
-        <v>20</v>
+      <c r="A106" s="55"/>
+      <c r="B106" s="48"/>
+      <c r="C106" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -3222,10 +3242,10 @@
       <c r="L106" s="32"/>
     </row>
     <row r="107" spans="1:12" ht="15.75">
-      <c r="A107" s="49"/>
-      <c r="B107" s="42"/>
+      <c r="A107" s="55"/>
+      <c r="B107" s="48"/>
       <c r="C107" s="11" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -3237,28 +3257,27 @@
       <c r="K107" s="14"/>
       <c r="L107" s="32"/>
     </row>
-    <row r="108" spans="1:12">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
+    <row r="108" spans="1:12" ht="15.75">
+      <c r="A108" s="56"/>
+      <c r="B108" s="49"/>
       <c r="C108" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="14"/>
+      <c r="J108" s="14"/>
+      <c r="K108" s="14"/>
+      <c r="L108" s="32"/>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="34"/>
-    </row>
-    <row r="109" spans="1:12">
-      <c r="A109" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B109" s="3"/>
-      <c r="C109" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -3270,13 +3289,13 @@
       <c r="L109" s="34"/>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C110" s="1"/>
+      <c r="A110" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B110" s="3"/>
+      <c r="C110" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
@@ -3286,12 +3305,12 @@
       <c r="K110" s="3"/>
       <c r="L110" s="34"/>
     </row>
-    <row r="111" spans="1:12" ht="60">
-      <c r="A111" s="19">
-        <v>1</v>
-      </c>
-      <c r="B111" s="20" t="s">
-        <v>67</v>
+    <row r="111" spans="1:12">
+      <c r="A111" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="3"/>
@@ -3303,16 +3322,14 @@
       <c r="K111" s="3"/>
       <c r="L111" s="34"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A112" s="21">
-        <v>2</v>
+    <row r="112" spans="1:12" ht="60">
+      <c r="A112" s="19">
+        <v>1</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>64</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C112" s="1"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
@@ -3322,15 +3339,15 @@
       <c r="K112" s="3"/>
       <c r="L112" s="34"/>
     </row>
-    <row r="113" spans="1:12" ht="30">
+    <row r="113" spans="1:12" ht="15.75" customHeight="1">
       <c r="A113" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C113" s="4">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -3343,13 +3360,13 @@
     </row>
     <row r="114" spans="1:12" ht="30">
       <c r="A114" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C114" s="21">
-        <v>2</v>
+        <v>66</v>
+      </c>
+      <c r="C114" s="4">
+        <v>1</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -3362,13 +3379,13 @@
     </row>
     <row r="115" spans="1:12" ht="30">
       <c r="A115" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C115" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -3379,33 +3396,52 @@
       <c r="K115" s="3"/>
       <c r="L115" s="34"/>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" ht="30">
+      <c r="A116" s="21">
+        <v>5</v>
+      </c>
+      <c r="B116" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C116" s="21">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="34"/>
     </row>
     <row r="117" spans="1:12">
       <c r="C117" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="C118" s="21">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B69:B83"/>
-    <mergeCell ref="B84:B101"/>
-    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="B70:B84"/>
+    <mergeCell ref="B85:B102"/>
+    <mergeCell ref="B103:B108"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B8:B12"/>
     <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A68"/>
-    <mergeCell ref="B13:B68"/>
-    <mergeCell ref="A69:A83"/>
-    <mergeCell ref="A84:A101"/>
-    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="A13:A69"/>
+    <mergeCell ref="B13:B69"/>
+    <mergeCell ref="A70:A84"/>
+    <mergeCell ref="A85:A102"/>
+    <mergeCell ref="A103:A108"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L30 G42 F43:G115 D2:D115 F2:G41 E2:E32 E34:E115">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L30 G42:G43 F44:G116 D2:D116 F2:G41 E2:E32 E34:E116">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>

--- a/wiki/report/Tasksheet.xlsx
+++ b/wiki/report/Tasksheet.xlsx
@@ -1190,7 +1190,7 @@
   <dimension ref="A1:L118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="12" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>

--- a/wiki/report/Tasksheet.xlsx
+++ b/wiki/report/Tasksheet.xlsx
@@ -844,6 +844,17 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -874,17 +885,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1190,8 +1190,8 @@
   <dimension ref="A1:L118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+      <pane ySplit="12" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1248,10 +1248,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" hidden="1">
-      <c r="A2" s="49">
+      <c r="A2" s="54">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="54" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -1270,8 +1270,8 @@
       <c r="L2" s="30"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" hidden="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="4" t="s">
         <v>45</v>
       </c>
@@ -1288,8 +1288,8 @@
       <c r="L3" s="30"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" hidden="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="4" t="s">
         <v>46</v>
       </c>
@@ -1306,8 +1306,8 @@
       <c r="L4" s="30"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" hidden="1">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="4" t="s">
         <v>47</v>
       </c>
@@ -1326,8 +1326,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" hidden="1">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1342,8 +1342,8 @@
       <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" hidden="1">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1358,10 +1358,10 @@
       <c r="L7" s="30"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" hidden="1">
-      <c r="A8" s="50">
+      <c r="A8" s="55">
         <v>2</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="55" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1378,8 +1378,8 @@
       <c r="L8" s="30"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" hidden="1">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1394,8 +1394,8 @@
       <c r="L9" s="30"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" hidden="1">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
@@ -1410,8 +1410,8 @@
       <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" hidden="1">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1426,8 +1426,8 @@
       <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" hidden="1">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1442,10 +1442,10 @@
       <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A13" s="47">
+      <c r="A13" s="52">
         <v>3</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="56" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="24" t="s">
@@ -1462,8 +1462,8 @@
       <c r="L13" s="31"/>
     </row>
     <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="48"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="22" t="s">
         <v>70</v>
       </c>
@@ -1482,8 +1482,8 @@
       <c r="L14" s="31"/>
     </row>
     <row r="15" spans="1:12" ht="15.75">
-      <c r="A15" s="48"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="22" t="s">
         <v>71</v>
       </c>
@@ -1502,8 +1502,8 @@
       <c r="L15" s="31"/>
     </row>
     <row r="16" spans="1:12" ht="15.75">
-      <c r="A16" s="48"/>
-      <c r="B16" s="52"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="22" t="s">
         <v>72</v>
       </c>
@@ -1522,8 +1522,8 @@
       <c r="L16" s="31"/>
     </row>
     <row r="17" spans="1:12" ht="15.75">
-      <c r="A17" s="48"/>
-      <c r="B17" s="52"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="23" t="s">
         <v>73</v>
       </c>
@@ -1542,8 +1542,8 @@
       <c r="L17" s="31"/>
     </row>
     <row r="18" spans="1:12" ht="15.75">
-      <c r="A18" s="48"/>
-      <c r="B18" s="52"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
@@ -1558,8 +1558,8 @@
       <c r="L18" s="31"/>
     </row>
     <row r="19" spans="1:12" ht="15.75">
-      <c r="A19" s="48"/>
-      <c r="B19" s="52"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="6" t="s">
         <v>18</v>
       </c>
@@ -1576,8 +1576,8 @@
       <c r="L19" s="31"/>
     </row>
     <row r="20" spans="1:12" ht="15.75">
-      <c r="A20" s="48"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="6" t="s">
         <v>74</v>
       </c>
@@ -1596,8 +1596,8 @@
       <c r="L20" s="31"/>
     </row>
     <row r="21" spans="1:12" ht="15.75">
-      <c r="A21" s="48"/>
-      <c r="B21" s="52"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="7" t="s">
         <v>19</v>
       </c>
@@ -1612,8 +1612,8 @@
       <c r="L21" s="31"/>
     </row>
     <row r="22" spans="1:12" ht="15.75">
-      <c r="A22" s="48"/>
-      <c r="B22" s="52"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="27" t="s">
         <v>82</v>
       </c>
@@ -1632,8 +1632,8 @@
       <c r="L22" s="31"/>
     </row>
     <row r="23" spans="1:12" ht="15.75">
-      <c r="A23" s="48"/>
-      <c r="B23" s="52"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="41" t="s">
         <v>83</v>
       </c>
@@ -1652,8 +1652,8 @@
       <c r="L23" s="42"/>
     </row>
     <row r="24" spans="1:12" ht="15.75">
-      <c r="A24" s="48"/>
-      <c r="B24" s="52"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="28" t="s">
         <v>84</v>
       </c>
@@ -1674,8 +1674,8 @@
       <c r="L24" s="31"/>
     </row>
     <row r="25" spans="1:12" ht="15.75">
-      <c r="A25" s="48"/>
-      <c r="B25" s="52"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="28" t="s">
         <v>85</v>
       </c>
@@ -1696,8 +1696,8 @@
       <c r="L25" s="31"/>
     </row>
     <row r="26" spans="1:12" ht="15.75">
-      <c r="A26" s="48"/>
-      <c r="B26" s="52"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="41" t="s">
         <v>86</v>
       </c>
@@ -1716,8 +1716,8 @@
       <c r="L26" s="42"/>
     </row>
     <row r="27" spans="1:12" ht="15.75">
-      <c r="A27" s="48"/>
-      <c r="B27" s="52"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="28" t="s">
         <v>87</v>
       </c>
@@ -1738,8 +1738,8 @@
       <c r="L27" s="31"/>
     </row>
     <row r="28" spans="1:12" ht="15.75">
-      <c r="A28" s="48"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="28" t="s">
         <v>88</v>
       </c>
@@ -1760,8 +1760,8 @@
       <c r="L28" s="31"/>
     </row>
     <row r="29" spans="1:12" ht="15.75">
-      <c r="A29" s="48"/>
-      <c r="B29" s="52"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="28" t="s">
         <v>89</v>
       </c>
@@ -1782,8 +1782,8 @@
       <c r="L29" s="31"/>
     </row>
     <row r="30" spans="1:12" ht="15.75">
-      <c r="A30" s="48"/>
-      <c r="B30" s="52"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="28" t="s">
         <v>90</v>
       </c>
@@ -1804,8 +1804,8 @@
       <c r="L30" s="31"/>
     </row>
     <row r="31" spans="1:12" ht="15.75">
-      <c r="A31" s="48"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="29" t="s">
         <v>91</v>
       </c>
@@ -1826,8 +1826,8 @@
       <c r="L31" s="32"/>
     </row>
     <row r="32" spans="1:12" ht="15.75">
-      <c r="A32" s="48"/>
-      <c r="B32" s="52"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="29" t="s">
         <v>92</v>
       </c>
@@ -1848,8 +1848,8 @@
       <c r="L32" s="32"/>
     </row>
     <row r="33" spans="1:12" ht="15.75">
-      <c r="A33" s="48"/>
-      <c r="B33" s="52"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="29" t="s">
         <v>93</v>
       </c>
@@ -1869,8 +1869,8 @@
       <c r="L33" s="32"/>
     </row>
     <row r="34" spans="1:12" ht="15.75">
-      <c r="A34" s="48"/>
-      <c r="B34" s="52"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="29" t="s">
         <v>109</v>
       </c>
@@ -1891,8 +1891,8 @@
       <c r="L34" s="32"/>
     </row>
     <row r="35" spans="1:12" ht="15.75">
-      <c r="A35" s="48"/>
-      <c r="B35" s="52"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="29" t="s">
         <v>94</v>
       </c>
@@ -1913,8 +1913,8 @@
       <c r="L35" s="32"/>
     </row>
     <row r="36" spans="1:12" ht="15.75">
-      <c r="A36" s="48"/>
-      <c r="B36" s="52"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="57"/>
       <c r="C36" s="29" t="s">
         <v>95</v>
       </c>
@@ -1935,8 +1935,8 @@
       <c r="L36" s="32"/>
     </row>
     <row r="37" spans="1:12" ht="15.75">
-      <c r="A37" s="48"/>
-      <c r="B37" s="52"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="57"/>
       <c r="C37" s="41" t="s">
         <v>96</v>
       </c>
@@ -1955,8 +1955,8 @@
       <c r="L37" s="44"/>
     </row>
     <row r="38" spans="1:12" ht="15.75">
-      <c r="A38" s="48"/>
-      <c r="B38" s="52"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="29" t="s">
         <v>97</v>
       </c>
@@ -1977,8 +1977,8 @@
       <c r="L38" s="32"/>
     </row>
     <row r="39" spans="1:12" ht="15.75">
-      <c r="A39" s="48"/>
-      <c r="B39" s="52"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="29" t="s">
         <v>98</v>
       </c>
@@ -1999,8 +1999,8 @@
       <c r="L39" s="32"/>
     </row>
     <row r="40" spans="1:12" ht="15.75">
-      <c r="A40" s="48"/>
-      <c r="B40" s="52"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="29" t="s">
         <v>99</v>
       </c>
@@ -2021,8 +2021,8 @@
       <c r="L40" s="32"/>
     </row>
     <row r="41" spans="1:12" ht="15.75">
-      <c r="A41" s="48"/>
-      <c r="B41" s="52"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="57"/>
       <c r="C41" s="29" t="s">
         <v>100</v>
       </c>
@@ -2043,29 +2043,29 @@
       <c r="L41" s="32"/>
     </row>
     <row r="42" spans="1:12" ht="15.75">
-      <c r="A42" s="48"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="57" t="s">
+      <c r="A42" s="53"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="58"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="61">
-        <v>41680</v>
-      </c>
-      <c r="K42" s="60" t="s">
+      <c r="D42" s="48"/>
+      <c r="E42" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="48"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="51">
+        <v>41680</v>
+      </c>
+      <c r="K42" s="50" t="s">
         <v>125</v>
       </c>
       <c r="L42" s="32"/>
     </row>
     <row r="43" spans="1:12" ht="15.75">
-      <c r="A43" s="48"/>
-      <c r="B43" s="52"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="29" t="s">
         <v>126</v>
       </c>
@@ -2077,17 +2077,17 @@
       <c r="G43" s="35"/>
       <c r="H43" s="38"/>
       <c r="I43" s="14"/>
-      <c r="J43" s="61">
-        <v>41680</v>
-      </c>
-      <c r="K43" s="60" t="s">
+      <c r="J43" s="51">
+        <v>41680</v>
+      </c>
+      <c r="K43" s="50" t="s">
         <v>125</v>
       </c>
       <c r="L43" s="32"/>
     </row>
     <row r="44" spans="1:12" ht="15.75">
-      <c r="A44" s="48"/>
-      <c r="B44" s="52"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="39" t="s">
         <v>109</v>
       </c>
@@ -2108,8 +2108,8 @@
       <c r="L44" s="32"/>
     </row>
     <row r="45" spans="1:12" ht="15.75">
-      <c r="A45" s="48"/>
-      <c r="B45" s="52"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="41" t="s">
         <v>102</v>
       </c>
@@ -2128,8 +2128,8 @@
       <c r="L45" s="44"/>
     </row>
     <row r="46" spans="1:12" ht="15.75">
-      <c r="A46" s="48"/>
-      <c r="B46" s="52"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="29" t="s">
         <v>103</v>
       </c>
@@ -2150,8 +2150,8 @@
       <c r="L46" s="32"/>
     </row>
     <row r="47" spans="1:12" ht="15.75">
-      <c r="A47" s="48"/>
-      <c r="B47" s="52"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="57"/>
       <c r="C47" s="29" t="s">
         <v>104</v>
       </c>
@@ -2172,8 +2172,8 @@
       <c r="L47" s="32"/>
     </row>
     <row r="48" spans="1:12" ht="15.75">
-      <c r="A48" s="48"/>
-      <c r="B48" s="52"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="57"/>
       <c r="C48" s="29" t="s">
         <v>105</v>
       </c>
@@ -2194,8 +2194,8 @@
       <c r="L48" s="32"/>
     </row>
     <row r="49" spans="1:12" ht="15.75">
-      <c r="A49" s="48"/>
-      <c r="B49" s="52"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="57"/>
       <c r="C49" s="29" t="s">
         <v>106</v>
       </c>
@@ -2216,8 +2216,8 @@
       <c r="L49" s="32"/>
     </row>
     <row r="50" spans="1:12" ht="15.75">
-      <c r="A50" s="48"/>
-      <c r="B50" s="52"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="29" t="s">
         <v>107</v>
       </c>
@@ -2238,8 +2238,8 @@
       <c r="L50" s="32"/>
     </row>
     <row r="51" spans="1:12" ht="15.75">
-      <c r="A51" s="48"/>
-      <c r="B51" s="52"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="29" t="s">
         <v>108</v>
       </c>
@@ -2260,8 +2260,8 @@
       <c r="L51" s="32"/>
     </row>
     <row r="52" spans="1:12" ht="15.75">
-      <c r="A52" s="48"/>
-      <c r="B52" s="52"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="57"/>
       <c r="C52" s="29" t="s">
         <v>109</v>
       </c>
@@ -2282,8 +2282,8 @@
       <c r="L52" s="32"/>
     </row>
     <row r="53" spans="1:12" ht="15.75">
-      <c r="A53" s="48"/>
-      <c r="B53" s="52"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="57"/>
       <c r="C53" s="29" t="s">
         <v>110</v>
       </c>
@@ -2304,8 +2304,8 @@
       <c r="L53" s="32"/>
     </row>
     <row r="54" spans="1:12" ht="15.75">
-      <c r="A54" s="48"/>
-      <c r="B54" s="52"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="57"/>
       <c r="C54" s="29" t="s">
         <v>111</v>
       </c>
@@ -2326,8 +2326,8 @@
       <c r="L54" s="32"/>
     </row>
     <row r="55" spans="1:12" ht="15.75">
-      <c r="A55" s="48"/>
-      <c r="B55" s="52"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="29" t="s">
         <v>112</v>
       </c>
@@ -2348,8 +2348,8 @@
       <c r="L55" s="32"/>
     </row>
     <row r="56" spans="1:12" ht="15.75">
-      <c r="A56" s="48"/>
-      <c r="B56" s="52"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="29" t="s">
         <v>113</v>
       </c>
@@ -2370,8 +2370,8 @@
       <c r="L56" s="32"/>
     </row>
     <row r="57" spans="1:12" ht="15.75">
-      <c r="A57" s="48"/>
-      <c r="B57" s="52"/>
+      <c r="A57" s="53"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="29" t="s">
         <v>114</v>
       </c>
@@ -2392,8 +2392,8 @@
       <c r="L57" s="32"/>
     </row>
     <row r="58" spans="1:12" ht="15.75">
-      <c r="A58" s="48"/>
-      <c r="B58" s="52"/>
+      <c r="A58" s="53"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="29" t="s">
         <v>115</v>
       </c>
@@ -2414,8 +2414,8 @@
       <c r="L58" s="32"/>
     </row>
     <row r="59" spans="1:12" ht="15.75">
-      <c r="A59" s="48"/>
-      <c r="B59" s="52"/>
+      <c r="A59" s="53"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="29" t="s">
         <v>116</v>
       </c>
@@ -2436,8 +2436,8 @@
       <c r="L59" s="32"/>
     </row>
     <row r="60" spans="1:12" ht="15.75">
-      <c r="A60" s="48"/>
-      <c r="B60" s="52"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="29" t="s">
         <v>117</v>
       </c>
@@ -2458,8 +2458,8 @@
       <c r="L60" s="32"/>
     </row>
     <row r="61" spans="1:12" ht="15.75">
-      <c r="A61" s="48"/>
-      <c r="B61" s="52"/>
+      <c r="A61" s="53"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="29" t="s">
         <v>118</v>
       </c>
@@ -2480,8 +2480,8 @@
       <c r="L61" s="32"/>
     </row>
     <row r="62" spans="1:12" ht="15.75">
-      <c r="A62" s="48"/>
-      <c r="B62" s="52"/>
+      <c r="A62" s="53"/>
+      <c r="B62" s="57"/>
       <c r="C62" s="29" t="s">
         <v>119</v>
       </c>
@@ -2502,8 +2502,8 @@
       <c r="L62" s="32"/>
     </row>
     <row r="63" spans="1:12" ht="15.75">
-      <c r="A63" s="48"/>
-      <c r="B63" s="52"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="57"/>
       <c r="C63" s="29" t="s">
         <v>120</v>
       </c>
@@ -2524,8 +2524,8 @@
       <c r="L63" s="32"/>
     </row>
     <row r="64" spans="1:12" ht="15.75">
-      <c r="A64" s="48"/>
-      <c r="B64" s="52"/>
+      <c r="A64" s="53"/>
+      <c r="B64" s="57"/>
       <c r="C64" s="29" t="s">
         <v>121</v>
       </c>
@@ -2546,8 +2546,8 @@
       <c r="L64" s="32"/>
     </row>
     <row r="65" spans="1:12" ht="15.75">
-      <c r="A65" s="48"/>
-      <c r="B65" s="52"/>
+      <c r="A65" s="53"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="29" t="s">
         <v>122</v>
       </c>
@@ -2568,8 +2568,8 @@
       <c r="L65" s="32"/>
     </row>
     <row r="66" spans="1:12" ht="15.75">
-      <c r="A66" s="48"/>
-      <c r="B66" s="52"/>
+      <c r="A66" s="53"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="29" t="s">
         <v>123</v>
       </c>
@@ -2590,8 +2590,8 @@
       <c r="L66" s="32"/>
     </row>
     <row r="67" spans="1:12" ht="15.75">
-      <c r="A67" s="48"/>
-      <c r="B67" s="52"/>
+      <c r="A67" s="53"/>
+      <c r="B67" s="57"/>
       <c r="C67" s="7" t="s">
         <v>21</v>
       </c>
@@ -2606,8 +2606,8 @@
       <c r="L67" s="32"/>
     </row>
     <row r="68" spans="1:12" ht="15.75">
-      <c r="A68" s="48"/>
-      <c r="B68" s="52"/>
+      <c r="A68" s="53"/>
+      <c r="B68" s="57"/>
       <c r="C68" s="8" t="s">
         <v>22</v>
       </c>
@@ -2622,8 +2622,8 @@
       <c r="L68" s="32"/>
     </row>
     <row r="69" spans="1:12" ht="15.75">
-      <c r="A69" s="49"/>
-      <c r="B69" s="53"/>
+      <c r="A69" s="54"/>
+      <c r="B69" s="58"/>
       <c r="C69" s="8" t="s">
         <v>23</v>
       </c>
@@ -2638,10 +2638,10 @@
       <c r="L69" s="32"/>
     </row>
     <row r="70" spans="1:12" ht="15.75">
-      <c r="A70" s="47">
+      <c r="A70" s="52">
         <v>4</v>
       </c>
-      <c r="B70" s="47" t="s">
+      <c r="B70" s="52" t="s">
         <v>6</v>
       </c>
       <c r="C70" s="8" t="s">
@@ -2658,8 +2658,8 @@
       <c r="L70" s="32"/>
     </row>
     <row r="71" spans="1:12" ht="15.75">
-      <c r="A71" s="48"/>
-      <c r="B71" s="48"/>
+      <c r="A71" s="53"/>
+      <c r="B71" s="53"/>
       <c r="C71" s="9" t="s">
         <v>25</v>
       </c>
@@ -2674,8 +2674,8 @@
       <c r="L71" s="32"/>
     </row>
     <row r="72" spans="1:12" ht="15.75">
-      <c r="A72" s="48"/>
-      <c r="B72" s="48"/>
+      <c r="A72" s="53"/>
+      <c r="B72" s="53"/>
       <c r="C72" s="4" t="s">
         <v>26</v>
       </c>
@@ -2690,8 +2690,8 @@
       <c r="L72" s="32"/>
     </row>
     <row r="73" spans="1:12" ht="15.75">
-      <c r="A73" s="48"/>
-      <c r="B73" s="48"/>
+      <c r="A73" s="53"/>
+      <c r="B73" s="53"/>
       <c r="C73" s="4" t="s">
         <v>53</v>
       </c>
@@ -2706,8 +2706,8 @@
       <c r="L73" s="32"/>
     </row>
     <row r="74" spans="1:12" ht="15.75">
-      <c r="A74" s="48"/>
-      <c r="B74" s="48"/>
+      <c r="A74" s="53"/>
+      <c r="B74" s="53"/>
       <c r="C74" s="10" t="s">
         <v>54</v>
       </c>
@@ -2722,8 +2722,8 @@
       <c r="L74" s="32"/>
     </row>
     <row r="75" spans="1:12" ht="15.75">
-      <c r="A75" s="48"/>
-      <c r="B75" s="48"/>
+      <c r="A75" s="53"/>
+      <c r="B75" s="53"/>
       <c r="C75" s="11" t="s">
         <v>55</v>
       </c>
@@ -2738,8 +2738,8 @@
       <c r="L75" s="32"/>
     </row>
     <row r="76" spans="1:12" ht="15.75">
-      <c r="A76" s="48"/>
-      <c r="B76" s="48"/>
+      <c r="A76" s="53"/>
+      <c r="B76" s="53"/>
       <c r="C76" s="11" t="s">
         <v>56</v>
       </c>
@@ -2754,8 +2754,8 @@
       <c r="L76" s="32"/>
     </row>
     <row r="77" spans="1:12" ht="15.75">
-      <c r="A77" s="48"/>
-      <c r="B77" s="48"/>
+      <c r="A77" s="53"/>
+      <c r="B77" s="53"/>
       <c r="C77" s="12" t="s">
         <v>27</v>
       </c>
@@ -2770,8 +2770,8 @@
       <c r="L77" s="32"/>
     </row>
     <row r="78" spans="1:12" ht="15.75">
-      <c r="A78" s="48"/>
-      <c r="B78" s="48"/>
+      <c r="A78" s="53"/>
+      <c r="B78" s="53"/>
       <c r="C78" s="10" t="s">
         <v>28</v>
       </c>
@@ -2786,8 +2786,8 @@
       <c r="L78" s="32"/>
     </row>
     <row r="79" spans="1:12" ht="15.75">
-      <c r="A79" s="48"/>
-      <c r="B79" s="48"/>
+      <c r="A79" s="53"/>
+      <c r="B79" s="53"/>
       <c r="C79" s="11" t="s">
         <v>29</v>
       </c>
@@ -2802,8 +2802,8 @@
       <c r="L79" s="32"/>
     </row>
     <row r="80" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A80" s="48"/>
-      <c r="B80" s="48"/>
+      <c r="A80" s="53"/>
+      <c r="B80" s="53"/>
       <c r="C80" s="11" t="s">
         <v>30</v>
       </c>
@@ -2818,8 +2818,8 @@
       <c r="L80" s="32"/>
     </row>
     <row r="81" spans="1:12" ht="15.75">
-      <c r="A81" s="48"/>
-      <c r="B81" s="48"/>
+      <c r="A81" s="53"/>
+      <c r="B81" s="53"/>
       <c r="C81" s="13" t="s">
         <v>31</v>
       </c>
@@ -2834,8 +2834,8 @@
       <c r="L81" s="32"/>
     </row>
     <row r="82" spans="1:12" ht="15.75">
-      <c r="A82" s="48"/>
-      <c r="B82" s="48"/>
+      <c r="A82" s="53"/>
+      <c r="B82" s="53"/>
       <c r="C82" s="8" t="s">
         <v>50</v>
       </c>
@@ -2850,8 +2850,8 @@
       <c r="L82" s="32"/>
     </row>
     <row r="83" spans="1:12" ht="15.75">
-      <c r="A83" s="48"/>
-      <c r="B83" s="48"/>
+      <c r="A83" s="53"/>
+      <c r="B83" s="53"/>
       <c r="C83" s="8" t="s">
         <v>51</v>
       </c>
@@ -2866,8 +2866,8 @@
       <c r="L83" s="32"/>
     </row>
     <row r="84" spans="1:12" ht="15.75">
-      <c r="A84" s="49"/>
-      <c r="B84" s="49"/>
+      <c r="A84" s="54"/>
+      <c r="B84" s="54"/>
       <c r="C84" s="8" t="s">
         <v>52</v>
       </c>
@@ -2882,10 +2882,10 @@
       <c r="L84" s="32"/>
     </row>
     <row r="85" spans="1:12" ht="15.75">
-      <c r="A85" s="54">
+      <c r="A85" s="59">
         <v>5</v>
       </c>
-      <c r="B85" s="47" t="s">
+      <c r="B85" s="52" t="s">
         <v>58</v>
       </c>
       <c r="C85" s="13" t="s">
@@ -2902,8 +2902,8 @@
       <c r="L85" s="32"/>
     </row>
     <row r="86" spans="1:12" ht="15.75">
-      <c r="A86" s="55"/>
-      <c r="B86" s="48"/>
+      <c r="A86" s="60"/>
+      <c r="B86" s="53"/>
       <c r="C86" s="13" t="s">
         <v>49</v>
       </c>
@@ -2918,8 +2918,8 @@
       <c r="L86" s="32"/>
     </row>
     <row r="87" spans="1:12" ht="15.75">
-      <c r="A87" s="55"/>
-      <c r="B87" s="48"/>
+      <c r="A87" s="60"/>
+      <c r="B87" s="53"/>
       <c r="C87" s="5" t="s">
         <v>40</v>
       </c>
@@ -2934,8 +2934,8 @@
       <c r="L87" s="32"/>
     </row>
     <row r="88" spans="1:12" ht="15.75">
-      <c r="A88" s="55"/>
-      <c r="B88" s="48"/>
+      <c r="A88" s="60"/>
+      <c r="B88" s="53"/>
       <c r="C88" s="5" t="s">
         <v>32</v>
       </c>
@@ -2950,8 +2950,8 @@
       <c r="L88" s="32"/>
     </row>
     <row r="89" spans="1:12" ht="15.75">
-      <c r="A89" s="55"/>
-      <c r="B89" s="48"/>
+      <c r="A89" s="60"/>
+      <c r="B89" s="53"/>
       <c r="C89" s="11" t="s">
         <v>34</v>
       </c>
@@ -2966,8 +2966,8 @@
       <c r="L89" s="32"/>
     </row>
     <row r="90" spans="1:12" ht="15.75">
-      <c r="A90" s="55"/>
-      <c r="B90" s="48"/>
+      <c r="A90" s="60"/>
+      <c r="B90" s="53"/>
       <c r="C90" s="11" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +2982,8 @@
       <c r="L90" s="32"/>
     </row>
     <row r="91" spans="1:12" ht="15.75">
-      <c r="A91" s="55"/>
-      <c r="B91" s="48"/>
+      <c r="A91" s="60"/>
+      <c r="B91" s="53"/>
       <c r="C91" s="5" t="s">
         <v>33</v>
       </c>
@@ -2998,8 +2998,8 @@
       <c r="L91" s="32"/>
     </row>
     <row r="92" spans="1:12" ht="15.75">
-      <c r="A92" s="55"/>
-      <c r="B92" s="48"/>
+      <c r="A92" s="60"/>
+      <c r="B92" s="53"/>
       <c r="C92" s="11" t="s">
         <v>34</v>
       </c>
@@ -3014,8 +3014,8 @@
       <c r="L92" s="32"/>
     </row>
     <row r="93" spans="1:12" ht="15.75">
-      <c r="A93" s="55"/>
-      <c r="B93" s="48"/>
+      <c r="A93" s="60"/>
+      <c r="B93" s="53"/>
       <c r="C93" s="11" t="s">
         <v>35</v>
       </c>
@@ -3030,8 +3030,8 @@
       <c r="L93" s="32"/>
     </row>
     <row r="94" spans="1:12" ht="15.75">
-      <c r="A94" s="55"/>
-      <c r="B94" s="48"/>
+      <c r="A94" s="60"/>
+      <c r="B94" s="53"/>
       <c r="C94" s="4" t="s">
         <v>59</v>
       </c>
@@ -3046,8 +3046,8 @@
       <c r="L94" s="32"/>
     </row>
     <row r="95" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A95" s="55"/>
-      <c r="B95" s="48"/>
+      <c r="A95" s="60"/>
+      <c r="B95" s="53"/>
       <c r="C95" s="13" t="s">
         <v>36</v>
       </c>
@@ -3062,8 +3062,8 @@
       <c r="L95" s="32"/>
     </row>
     <row r="96" spans="1:12" ht="15.75">
-      <c r="A96" s="55"/>
-      <c r="B96" s="48"/>
+      <c r="A96" s="60"/>
+      <c r="B96" s="53"/>
       <c r="C96" s="11" t="s">
         <v>20</v>
       </c>
@@ -3078,8 +3078,8 @@
       <c r="L96" s="32"/>
     </row>
     <row r="97" spans="1:12" ht="15.75">
-      <c r="A97" s="55"/>
-      <c r="B97" s="48"/>
+      <c r="A97" s="60"/>
+      <c r="B97" s="53"/>
       <c r="C97" s="11" t="s">
         <v>38</v>
       </c>
@@ -3094,8 +3094,8 @@
       <c r="L97" s="32"/>
     </row>
     <row r="98" spans="1:12" ht="15.75">
-      <c r="A98" s="55"/>
-      <c r="B98" s="48"/>
+      <c r="A98" s="60"/>
+      <c r="B98" s="53"/>
       <c r="C98" s="11" t="s">
         <v>39</v>
       </c>
@@ -3110,8 +3110,8 @@
       <c r="L98" s="32"/>
     </row>
     <row r="99" spans="1:12" ht="15.75">
-      <c r="A99" s="55"/>
-      <c r="B99" s="48"/>
+      <c r="A99" s="60"/>
+      <c r="B99" s="53"/>
       <c r="C99" s="13" t="s">
         <v>37</v>
       </c>
@@ -3126,8 +3126,8 @@
       <c r="L99" s="32"/>
     </row>
     <row r="100" spans="1:12" ht="15.75">
-      <c r="A100" s="55"/>
-      <c r="B100" s="48"/>
+      <c r="A100" s="60"/>
+      <c r="B100" s="53"/>
       <c r="C100" s="11" t="s">
         <v>20</v>
       </c>
@@ -3142,8 +3142,8 @@
       <c r="L100" s="32"/>
     </row>
     <row r="101" spans="1:12" ht="15.75">
-      <c r="A101" s="55"/>
-      <c r="B101" s="48"/>
+      <c r="A101" s="60"/>
+      <c r="B101" s="53"/>
       <c r="C101" s="11" t="s">
         <v>38</v>
       </c>
@@ -3158,8 +3158,8 @@
       <c r="L101" s="32"/>
     </row>
     <row r="102" spans="1:12" ht="15.75">
-      <c r="A102" s="56"/>
-      <c r="B102" s="49"/>
+      <c r="A102" s="61"/>
+      <c r="B102" s="54"/>
       <c r="C102" s="13" t="s">
         <v>57</v>
       </c>
@@ -3174,10 +3174,10 @@
       <c r="L102" s="32"/>
     </row>
     <row r="103" spans="1:12" ht="15.75">
-      <c r="A103" s="54">
+      <c r="A103" s="59">
         <v>6</v>
       </c>
-      <c r="B103" s="47" t="s">
+      <c r="B103" s="52" t="s">
         <v>7</v>
       </c>
       <c r="C103" s="11" t="s">
@@ -3194,8 +3194,8 @@
       <c r="L103" s="32"/>
     </row>
     <row r="104" spans="1:12" ht="15.75">
-      <c r="A104" s="55"/>
-      <c r="B104" s="48"/>
+      <c r="A104" s="60"/>
+      <c r="B104" s="53"/>
       <c r="C104" s="11" t="s">
         <v>38</v>
       </c>
@@ -3210,8 +3210,8 @@
       <c r="L104" s="32"/>
     </row>
     <row r="105" spans="1:12" ht="15.75">
-      <c r="A105" s="55"/>
-      <c r="B105" s="48"/>
+      <c r="A105" s="60"/>
+      <c r="B105" s="53"/>
       <c r="C105" s="13" t="s">
         <v>41</v>
       </c>
@@ -3226,8 +3226,8 @@
       <c r="L105" s="32"/>
     </row>
     <row r="106" spans="1:12" ht="15.75">
-      <c r="A106" s="55"/>
-      <c r="B106" s="48"/>
+      <c r="A106" s="60"/>
+      <c r="B106" s="53"/>
       <c r="C106" s="13" t="s">
         <v>42</v>
       </c>
@@ -3242,8 +3242,8 @@
       <c r="L106" s="32"/>
     </row>
     <row r="107" spans="1:12" ht="15.75">
-      <c r="A107" s="55"/>
-      <c r="B107" s="48"/>
+      <c r="A107" s="60"/>
+      <c r="B107" s="53"/>
       <c r="C107" s="11" t="s">
         <v>20</v>
       </c>
@@ -3258,8 +3258,8 @@
       <c r="L107" s="32"/>
     </row>
     <row r="108" spans="1:12" ht="15.75">
-      <c r="A108" s="56"/>
-      <c r="B108" s="49"/>
+      <c r="A108" s="61"/>
+      <c r="B108" s="54"/>
       <c r="C108" s="11" t="s">
         <v>38</v>
       </c>

--- a/wiki/report/Tasksheet.xlsx
+++ b/wiki/report/Tasksheet.xlsx
@@ -764,7 +764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -922,6 +922,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1228,8 +1231,8 @@
   <dimension ref="A1:L125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L74" sqref="L74"/>
+      <pane ySplit="12" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2998,11 +3001,11 @@
         <v>132</v>
       </c>
       <c r="D86" s="26"/>
-      <c r="E86" s="26" t="s">
-        <v>8</v>
-      </c>
+      <c r="E86" s="7"/>
       <c r="F86" s="26"/>
-      <c r="G86" s="26"/>
+      <c r="G86" s="26" t="s">
+        <v>8</v>
+      </c>
       <c r="H86" s="31"/>
       <c r="I86" s="32"/>
       <c r="J86" s="38">
@@ -3018,11 +3021,11 @@
         <v>133</v>
       </c>
       <c r="D87" s="26"/>
-      <c r="E87" s="26" t="s">
-        <v>8</v>
-      </c>
+      <c r="E87" s="7"/>
       <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
+      <c r="G87" s="26" t="s">
+        <v>8</v>
+      </c>
       <c r="H87" s="31"/>
       <c r="I87" s="32"/>
       <c r="J87" s="38">
@@ -3038,7 +3041,7 @@
         <v>116</v>
       </c>
       <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
+      <c r="E88" s="64"/>
       <c r="F88" s="26"/>
       <c r="G88" s="26"/>
       <c r="H88" s="31"/>
@@ -3689,7 +3692,7 @@
     <mergeCell ref="A112:A117"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G42:G43 F2:G41 E2:E32 L2:L117 D2:D125 F44:G125 E34:E125">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G42:G43 F2:G41 E2:E32 L2:L117 D2:D125 F44:G125 E34:E85 E88:E125">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
